--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446F7521-035B-4D65-AC5B-777319BD2565}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9932CAC-50C1-40D2-8455-7B947238CA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12672" yWindow="312" windowWidth="16128" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12675" yWindow="315" windowWidth="16125" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -614,9 +614,9 @@
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,7 +632,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -931,39 +931,39 @@
   <dimension ref="A1:BB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" customWidth="1"/>
-    <col min="7" max="11" width="10.69921875" customWidth="1"/>
-    <col min="12" max="12" width="19.69921875" customWidth="1"/>
-    <col min="13" max="13" width="10.69921875" customWidth="1"/>
-    <col min="14" max="14" width="15.8984375" customWidth="1"/>
-    <col min="15" max="15" width="15.19921875" customWidth="1"/>
-    <col min="16" max="16" width="14.8984375" customWidth="1"/>
-    <col min="17" max="19" width="18.19921875" customWidth="1"/>
+    <col min="1" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="19.75" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="15.25" customWidth="1"/>
+    <col min="16" max="16" width="14.875" customWidth="1"/>
+    <col min="17" max="19" width="18.25" customWidth="1"/>
     <col min="20" max="20" width="15.5" customWidth="1"/>
     <col min="21" max="21" width="15.5" style="3" customWidth="1"/>
     <col min="22" max="22" width="15.5" customWidth="1"/>
-    <col min="23" max="23" width="10.69921875" customWidth="1"/>
-    <col min="24" max="24" width="17.09765625" customWidth="1"/>
-    <col min="25" max="31" width="10.69921875" customWidth="1"/>
-    <col min="32" max="32" width="16.59765625" customWidth="1"/>
-    <col min="33" max="33" width="10.69921875" customWidth="1"/>
-    <col min="34" max="34" width="21.19921875" customWidth="1"/>
-    <col min="35" max="50" width="10.69921875" customWidth="1"/>
-    <col min="51" max="51" width="10.69921875" style="3" customWidth="1"/>
-    <col min="52" max="52" width="10.69921875" customWidth="1"/>
+    <col min="23" max="23" width="10.75" customWidth="1"/>
+    <col min="24" max="24" width="17.125" customWidth="1"/>
+    <col min="25" max="31" width="10.75" customWidth="1"/>
+    <col min="32" max="32" width="16.625" customWidth="1"/>
+    <col min="33" max="33" width="10.75" customWidth="1"/>
+    <col min="34" max="34" width="21.25" customWidth="1"/>
+    <col min="35" max="50" width="10.75" customWidth="1"/>
+    <col min="51" max="51" width="10.75" style="3" customWidth="1"/>
+    <col min="52" max="52" width="10.75" customWidth="1"/>
     <col min="53" max="53" width="19" style="3" customWidth="1"/>
-    <col min="54" max="1023" width="10.69921875" customWidth="1"/>
+    <col min="54" max="1023" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="6">
         <v>44739</v>
       </c>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="BA2" s="2"/>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B3" s="10">
         <v>44740</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B4" s="10">
         <v>44742</v>
       </c>
@@ -1554,15 +1554,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AZ5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
   </sheetData>
@@ -1581,9 +1578,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
@@ -1600,9 +1597,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9932CAC-50C1-40D2-8455-7B947238CA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E0151D-72EC-4CD0-B1BA-1946297C3050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12675" yWindow="315" windowWidth="16125" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,9 +207,6 @@
     <t>Strüth</t>
   </si>
   <si>
-    <t>Kr. [????] kisch</t>
-  </si>
-  <si>
     <t>Omeisela</t>
   </si>
   <si>
@@ -327,15 +324,6 @@
     <t>s´Omeisala (s)</t>
   </si>
   <si>
-    <t>d´Licht, Vergräbnis (w)</t>
-  </si>
-  <si>
-    <t>d´Brumbäre (w)</t>
-  </si>
-  <si>
-    <t>der Disel (m)</t>
-  </si>
-  <si>
     <t>d´Agerschta (w)</t>
   </si>
   <si>
@@ -414,12 +402,6 @@
     <t>III_17_0004</t>
   </si>
   <si>
-    <t>x-v (ü+)</t>
-  </si>
-  <si>
-    <t>Feldbach</t>
-  </si>
-  <si>
     <t>Jos Philipps</t>
   </si>
   <si>
@@ -514,6 +496,24 @@
   </si>
   <si>
     <t>Geiß</t>
+  </si>
+  <si>
+    <t>Kr. [????]kisch</t>
+  </si>
+  <si>
+    <t>x-v &lt;u+&gt;</t>
+  </si>
+  <si>
+    <t>[Feldbach]</t>
+  </si>
+  <si>
+    <t>Licht (d´), Vergräbnis (w)</t>
+  </si>
+  <si>
+    <t>Brumbäre (d´, w)</t>
+  </si>
+  <si>
+    <t>Disel (der, m)</t>
   </si>
 </sst>
 </file>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1162,7 +1162,7 @@
         <v>60</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="O2" s="7">
         <v>999</v>
@@ -1180,94 +1180,94 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="AA2" s="7">
         <v>999</v>
       </c>
       <c r="AB2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="AF2" s="7">
         <v>999</v>
       </c>
       <c r="AG2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AO2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AV2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AW2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AX2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AY2" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="BA2" s="2"/>
     </row>
@@ -1288,10 +1288,10 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
         <v>90</v>
-      </c>
-      <c r="H3" t="s">
-        <v>91</v>
       </c>
       <c r="I3">
         <v>24.4</v>
@@ -1300,118 +1300,118 @@
         <v>47.3</v>
       </c>
       <c r="K3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" t="s">
         <v>92</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>94</v>
       </c>
-      <c r="N3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>95</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>96</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>97</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="AA3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="AB3" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="AC3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="AD3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AE3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AF3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AG3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AH3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AI3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AK3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AL3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AM3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AN3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AO3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AP3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AQ3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AS3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AT3" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="AP3" s="11" t="s">
+      <c r="AU3" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AQ3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR3" s="11" t="s">
+      <c r="AV3" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AW3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AX3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AY3" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="AV3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AW3" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AX3" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
@@ -1431,10 +1431,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4">
         <v>24.5</v>
@@ -1443,115 +1443,115 @@
         <v>47.3</v>
       </c>
       <c r="K4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X4" t="s">
         <v>130</v>
       </c>
-      <c r="L4" t="s">
+      <c r="Y4" t="s">
         <v>131</v>
       </c>
-      <c r="N4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O4" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="Z4" t="s">
         <v>132</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="AA4" t="s">
         <v>133</v>
       </c>
-      <c r="T4" t="s">
-        <v>98</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="AB4" t="s">
         <v>134</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AC4" t="s">
         <v>135</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AD4" t="s">
         <v>136</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AE4" t="s">
         <v>137</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AF4" t="s">
         <v>138</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AG4" t="s">
         <v>139</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AH4" t="s">
         <v>140</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AI4" t="s">
         <v>141</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AJ4" t="s">
         <v>142</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AK4" t="s">
         <v>143</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AL4" t="s">
         <v>144</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AM4" t="s">
         <v>145</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AN4" t="s">
         <v>146</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AO4" t="s">
         <v>147</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AP4" t="s">
         <v>148</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AQ4" t="s">
         <v>149</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AR4" t="s">
         <v>150</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AS4" t="s">
         <v>151</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AT4" t="s">
         <v>152</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AU4" t="s">
         <v>153</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AV4" t="s">
         <v>154</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AW4" t="s">
         <v>155</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AX4" t="s">
         <v>156</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AY4" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E0151D-72EC-4CD0-B1BA-1946297C3050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9964A6D-A2C7-4A40-8221-80FDFD8805A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12675" yWindow="315" windowWidth="16125" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,84 +321,12 @@
     <t>Marie Johanna Herzog</t>
   </si>
   <si>
-    <t>s´Omeisala (s)</t>
-  </si>
-  <si>
-    <t>d´Agerschta (w)</t>
-  </si>
-  <si>
-    <t>der Galger (m)</t>
-  </si>
-  <si>
-    <t>d´Fladermüs (w)</t>
-  </si>
-  <si>
-    <t>d´Mucka (w)</t>
-  </si>
-  <si>
-    <t>s´Amd (s)</t>
-  </si>
-  <si>
-    <t>d´Gagumera (w)</t>
-  </si>
-  <si>
-    <t>d´Buttla (w)</t>
-  </si>
-  <si>
-    <t>der Guckel (m), d´Huehn (w)</t>
-  </si>
-  <si>
-    <t>d´Hebamma (w)</t>
-  </si>
-  <si>
-    <t>d´Hartäpfel (w)</t>
-  </si>
-  <si>
-    <t>der Rolli (m)</t>
-  </si>
-  <si>
-    <t>d´Schormüs (w)</t>
-  </si>
-  <si>
-    <t>d´Kalriewa (w)</t>
-  </si>
-  <si>
-    <t>d´Mora (w)</t>
-  </si>
-  <si>
-    <t>der Geta (m)</t>
-  </si>
-  <si>
-    <t>der Rieme (m)</t>
-  </si>
-  <si>
-    <t>d´Pflüma (w)</t>
-  </si>
-  <si>
-    <t>der Spatz (m)</t>
-  </si>
-  <si>
-    <t>d´Stachelbära (w)</t>
-  </si>
-  <si>
-    <t>d´Gufa (w)</t>
-  </si>
-  <si>
-    <t>d´Stricknodla (w)</t>
-  </si>
-  <si>
-    <t>s´Tassala (s)</t>
-  </si>
-  <si>
     <t>artiger Hafa (m)</t>
   </si>
   <si>
     <t>zwiega</t>
   </si>
   <si>
-    <t>d´Geiß (w)</t>
-  </si>
-  <si>
     <t>III_17_0004</t>
   </si>
   <si>
@@ -441,15 +369,9 @@
     <t>Dudde (w)</t>
   </si>
   <si>
-    <t>Guggel,  Hühn</t>
-  </si>
-  <si>
     <t>Hebamme</t>
   </si>
   <si>
-    <t>Hardepfel 8m)</t>
-  </si>
-  <si>
     <t>Rolli (m)</t>
   </si>
   <si>
@@ -514,6 +436,84 @@
   </si>
   <si>
     <t>Disel (der, m)</t>
+  </si>
+  <si>
+    <t>Hardepfel (m)</t>
+  </si>
+  <si>
+    <t>Guggel, Hühn</t>
+  </si>
+  <si>
+    <t>Omeisala (s´, s)</t>
+  </si>
+  <si>
+    <t>Agerschta (d´, w)</t>
+  </si>
+  <si>
+    <t>Galger (der, m)</t>
+  </si>
+  <si>
+    <t>Fladermüs (d´, w)</t>
+  </si>
+  <si>
+    <t>Mucka (d´, w)</t>
+  </si>
+  <si>
+    <t>Amd (s´, s)</t>
+  </si>
+  <si>
+    <t>Gagumera (d´, w)</t>
+  </si>
+  <si>
+    <t>Buttla (d´, w)</t>
+  </si>
+  <si>
+    <t>Guckel (der, m), Huehn (d´, w)</t>
+  </si>
+  <si>
+    <t>Hebamma (d´, w)</t>
+  </si>
+  <si>
+    <t>Hartäpfel (d´, w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rolli (der, m)</t>
+  </si>
+  <si>
+    <t>Schormüs (d´, w)</t>
+  </si>
+  <si>
+    <t>Kalriewa (d´, w)</t>
+  </si>
+  <si>
+    <t>Mora (d´, w)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geta (der, m)</t>
+  </si>
+  <si>
+    <t>Rieme (der, m)</t>
+  </si>
+  <si>
+    <t>Pflüma (d´, w)</t>
+  </si>
+  <si>
+    <t>Spatz (der, m)</t>
+  </si>
+  <si>
+    <t>Stachelbära (d´, w)</t>
+  </si>
+  <si>
+    <t>Gufa (d´, w)</t>
+  </si>
+  <si>
+    <t>Stricknodla (d´, w)</t>
+  </si>
+  <si>
+    <t>Tassala (s´, s)</t>
+  </si>
+  <si>
+    <t>Geiß (d´, w)</t>
   </si>
 </sst>
 </file>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AY3" sqref="AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1162,7 +1162,7 @@
         <v>60</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="O2" s="7">
         <v>999</v>
@@ -1324,94 +1324,94 @@
         <v>98</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AF3" s="11" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="AH3" s="11" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="AL3" s="11" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="AN3" s="11" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="AP3" s="11" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>80</v>
       </c>
       <c r="AR3" s="11" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="AS3" s="11" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="AT3" s="11" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="AU3" s="11" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="AV3" s="11" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="AW3" s="11" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="AX3" s="11" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H4" t="s">
         <v>90</v>
@@ -1443,10 +1443,10 @@
         <v>47.3</v>
       </c>
       <c r="K4" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="L4" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="N4" t="s">
         <v>92</v>
@@ -1455,103 +1455,103 @@
         <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="Q4" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="T4" t="s">
         <v>97</v>
       </c>
       <c r="V4" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="W4" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="X4" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="Y4" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="Z4" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="AA4" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="AB4" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="AC4" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="AD4" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="AE4" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="AF4" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="AG4" t="s">
         <v>139</v>
       </c>
       <c r="AH4" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AI4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AJ4" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="AK4" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="AL4" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="AM4" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="AN4" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="AO4" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="AP4" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="AQ4" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="AR4" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="AS4" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="AT4" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="AU4" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="AV4" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="AW4" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="AX4" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9964A6D-A2C7-4A40-8221-80FDFD8805A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FBAA8C-830A-48A6-86A0-8553C9B1D230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="315" windowWidth="16125" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="105" windowWidth="16125" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="259">
   <si>
     <t>ID</t>
   </si>
@@ -514,6 +514,291 @@
   </si>
   <si>
     <t>Geiß (d´, w)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>x-o</t>
+  </si>
+  <si>
+    <t>Rüderbach</t>
+  </si>
+  <si>
+    <t>Kreis Altkirch</t>
+  </si>
+  <si>
+    <t>Elsaß</t>
+  </si>
+  <si>
+    <t>Fritz Zollner</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Schwarzw.</t>
+  </si>
+  <si>
+    <t>Kr. Neustadt</t>
+  </si>
+  <si>
+    <t>Menzenschwand</t>
+  </si>
+  <si>
+    <t>Omeisala</t>
+  </si>
+  <si>
+    <t>Vergräbnis</t>
+  </si>
+  <si>
+    <t>Dissel</t>
+  </si>
+  <si>
+    <t>Agesta</t>
+  </si>
+  <si>
+    <t>Ratsch</t>
+  </si>
+  <si>
+    <t>Mücka</t>
+  </si>
+  <si>
+    <t>Ahmt</t>
+  </si>
+  <si>
+    <t>Gagummera</t>
+  </si>
+  <si>
+    <t>Hogabutta</t>
+  </si>
+  <si>
+    <t>Guckel</t>
+  </si>
+  <si>
+    <t>Hebamm</t>
+  </si>
+  <si>
+    <t>Rolli</t>
+  </si>
+  <si>
+    <t>Koleraba, Galaruaba</t>
+  </si>
+  <si>
+    <t>Mor</t>
+  </si>
+  <si>
+    <t>Gätta</t>
+  </si>
+  <si>
+    <t>Pflüma</t>
+  </si>
+  <si>
+    <t>schalda</t>
+  </si>
+  <si>
+    <t>Spotz</t>
+  </si>
+  <si>
+    <t>Grüsselbeere</t>
+  </si>
+  <si>
+    <t>Stecknodla</t>
+  </si>
+  <si>
+    <t>Stricknodla</t>
+  </si>
+  <si>
+    <t>zwiga</t>
+  </si>
+  <si>
+    <t>Tasala</t>
+  </si>
+  <si>
+    <t>III_17_0007</t>
+  </si>
+  <si>
+    <t>III_17_0006</t>
+  </si>
+  <si>
+    <t>x-q</t>
+  </si>
+  <si>
+    <t>Grenzingen</t>
+  </si>
+  <si>
+    <t>Sittler</t>
+  </si>
+  <si>
+    <t>Hessenheim</t>
+  </si>
+  <si>
+    <t>Omeisele</t>
+  </si>
+  <si>
+    <t>Licht</t>
+  </si>
+  <si>
+    <t>Brombeere</t>
+  </si>
+  <si>
+    <t>Agast</t>
+  </si>
+  <si>
+    <t>Ratscha</t>
+  </si>
+  <si>
+    <t>Fledamaus</t>
+  </si>
+  <si>
+    <t>Mücke</t>
+  </si>
+  <si>
+    <t>Ohmet</t>
+  </si>
+  <si>
+    <t>Ga[??]mmer</t>
+  </si>
+  <si>
+    <t>Butten</t>
+  </si>
+  <si>
+    <t>Heebamme</t>
+  </si>
+  <si>
+    <t>Hartepfel</t>
+  </si>
+  <si>
+    <t>Charm[?]s</t>
+  </si>
+  <si>
+    <t>gelbe Rübe</t>
+  </si>
+  <si>
+    <t>Mohr</t>
+  </si>
+  <si>
+    <t>Gett[?]</t>
+  </si>
+  <si>
+    <t>Riemen</t>
+  </si>
+  <si>
+    <t>lärmen</t>
+  </si>
+  <si>
+    <t>Grüselsbeera</t>
+  </si>
+  <si>
+    <t>Guffa</t>
+  </si>
+  <si>
+    <t>Stricknadel</t>
+  </si>
+  <si>
+    <t>Tasse</t>
+  </si>
+  <si>
+    <t>Hafen</t>
+  </si>
+  <si>
+    <t>eigla</t>
+  </si>
+  <si>
+    <t>III_17_0008</t>
+  </si>
+  <si>
+    <t>[?]-x</t>
+  </si>
+  <si>
+    <t>Roppenzweiler</t>
+  </si>
+  <si>
+    <t>Els.</t>
+  </si>
+  <si>
+    <t>Fritig. Ida</t>
+  </si>
+  <si>
+    <t>Kolmar i. E.</t>
+  </si>
+  <si>
+    <t>von Roppenzweiler</t>
+  </si>
+  <si>
+    <t>Omaisale (s)</t>
+  </si>
+  <si>
+    <t>Lücht (w)</t>
+  </si>
+  <si>
+    <t>Brumbäri (w)</t>
+  </si>
+  <si>
+    <t>Dissel (m)</t>
+  </si>
+  <si>
+    <t>Agerschta (w)</t>
+  </si>
+  <si>
+    <t>Mugga (w)</t>
+  </si>
+  <si>
+    <t>Ähmt (s)</t>
+  </si>
+  <si>
+    <t>Gagumra (w)</t>
+  </si>
+  <si>
+    <t>Budda (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Gluckeri (w)</t>
+  </si>
+  <si>
+    <t>Hebamm (w)</t>
+  </si>
+  <si>
+    <t>Hardäpfel (m)</t>
+  </si>
+  <si>
+    <t>Scharrmüs (w)</t>
+  </si>
+  <si>
+    <t>Durlibs (m)</t>
+  </si>
+  <si>
+    <t>Mohr (w)</t>
+  </si>
+  <si>
+    <t>Gäddi (m)</t>
+  </si>
+  <si>
+    <t>Riama (m)</t>
+  </si>
+  <si>
+    <t>Pflühma  (w)</t>
+  </si>
+  <si>
+    <t>schempfa</t>
+  </si>
+  <si>
+    <t>Schtachelbäri (w)</t>
+  </si>
+  <si>
+    <t>Guufa (w)</t>
+  </si>
+  <si>
+    <t>Schtrecknodla (w)</t>
+  </si>
+  <si>
+    <t>Schessale (s), Dallerle (s)</t>
+  </si>
+  <si>
+    <t>Hafa (m)</t>
+  </si>
+  <si>
+    <t>Gaiss (w)</t>
   </si>
 </sst>
 </file>
@@ -928,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB6"/>
+  <dimension ref="A1:BB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AY3" sqref="AY3"/>
+      <selection activeCell="AY7" sqref="AY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1555,12 +1840,436 @@
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B5" s="10">
+        <v>44760</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5">
+        <v>24.5</v>
+      </c>
+      <c r="J5">
+        <v>47.3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O5" t="s">
+        <v>168</v>
+      </c>
+      <c r="P5" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>173</v>
+      </c>
+      <c r="R5" t="s">
+        <v>172</v>
+      </c>
+      <c r="S5" t="s">
+        <v>171</v>
+      </c>
+      <c r="T5" t="s">
+        <v>170</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM5" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ5" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS5" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT5" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU5" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV5" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="AZ5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
+      <c r="B6" s="10">
+        <v>44760</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6">
+        <v>24.5</v>
+      </c>
+      <c r="J6">
+        <v>47.3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6" t="s">
+        <v>200</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>202</v>
+      </c>
+      <c r="T6">
+        <v>999</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG6" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH6" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI6" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK6" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL6" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM6" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN6" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO6" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ6" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT6" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU6" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV6" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AW6" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX6" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B7" s="10">
+        <v>44760</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7">
+        <v>24.5</v>
+      </c>
+      <c r="J7">
+        <v>47.3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" t="s">
+        <v>229</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>232</v>
+      </c>
+      <c r="T7" t="s">
+        <v>97</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH7" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI7" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK7" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM7" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN7" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO7" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP7" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ7" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS7" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT7" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU7" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AV7" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AW7" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AX7">
+        <v>999</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FBAA8C-830A-48A6-86A0-8553C9B1D230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0252C754-4FAA-4AC1-B66B-8FE86BD40C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="105" windowWidth="16125" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="338">
   <si>
     <t>ID</t>
   </si>
@@ -799,6 +799,243 @@
   </si>
   <si>
     <t>Gaiss (w)</t>
+  </si>
+  <si>
+    <t>III_17_0010</t>
+  </si>
+  <si>
+    <t>x-C</t>
+  </si>
+  <si>
+    <t>Köstlach</t>
+  </si>
+  <si>
+    <t>Oberelsass</t>
+  </si>
+  <si>
+    <t>A. Geiler</t>
+  </si>
+  <si>
+    <t>Kehl</t>
+  </si>
+  <si>
+    <t>Schüler der Oberklasse!</t>
+  </si>
+  <si>
+    <t>Begräbnis (s)</t>
+  </si>
+  <si>
+    <t>Brumbäre (w.)</t>
+  </si>
+  <si>
+    <t>Ägerschde (w.)</t>
+  </si>
+  <si>
+    <t>Rätsch (m)</t>
+  </si>
+  <si>
+    <t>Flädermüs (w.)</t>
+  </si>
+  <si>
+    <t>Mugge (w.)</t>
+  </si>
+  <si>
+    <t>Ähmd (s)</t>
+  </si>
+  <si>
+    <t>Gagummere</t>
+  </si>
+  <si>
+    <t>Buddä (w)</t>
+  </si>
+  <si>
+    <t>Guggl, [G]uän</t>
+  </si>
+  <si>
+    <t>Hebamm (w.)</t>
+  </si>
+  <si>
+    <t>Härdepfel (m)</t>
+  </si>
+  <si>
+    <t>Schär (m.)</t>
+  </si>
+  <si>
+    <t>Gallra[b]e (w.)</t>
+  </si>
+  <si>
+    <t>Mohr (w.)</t>
+  </si>
+  <si>
+    <t>Gedda (m)</t>
+  </si>
+  <si>
+    <t>Pflume</t>
+  </si>
+  <si>
+    <t>abriäle</t>
+  </si>
+  <si>
+    <t>Schbatz (m)</t>
+  </si>
+  <si>
+    <t>Chroschbela (w)</t>
+  </si>
+  <si>
+    <t>Gufa (w.)</t>
+  </si>
+  <si>
+    <t>Schtriggnodle (w)</t>
+  </si>
+  <si>
+    <t>Tässele</t>
+  </si>
+  <si>
+    <t>Gaiß (w.)</t>
+  </si>
+  <si>
+    <t>III_17_0011</t>
+  </si>
+  <si>
+    <t>x-B</t>
+  </si>
+  <si>
+    <t>Mörnach</t>
+  </si>
+  <si>
+    <t>Josef Gass</t>
+  </si>
+  <si>
+    <t>Fisl[?]</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Beerdigung</t>
+  </si>
+  <si>
+    <t>Brumbeere</t>
+  </si>
+  <si>
+    <t>Egerste</t>
+  </si>
+  <si>
+    <t>Mucke</t>
+  </si>
+  <si>
+    <t>Öhmt</t>
+  </si>
+  <si>
+    <t>Gagumere</t>
+  </si>
+  <si>
+    <t>Butte</t>
+  </si>
+  <si>
+    <t>Guckel, Huhn</t>
+  </si>
+  <si>
+    <t>Herdäpfel</t>
+  </si>
+  <si>
+    <t>Schermaus</t>
+  </si>
+  <si>
+    <t>Mohrrübe</t>
+  </si>
+  <si>
+    <t>Moor</t>
+  </si>
+  <si>
+    <t>Getti</t>
+  </si>
+  <si>
+    <t>Pflaume</t>
+  </si>
+  <si>
+    <t>schelten, schimpfen</t>
+  </si>
+  <si>
+    <t>Stachelbeere</t>
+  </si>
+  <si>
+    <t>Gufe</t>
+  </si>
+  <si>
+    <t>Unterteller</t>
+  </si>
+  <si>
+    <t>zweigen</t>
+  </si>
+  <si>
+    <t>III_17_0012</t>
+  </si>
+  <si>
+    <t>x-A</t>
+  </si>
+  <si>
+    <t>Moos</t>
+  </si>
+  <si>
+    <t>Schever</t>
+  </si>
+  <si>
+    <t>Kolmar</t>
+  </si>
+  <si>
+    <t>Omeisala (s)</t>
+  </si>
+  <si>
+    <t>Licht (w)</t>
+  </si>
+  <si>
+    <t>Brumbeera (w)</t>
+  </si>
+  <si>
+    <t>Agssla (w)</t>
+  </si>
+  <si>
+    <t>Fladrmüs (w)</t>
+  </si>
+  <si>
+    <t>Ämt (s)</t>
+  </si>
+  <si>
+    <t>Gugummra (w)</t>
+  </si>
+  <si>
+    <t>Budda (m)</t>
+  </si>
+  <si>
+    <t>Guggl (m), Hüahn (w)</t>
+  </si>
+  <si>
+    <t>Galriaba (m)</t>
+  </si>
+  <si>
+    <t>Gädda (m)</t>
+  </si>
+  <si>
+    <t>larma</t>
+  </si>
+  <si>
+    <t>Chroschbala (w)</t>
+  </si>
+  <si>
+    <t>Gufa (w)</t>
+  </si>
+  <si>
+    <t>S[?]riggnodla (w)</t>
+  </si>
+  <si>
+    <t>Schüssala (s)</t>
+  </si>
+  <si>
+    <t>hardigr Hafa (m)</t>
+  </si>
+  <si>
+    <t>Geiß (w)</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB7"/>
+  <dimension ref="A1:BB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AY7" sqref="AY7"/>
+      <selection activeCell="AY10" sqref="AY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2269,6 +2506,429 @@
       </c>
       <c r="AY7" s="3" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B8" s="10">
+        <v>44762</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8">
+        <v>24.5</v>
+      </c>
+      <c r="J8">
+        <v>47.3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" t="s">
+        <v>261</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>264</v>
+      </c>
+      <c r="T8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF8" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG8" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH8" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI8" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK8" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM8" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN8" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO8" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP8" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="AQ8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR8" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AS8" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT8" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU8" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV8" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW8" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AX8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY8" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B9" s="10">
+        <v>44762</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9">
+        <v>24.5</v>
+      </c>
+      <c r="J9">
+        <v>47.3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>291</v>
+      </c>
+      <c r="L9" t="s">
+        <v>292</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9">
+        <v>999</v>
+      </c>
+      <c r="P9" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>294</v>
+      </c>
+      <c r="T9" t="s">
+        <v>295</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG9" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL9" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM9" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN9" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO9" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="AQ9" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS9" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="AT9" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="AU9" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV9" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW9" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX9" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B10" s="10">
+        <v>44762</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>315</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>24.5</v>
+      </c>
+      <c r="J10">
+        <v>47.3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>316</v>
+      </c>
+      <c r="L10" t="s">
+        <v>317</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10">
+        <v>999</v>
+      </c>
+      <c r="P10" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>319</v>
+      </c>
+      <c r="T10" t="s">
+        <v>295</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF10" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG10" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH10" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI10" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ10" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL10" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM10" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN10" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO10" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP10" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ10" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS10" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="AT10" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="AU10" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="AV10" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="AW10" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="AX10" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY10" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0252C754-4FAA-4AC1-B66B-8FE86BD40C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441ADD22-E89D-4457-9D0B-A15CA29F4AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="379">
   <si>
     <t>ID</t>
   </si>
@@ -1036,6 +1036,129 @@
   </si>
   <si>
     <t>Geiß (w)</t>
+  </si>
+  <si>
+    <t>III_17_0013</t>
+  </si>
+  <si>
+    <t>x-t</t>
+  </si>
+  <si>
+    <t>Bisel</t>
+  </si>
+  <si>
+    <t>Wilhelm Tschan</t>
+  </si>
+  <si>
+    <t>Offenburg (Baden)</t>
+  </si>
+  <si>
+    <t>Vath Rocklin, Oser Irma Mattler</t>
+  </si>
+  <si>
+    <t>Brumbära</t>
+  </si>
+  <si>
+    <t>Anta</t>
+  </si>
+  <si>
+    <t>Mucka</t>
+  </si>
+  <si>
+    <t>Gakummera</t>
+  </si>
+  <si>
+    <t>Butta</t>
+  </si>
+  <si>
+    <t>Guckel, Hüahn</t>
+  </si>
+  <si>
+    <t>Hebam (d´)</t>
+  </si>
+  <si>
+    <t>Hardäpfel</t>
+  </si>
+  <si>
+    <t>Scharmüs</t>
+  </si>
+  <si>
+    <t>Gelerübe</t>
+  </si>
+  <si>
+    <t>Gätte</t>
+  </si>
+  <si>
+    <t>Groschbala</t>
+  </si>
+  <si>
+    <t>Streknotla</t>
+  </si>
+  <si>
+    <t>Dasala</t>
+  </si>
+  <si>
+    <t>III_17_0014</t>
+  </si>
+  <si>
+    <t>x-z</t>
+  </si>
+  <si>
+    <t>Niedersept</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Ko[?]stlach</t>
+  </si>
+  <si>
+    <t>Brumbäre</t>
+  </si>
+  <si>
+    <t>Agaschte</t>
+  </si>
+  <si>
+    <t>Ante</t>
+  </si>
+  <si>
+    <t>Gagummere, concombre franz.</t>
+  </si>
+  <si>
+    <t>Guggel, Gluckere</t>
+  </si>
+  <si>
+    <t>,Gaaleriawe</t>
+  </si>
+  <si>
+    <t>Mohre</t>
+  </si>
+  <si>
+    <t>Gette</t>
+  </si>
+  <si>
+    <t>Riame</t>
+  </si>
+  <si>
+    <t>Pflüme</t>
+  </si>
+  <si>
+    <t>schalte</t>
+  </si>
+  <si>
+    <t>Grüselbäre</t>
+  </si>
+  <si>
+    <t>Stricknodle</t>
+  </si>
+  <si>
+    <t>Hafe</t>
+  </si>
+  <si>
+    <t>zwige</t>
+  </si>
+  <si>
+    <t>Geiss</t>
   </si>
 </sst>
 </file>
@@ -1450,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB10"/>
+  <dimension ref="A1:BB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AY10" sqref="AY10"/>
+      <selection activeCell="AY12" sqref="AY12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2929,6 +3052,289 @@
       </c>
       <c r="AY10" s="3" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B11" s="10">
+        <v>44763</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>338</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11">
+        <v>24.5</v>
+      </c>
+      <c r="J11">
+        <v>47.3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>339</v>
+      </c>
+      <c r="L11" t="s">
+        <v>340</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" t="s">
+        <v>168</v>
+      </c>
+      <c r="P11" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>342</v>
+      </c>
+      <c r="T11">
+        <v>999</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE11" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK11" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL11" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM11" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN11" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="AO11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ11" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU11" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="AV11" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="AW11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX11" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B12" s="10">
+        <v>44763</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>358</v>
+      </c>
+      <c r="H12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12">
+        <v>24.5</v>
+      </c>
+      <c r="J12">
+        <v>47.3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>359</v>
+      </c>
+      <c r="L12" t="s">
+        <v>360</v>
+      </c>
+      <c r="N12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" t="s">
+        <v>168</v>
+      </c>
+      <c r="P12" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>362</v>
+      </c>
+      <c r="T12" t="s">
+        <v>170</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE12" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG12" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH12" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI12" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AJ12" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK12" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL12" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="AM12" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AN12" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AO12" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="AP12" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="AQ12" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS12" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="AT12" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="AU12" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="AV12" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AW12" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="AX12" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AY12" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441ADD22-E89D-4457-9D0B-A15CA29F4AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8FB52A-230F-47AE-9C09-AAAFC1BA4A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="424">
   <si>
     <t>ID</t>
   </si>
@@ -198,9 +198,6 @@
     <t>x-h</t>
   </si>
   <si>
-    <t>a"</t>
-  </si>
-  <si>
     <t>III_17_0001</t>
   </si>
   <si>
@@ -825,9 +822,6 @@
     <t>Begräbnis (s)</t>
   </si>
   <si>
-    <t>Brumbäre (w.)</t>
-  </si>
-  <si>
     <t>Ägerschde (w.)</t>
   </si>
   <si>
@@ -837,9 +831,6 @@
     <t>Flädermüs (w.)</t>
   </si>
   <si>
-    <t>Mugge (w.)</t>
-  </si>
-  <si>
     <t>Ähmd (s)</t>
   </si>
   <si>
@@ -852,21 +843,9 @@
     <t>Guggl, [G]uän</t>
   </si>
   <si>
-    <t>Hebamm (w.)</t>
-  </si>
-  <si>
     <t>Härdepfel (m)</t>
   </si>
   <si>
-    <t>Schär (m.)</t>
-  </si>
-  <si>
-    <t>Gallra[b]e (w.)</t>
-  </si>
-  <si>
-    <t>Mohr (w.)</t>
-  </si>
-  <si>
     <t>Gedda (m)</t>
   </si>
   <si>
@@ -882,18 +861,12 @@
     <t>Chroschbela (w)</t>
   </si>
   <si>
-    <t>Gufa (w.)</t>
-  </si>
-  <si>
     <t>Schtriggnodle (w)</t>
   </si>
   <si>
     <t>Tässele</t>
   </si>
   <si>
-    <t>Gaiß (w.)</t>
-  </si>
-  <si>
     <t>III_17_0011</t>
   </si>
   <si>
@@ -1159,6 +1132,168 @@
   </si>
   <si>
     <t>Geiss</t>
+  </si>
+  <si>
+    <t>Brumbäre (w)</t>
+  </si>
+  <si>
+    <t>Schär (m)</t>
+  </si>
+  <si>
+    <t>Gallra[b]e (w)</t>
+  </si>
+  <si>
+    <t>Gaiß (w)</t>
+  </si>
+  <si>
+    <t>a''</t>
+  </si>
+  <si>
+    <t>III_17_0015</t>
+  </si>
+  <si>
+    <t>r-E</t>
+  </si>
+  <si>
+    <t>Werenzhausen</t>
+  </si>
+  <si>
+    <t>Ober-Elsass</t>
+  </si>
+  <si>
+    <t>Emil Eberlin</t>
+  </si>
+  <si>
+    <t>Orschweier</t>
+  </si>
+  <si>
+    <t>Omaisale</t>
+  </si>
+  <si>
+    <t>Brommera</t>
+  </si>
+  <si>
+    <t>Agerschta</t>
+  </si>
+  <si>
+    <t>Ratscher</t>
+  </si>
+  <si>
+    <t>Fladrmüs</t>
+  </si>
+  <si>
+    <t>Mugga</t>
+  </si>
+  <si>
+    <t>Guggumera</t>
+  </si>
+  <si>
+    <t>Gogl, Hühn</t>
+  </si>
+  <si>
+    <t>Hardäpfl</t>
+  </si>
+  <si>
+    <t>Schahr</t>
+  </si>
+  <si>
+    <t>Gallriawa</t>
+  </si>
+  <si>
+    <t>Gätti</t>
+  </si>
+  <si>
+    <t>Schpatz</t>
+  </si>
+  <si>
+    <t>Grüssela</t>
+  </si>
+  <si>
+    <t>Schtricknodla</t>
+  </si>
+  <si>
+    <t>Tassle</t>
+  </si>
+  <si>
+    <t>Kehrle</t>
+  </si>
+  <si>
+    <t>umzwiega</t>
+  </si>
+  <si>
+    <t>Gais</t>
+  </si>
+  <si>
+    <t>III_17_0016</t>
+  </si>
+  <si>
+    <t>x-H &lt;G+&gt;</t>
+  </si>
+  <si>
+    <t>Bettlach</t>
+  </si>
+  <si>
+    <t>Bitsch August</t>
+  </si>
+  <si>
+    <t>Niederburnhaupt</t>
+  </si>
+  <si>
+    <t>Kreis Tann. Elsaß</t>
+  </si>
+  <si>
+    <t>V´rgräbnis (s)</t>
+  </si>
+  <si>
+    <t>Brumbära (w)</t>
+  </si>
+  <si>
+    <t>Anta (w)</t>
+  </si>
+  <si>
+    <t>Mucka (w)</t>
+  </si>
+  <si>
+    <t>Gugumm´ra (w)</t>
+  </si>
+  <si>
+    <t>Butta (w)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Chatz (w)</t>
+  </si>
+  <si>
+    <t>Galrieble (s)</t>
+  </si>
+  <si>
+    <t>Moor (w)</t>
+  </si>
+  <si>
+    <t>Gätti (m)</t>
+  </si>
+  <si>
+    <t>Pflüma (w)</t>
+  </si>
+  <si>
+    <t>handla</t>
+  </si>
+  <si>
+    <t>Chrüselbära (w)</t>
+  </si>
+  <si>
+    <t>Stucknodla (W)</t>
+  </si>
+  <si>
+    <t>Dassa (w), Dassale (s)</t>
+  </si>
+  <si>
+    <t>hardiga Hafa (m)</t>
+  </si>
+  <si>
+    <t>zwiga, eigla</t>
   </si>
 </sst>
 </file>
@@ -1573,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AY12" sqref="AY12"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AY14" sqref="AY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1780,7 +1915,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="E2" s="7">
         <v>9</v>
@@ -1789,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>56</v>
@@ -1804,10 +1939,10 @@
         <v>57</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O2" s="7">
         <v>999</v>
@@ -1825,94 +1960,94 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="AA2" s="7">
         <v>999</v>
       </c>
       <c r="AB2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="AF2" s="7">
         <v>999</v>
       </c>
       <c r="AG2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AO2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AV2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AW2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AX2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AY2" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="BA2" s="2"/>
     </row>
@@ -1924,7 +2059,7 @@
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -1933,10 +2068,10 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
         <v>89</v>
-      </c>
-      <c r="H3" t="s">
-        <v>90</v>
       </c>
       <c r="I3">
         <v>24.4</v>
@@ -1945,118 +2080,118 @@
         <v>47.3</v>
       </c>
       <c r="K3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" t="s">
         <v>91</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>93</v>
       </c>
-      <c r="N3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>94</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>96</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF3" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU3" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV3" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="V3" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF3" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH3" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI3" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL3" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN3" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO3" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AP3" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR3" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS3" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT3" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AU3" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AX3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY3" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="AW3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AX3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
@@ -2067,7 +2202,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -2076,10 +2211,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I4">
         <v>24.5</v>
@@ -2088,115 +2223,115 @@
         <v>47.3</v>
       </c>
       <c r="K4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" t="s">
         <v>133</v>
       </c>
-      <c r="L4" t="s">
-        <v>134</v>
-      </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" t="s">
         <v>102</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T4" t="s">
+        <v>96</v>
+      </c>
+      <c r="V4" t="s">
         <v>103</v>
       </c>
-      <c r="T4" t="s">
-        <v>97</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>104</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>105</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>106</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>107</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>108</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>109</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>110</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>111</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>112</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>113</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH4" t="s">
         <v>114</v>
       </c>
-      <c r="AG4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>115</v>
       </c>
-      <c r="AI4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>116</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>117</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>118</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>119</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>120</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>121</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>122</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>123</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>124</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>125</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>126</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>127</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>128</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>129</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
@@ -2207,7 +2342,7 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -2216,10 +2351,10 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I5">
         <v>24.5</v>
@@ -2228,121 +2363,121 @@
         <v>47.3</v>
       </c>
       <c r="K5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L5" t="s">
         <v>165</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>166</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>167</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>168</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
+        <v>172</v>
+      </c>
+      <c r="R5" t="s">
+        <v>171</v>
+      </c>
+      <c r="S5" t="s">
+        <v>170</v>
+      </c>
+      <c r="T5" t="s">
         <v>169</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="V5" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="R5" t="s">
-        <v>172</v>
-      </c>
-      <c r="S5" t="s">
-        <v>171</v>
-      </c>
-      <c r="T5" t="s">
-        <v>170</v>
-      </c>
-      <c r="V5" s="11" t="s">
+      <c r="W5" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="W5" s="11" t="s">
+      <c r="X5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y5" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="X5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Z5" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="AA5" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="AA5" s="11" t="s">
+      <c r="AB5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC5" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC5" s="11" t="s">
+      <c r="AD5" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="AD5" s="11" t="s">
+      <c r="AE5" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AF5" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="AF5" s="11" t="s">
+      <c r="AG5" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AH5" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="AH5" s="11" t="s">
+      <c r="AI5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AI5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
+      <c r="AK5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL5" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="AK5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL5" s="11" t="s">
+      <c r="AM5" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AM5" s="11" t="s">
+      <c r="AN5" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="AN5" s="11" t="s">
+      <c r="AO5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP5" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="AO5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP5" s="11" t="s">
+      <c r="AQ5" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="AQ5" s="11" t="s">
+      <c r="AR5" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="AR5" s="11" t="s">
+      <c r="AS5" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AS5" s="11" t="s">
+      <c r="AT5" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AT5" s="11" t="s">
+      <c r="AU5" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="AU5" s="11" t="s">
+      <c r="AV5" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX5" t="s">
         <v>194</v>
       </c>
-      <c r="AV5" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>195</v>
-      </c>
       <c r="AY5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AZ5" t="s">
         <v>50</v>
@@ -2356,7 +2491,7 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2365,7 +2500,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -2377,115 +2512,115 @@
         <v>47.3</v>
       </c>
       <c r="K6" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" t="s">
         <v>199</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" t="s">
         <v>200</v>
       </c>
-      <c r="N6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>201</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>202</v>
       </c>
       <c r="T6">
         <v>999</v>
       </c>
       <c r="V6" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="W6" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="X6" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z6" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="Y6" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z6" s="11" t="s">
+      <c r="AA6" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AB6" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AC6" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AD6" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AE6" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AF6" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AG6" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH6" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="AG6" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH6" s="11" t="s">
+      <c r="AI6" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="AI6" s="11" t="s">
+      <c r="AJ6" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK6" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="AJ6" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK6" s="11" t="s">
+      <c r="AL6" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="AM6" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="AM6" s="11" t="s">
+      <c r="AN6" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="AN6" s="11" t="s">
+      <c r="AO6" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="AO6" s="11" t="s">
+      <c r="AP6" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ6" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="AP6" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ6" s="11" t="s">
+      <c r="AR6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS6" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="AR6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS6" s="11" t="s">
+      <c r="AT6" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="AT6" s="11" t="s">
+      <c r="AU6" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="AU6" s="11" t="s">
+      <c r="AV6" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="AV6" s="11" t="s">
+      <c r="AW6" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="AW6" s="11" t="s">
+      <c r="AX6" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="AX6" s="11" t="s">
-        <v>226</v>
-      </c>
       <c r="AY6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
@@ -2496,7 +2631,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -2505,10 +2640,10 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I7">
         <v>24.5</v>
@@ -2517,118 +2652,118 @@
         <v>47.3</v>
       </c>
       <c r="K7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" t="s">
         <v>228</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
         <v>229</v>
       </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>230</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>231</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="T7" t="s">
+        <v>96</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="T7" t="s">
-        <v>97</v>
-      </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="W7" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="X7" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="Y7" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Z7" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AA7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC7" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="AA7" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AD7" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="AD7" s="11" t="s">
+      <c r="AE7" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AF7" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="AF7" s="11" t="s">
+      <c r="AG7" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AH7" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="AH7" s="11" t="s">
+      <c r="AI7" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="AI7" s="11" t="s">
+      <c r="AJ7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK7" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="AJ7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK7" s="11" t="s">
+      <c r="AL7" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="AL7" s="11" t="s">
+      <c r="AM7" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="AM7" s="11" t="s">
+      <c r="AN7" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="AN7" s="11" t="s">
+      <c r="AO7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="AO7" s="11" t="s">
+      <c r="AP7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="AP7" s="11" t="s">
+      <c r="AQ7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="AQ7" s="11" t="s">
+      <c r="AR7" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS7" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="AR7" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS7" s="11" t="s">
+      <c r="AT7" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="AT7" s="11" t="s">
+      <c r="AU7" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="AU7" s="11" t="s">
+      <c r="AV7" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="AV7" s="11" t="s">
+      <c r="AW7" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="AW7" s="11" t="s">
-        <v>257</v>
       </c>
       <c r="AX7">
         <v>999</v>
       </c>
       <c r="AY7" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
@@ -2639,7 +2774,7 @@
         <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -2648,10 +2783,10 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8">
         <v>24.5</v>
@@ -2660,118 +2795,118 @@
         <v>47.3</v>
       </c>
       <c r="K8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" t="s">
         <v>260</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
         <v>261</v>
       </c>
-      <c r="N8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>262</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>263</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="T8" t="s">
+        <v>96</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="T8" t="s">
-        <v>97</v>
-      </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="W8" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="V8" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="W8" s="11" t="s">
+      <c r="X8" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z8" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="AA8" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="Y8" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z8" s="11" t="s">
+      <c r="AB8" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AC8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD8" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="AB8" s="11" t="s">
+      <c r="AE8" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="AC8" s="11" t="s">
+      <c r="AF8" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="AD8" s="11" t="s">
+      <c r="AG8" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AE8" s="11" t="s">
+      <c r="AH8" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI8" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="AF8" s="11" t="s">
+      <c r="AJ8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK8" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="AM8" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN8" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="AG8" s="11" t="s">
+      <c r="AO8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP8" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="AH8" s="11" t="s">
+      <c r="AQ8" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="AI8" s="11" t="s">
+      <c r="AR8" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="AJ8" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK8" s="11" t="s">
+      <c r="AS8" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="AL8" s="11" t="s">
+      <c r="AT8" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU8" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="AM8" s="11" t="s">
+      <c r="AV8" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="AN8" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="AO8" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP8" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ8" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="AR8" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="AS8" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT8" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="AU8" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="AV8" s="11" t="s">
-        <v>288</v>
-      </c>
       <c r="AW8" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AX8" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AY8" s="3" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
@@ -2782,7 +2917,7 @@
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -2791,7 +2926,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -2803,115 +2938,115 @@
         <v>47.3</v>
       </c>
       <c r="K9" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L9" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O9">
         <v>999</v>
       </c>
       <c r="P9" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>285</v>
+      </c>
+      <c r="T9" t="s">
+        <v>286</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF9" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="AG9" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="T9" t="s">
+      <c r="AH9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI9" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="V9" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="W9" s="11" t="s">
+      <c r="AJ9" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK9" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="AL9" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="Y9" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z9" s="11" t="s">
+      <c r="AM9" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="AA9" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC9" s="11" t="s">
+      <c r="AN9" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="AD9" s="11" t="s">
+      <c r="AO9" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP9" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AQ9" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="AF9" s="11" t="s">
+      <c r="AR9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS9" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AT9" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="AH9" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI9" s="11" t="s">
+      <c r="AU9" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AV9" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="AJ9" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK9" s="11" t="s">
+      <c r="AW9" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AX9" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="AL9" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="AM9" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AN9" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="AO9" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="AP9" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="AQ9" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="AR9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS9" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="AT9" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AU9" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="AV9" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="AW9" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>314</v>
-      </c>
       <c r="AY9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
@@ -2922,7 +3057,7 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -2931,10 +3066,10 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10">
         <v>24.5</v>
@@ -2943,115 +3078,115 @@
         <v>47.3</v>
       </c>
       <c r="K10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="L10" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10">
         <v>999</v>
       </c>
       <c r="P10" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>310</v>
+      </c>
+      <c r="T10" t="s">
+        <v>286</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF10" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="AG10" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="T10" t="s">
-        <v>295</v>
-      </c>
-      <c r="V10" s="11" t="s">
+      <c r="AH10" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI10" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK10" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL10" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="AM10" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN10" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="AO10" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP10" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ10" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="Y10" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z10" s="11" t="s">
+      <c r="AR10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS10" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="AA10" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB10" s="11" t="s">
+      <c r="AT10" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="AC10" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD10" s="11" t="s">
+      <c r="AU10" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AV10" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AF10" s="11" t="s">
+      <c r="AW10" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AX10" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY10" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="AH10" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="AI10" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL10" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="AM10" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="AN10" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO10" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="AP10" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ10" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="AR10" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS10" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="AT10" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="AU10" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="AV10" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="AW10" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="AX10" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="AY10" s="3" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
@@ -3062,7 +3197,7 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -3071,10 +3206,10 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11">
         <v>24.5</v>
@@ -3083,118 +3218,118 @@
         <v>47.3</v>
       </c>
       <c r="K11" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L11" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P11" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="Q11" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="T11">
         <v>999</v>
       </c>
       <c r="U11" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE11" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK11" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="X11" s="11" t="s">
+      <c r="AL11" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA11" s="11" t="s">
+      <c r="AM11" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN11" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AB11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC11" s="11" t="s">
+      <c r="AO11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP11" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS11" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AD11" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE11" s="11" t="s">
+      <c r="AT11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU11" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="AF11" s="11" t="s">
+      <c r="AV11" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="AG11" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="AH11" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="AI11" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="AJ11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK11" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="AL11" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="AM11" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="AN11" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="AO11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP11" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ11" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="AT11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="AV11" s="11" t="s">
-        <v>357</v>
-      </c>
       <c r="AW11" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AX11" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AY11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
@@ -3205,7 +3340,7 @@
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -3214,10 +3349,10 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I12">
         <v>24.5</v>
@@ -3226,115 +3361,401 @@
         <v>47.3</v>
       </c>
       <c r="K12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L12" t="s">
+        <v>351</v>
+      </c>
+      <c r="N12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>353</v>
+      </c>
+      <c r="T12" t="s">
+        <v>169</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE12" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG12" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH12" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI12" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ12" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK12" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL12" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="L12" t="s">
+      <c r="AM12" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="N12" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" t="s">
-        <v>168</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="AN12" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="AO12" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="T12" t="s">
-        <v>170</v>
-      </c>
-      <c r="V12" s="11" t="s">
+      <c r="AP12" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="AQ12" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS12" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT12" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU12" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="AV12" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW12" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AX12" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="AY12" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B13" s="10">
+        <v>44765</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>374</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>47.3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>376</v>
+      </c>
+      <c r="L13" t="s">
+        <v>377</v>
+      </c>
+      <c r="N13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" t="s">
+        <v>378</v>
+      </c>
+      <c r="P13" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>380</v>
+      </c>
+      <c r="S13" t="s">
+        <v>378</v>
+      </c>
+      <c r="T13" t="s">
+        <v>286</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="W13" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="X13" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y13" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="X12" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA12" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC12" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD12" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE12" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AG12" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="AH12" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI12" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="AJ12" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK12" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="AL12" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="AM12" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="AN12" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AO12" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="AP12" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="AQ12" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="AR12" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS12" s="11" t="s">
+      <c r="Z13" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE13" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF13" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="AG13" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH13" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI13" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ13" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK13" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="AL13" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM13" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN13" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="AO13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP13" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR13" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="AS13" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="AT13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU13" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="AV13" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="AW13" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="AX13" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="AY13" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B14" s="10">
+        <v>44765</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
         <v>374</v>
       </c>
-      <c r="AT12" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="AU12" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="AV12" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AW12" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="AX12" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="AY12" s="3" t="s">
-        <v>378</v>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>400</v>
+      </c>
+      <c r="H14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>47.3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>401</v>
+      </c>
+      <c r="L14" t="s">
+        <v>402</v>
+      </c>
+      <c r="N14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" t="s">
+        <v>167</v>
+      </c>
+      <c r="P14" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>404</v>
+      </c>
+      <c r="R14" t="s">
+        <v>405</v>
+      </c>
+      <c r="T14" t="s">
+        <v>169</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z14" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA14" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE14" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="AF14" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG14" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH14" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI14" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ14" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="AK14" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL14" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="AM14" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="AN14" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="AO14" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP14" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="AQ14" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="AR14" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS14" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="AT14" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU14" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="AV14" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="AW14" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="AX14" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="AY14" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8FB52A-230F-47AE-9C09-AAAFC1BA4A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267E55D0-60C0-4FB0-BA10-D28D8793EE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="507">
   <si>
     <t>ID</t>
   </si>
@@ -1294,13 +1294,279 @@
   </si>
   <si>
     <t>zwiga, eigla</t>
+  </si>
+  <si>
+    <t>III_14_0001</t>
+  </si>
+  <si>
+    <t>p-A</t>
+  </si>
+  <si>
+    <t>Urbis</t>
+  </si>
+  <si>
+    <t>Tann</t>
+  </si>
+  <si>
+    <t>Georg Meyer</t>
+  </si>
+  <si>
+    <t>Ottersweiler bei Zabern</t>
+  </si>
+  <si>
+    <t>Ameise (w) {a fast wie o}</t>
+  </si>
+  <si>
+    <t>Liecht (w)</t>
+  </si>
+  <si>
+    <t>Brumbeere (w)</t>
+  </si>
+  <si>
+    <t>Agerschte (w)</t>
+  </si>
+  <si>
+    <t>Raischer (m)</t>
+  </si>
+  <si>
+    <t>Fladdermus (w)</t>
+  </si>
+  <si>
+    <t>Muck (w)</t>
+  </si>
+  <si>
+    <t>Ahmt (s)</t>
+  </si>
+  <si>
+    <t>Gugummer (w)</t>
+  </si>
+  <si>
+    <t>Budde (w)</t>
+  </si>
+  <si>
+    <t>Hahn (m), Hühn (w)</t>
+  </si>
+  <si>
+    <t>Hewamm (w)</t>
+  </si>
+  <si>
+    <t>Scharmüss (w)</t>
+  </si>
+  <si>
+    <t>Galrüb (w)</t>
+  </si>
+  <si>
+    <t>Pfedder (m)</t>
+  </si>
+  <si>
+    <t>Riem (m)</t>
+  </si>
+  <si>
+    <t>Pflüm (w)</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>Spatz (w)</t>
+  </si>
+  <si>
+    <t>Guff</t>
+  </si>
+  <si>
+    <t>Strecknodel (w)</t>
+  </si>
+  <si>
+    <t>Dassel (s)</t>
+  </si>
+  <si>
+    <t>Sohnsfrau (m)</t>
+  </si>
+  <si>
+    <t>Holder (m)</t>
+  </si>
+  <si>
+    <t>III_14_0002</t>
+  </si>
+  <si>
+    <t>p-B</t>
+  </si>
+  <si>
+    <t>Urbis-Storkensamen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ottersweiler </t>
+  </si>
+  <si>
+    <t>Unterelsass</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ᾱ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>meis {dunkles a}</t>
+    </r>
+  </si>
+  <si>
+    <t>Dissel {ein Baum}, Laudere {zwei}</t>
+  </si>
+  <si>
+    <t>Fladdermuss</t>
+  </si>
+  <si>
+    <t>Muck</t>
+  </si>
+  <si>
+    <t>Gugummer</t>
+  </si>
+  <si>
+    <t>Budde</t>
+  </si>
+  <si>
+    <t>Güller</t>
+  </si>
+  <si>
+    <t>Hewam, Bubbelfrau[i]</t>
+  </si>
+  <si>
+    <t>Scharrmüss</t>
+  </si>
+  <si>
+    <t>Gallerüwe</t>
+  </si>
+  <si>
+    <t>Moor (die)</t>
+  </si>
+  <si>
+    <t>Gettel</t>
+  </si>
+  <si>
+    <t>Riem</t>
+  </si>
+  <si>
+    <t>Pflüeme</t>
+  </si>
+  <si>
+    <t>Strecknadel</t>
+  </si>
+  <si>
+    <t>[??]ssel</t>
+  </si>
+  <si>
+    <t>Schwegertochter</t>
+  </si>
+  <si>
+    <t>[???] holdere</t>
+  </si>
+  <si>
+    <t>w'</t>
+  </si>
+  <si>
+    <t>Begrubnes, zu Grubte gehen)</t>
+  </si>
+  <si>
+    <t>III_14_0004</t>
+  </si>
+  <si>
+    <t>p-D</t>
+  </si>
+  <si>
+    <t>Odern</t>
+  </si>
+  <si>
+    <t>Kornmayer</t>
+  </si>
+  <si>
+    <t>Gengenbach</t>
+  </si>
+  <si>
+    <t>Ameis {Omeis} (m)</t>
+  </si>
+  <si>
+    <t>Brumbeerä</t>
+  </si>
+  <si>
+    <t>Dissel {Bei einem Wagen mit 2 Deichseln Landra.} (w)</t>
+  </si>
+  <si>
+    <t>Agerscht (m)</t>
+  </si>
+  <si>
+    <t>Ratscher (m)</t>
+  </si>
+  <si>
+    <t>Fläddermus (w)</t>
+  </si>
+  <si>
+    <t>Mugg[?] (w)</t>
+  </si>
+  <si>
+    <t>Ahmd (s)</t>
+  </si>
+  <si>
+    <t>Buttä, Butt (w)</t>
+  </si>
+  <si>
+    <t>Hahn, Huhn</t>
+  </si>
+  <si>
+    <t>Scharrmus</t>
+  </si>
+  <si>
+    <t>Gälrüb</t>
+  </si>
+  <si>
+    <t>Pfetter</t>
+  </si>
+  <si>
+    <t>Riäm</t>
+  </si>
+  <si>
+    <t>Pflüm</t>
+  </si>
+  <si>
+    <t>schelta</t>
+  </si>
+  <si>
+    <t>Gruselbeerä</t>
+  </si>
+  <si>
+    <t>Gifäla</t>
+  </si>
+  <si>
+    <t>Stricknodel</t>
+  </si>
+  <si>
+    <t>[?]üsselä, Dällerla</t>
+  </si>
+  <si>
+    <t>Hafä</t>
+  </si>
+  <si>
+    <t>zwiegä</t>
+  </si>
+  <si>
+    <t>Schwiegertochter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1337,6 +1603,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1708,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB14"/>
+  <dimension ref="A1:BB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AY14" sqref="AY14"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BA17" sqref="BA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3756,6 +4034,447 @@
       </c>
       <c r="AY14" s="3" t="s">
         <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B15" s="10">
+        <v>44779</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>477</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>424</v>
+      </c>
+      <c r="H15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15">
+        <v>24.3</v>
+      </c>
+      <c r="J15">
+        <v>47.5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>425</v>
+      </c>
+      <c r="L15" t="s">
+        <v>426</v>
+      </c>
+      <c r="N15" t="s">
+        <v>427</v>
+      </c>
+      <c r="O15" t="s">
+        <v>261</v>
+      </c>
+      <c r="P15" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>429</v>
+      </c>
+      <c r="T15" t="s">
+        <v>286</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE15" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="AH15" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK15" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL15" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="AM15" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN15" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="AO15" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="AS15" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT15" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="AU15" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="AV15" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="AW15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY15" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AZ15" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="BA15" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>44779</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>477</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>454</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16">
+        <v>24.3</v>
+      </c>
+      <c r="J16">
+        <v>47.5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>455</v>
+      </c>
+      <c r="L16" t="s">
+        <v>456</v>
+      </c>
+      <c r="N16" t="s">
+        <v>427</v>
+      </c>
+      <c r="P16" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>457</v>
+      </c>
+      <c r="S16" t="s">
+        <v>458</v>
+      </c>
+      <c r="T16" t="s">
+        <v>169</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="X16" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z16">
+        <v>999</v>
+      </c>
+      <c r="AA16">
+        <v>999</v>
+      </c>
+      <c r="AB16" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC16" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD16" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE16" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="AF16" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="AG16" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="AH16" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="AI16" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK16" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="AL16" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="AM16" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN16" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="AO16" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="AP16" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="AQ16" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="AR16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS16" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT16" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU16" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="AV16" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="AW16" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AX16" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ16" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="BA16" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B17" s="10">
+        <v>44779</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>477</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>479</v>
+      </c>
+      <c r="H17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17">
+        <v>24.3</v>
+      </c>
+      <c r="J17">
+        <v>47.5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>480</v>
+      </c>
+      <c r="L17" t="s">
+        <v>481</v>
+      </c>
+      <c r="N17" t="s">
+        <v>427</v>
+      </c>
+      <c r="O17" t="s">
+        <v>167</v>
+      </c>
+      <c r="P17" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>483</v>
+      </c>
+      <c r="T17" t="s">
+        <v>96</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="X17" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y17" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB17" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC17" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="AE17" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF17" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK17" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="AL17" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="AM17" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN17" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="AO17" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="AP17" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="AQ17" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="AR17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS17" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="AT17" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="AU17" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="AV17" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="AW17" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="AX17" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="AY17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ17" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="BA17" s="3" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267E55D0-60C0-4FB0-BA10-D28D8793EE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC14DA7-0CDA-4371-B182-36C52BCCB11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="584">
   <si>
     <t>ID</t>
   </si>
@@ -1561,12 +1561,243 @@
   <si>
     <t>Schwiegertochter</t>
   </si>
+  <si>
+    <t>III_14_0006</t>
+  </si>
+  <si>
+    <t>p-F</t>
+  </si>
+  <si>
+    <t>L. Schwarz</t>
+  </si>
+  <si>
+    <t>Hüsseren-Wesserling</t>
+  </si>
+  <si>
+    <t>Ameise</t>
+  </si>
+  <si>
+    <t>Begräbnis</t>
+  </si>
+  <si>
+    <t>Elster</t>
+  </si>
+  <si>
+    <t>Ente</t>
+  </si>
+  <si>
+    <t>Fledermaus</t>
+  </si>
+  <si>
+    <t>Aamd</t>
+  </si>
+  <si>
+    <t>Hartäpfel</t>
+  </si>
+  <si>
+    <t>Gelberübe</t>
+  </si>
+  <si>
+    <t>schälten</t>
+  </si>
+  <si>
+    <t>Grüselbeeren</t>
+  </si>
+  <si>
+    <t>Gofe</t>
+  </si>
+  <si>
+    <t>Schüssel, Schüssele</t>
+  </si>
+  <si>
+    <t>Hafer</t>
+  </si>
+  <si>
+    <t>zwiegen</t>
+  </si>
+  <si>
+    <t>Holdra</t>
+  </si>
+  <si>
+    <t>III_14_0008</t>
+  </si>
+  <si>
+    <t>Ranspach</t>
+  </si>
+  <si>
+    <t>M. Grether</t>
+  </si>
+  <si>
+    <t>Sulzburg</t>
+  </si>
+  <si>
+    <t>Baden</t>
+  </si>
+  <si>
+    <t>p-H</t>
+  </si>
+  <si>
+    <t>Li{e}cht</t>
+  </si>
+  <si>
+    <t>Fladermuss</t>
+  </si>
+  <si>
+    <t>Ahmde</t>
+  </si>
+  <si>
+    <t>Gogummra</t>
+  </si>
+  <si>
+    <t>Budda</t>
+  </si>
+  <si>
+    <t>Hohn, Güller, Huan, Bibala</t>
+  </si>
+  <si>
+    <t>Scharmuss</t>
+  </si>
+  <si>
+    <t>Pfedder</t>
+  </si>
+  <si>
+    <t>Riam</t>
+  </si>
+  <si>
+    <t>Spaotz</t>
+  </si>
+  <si>
+    <t>Gruselbeera</t>
+  </si>
+  <si>
+    <t>Guf</t>
+  </si>
+  <si>
+    <t>Schrignodla</t>
+  </si>
+  <si>
+    <t>Holdara</t>
+  </si>
+  <si>
+    <t>Sohnsfräu</t>
+  </si>
+  <si>
+    <t>III_14_0009</t>
+  </si>
+  <si>
+    <t>St. Amarin</t>
+  </si>
+  <si>
+    <t>K. Tschan</t>
+  </si>
+  <si>
+    <t>Steinbach</t>
+  </si>
+  <si>
+    <t>Thann</t>
+  </si>
+  <si>
+    <t>Karl Tschan</t>
+  </si>
+  <si>
+    <t>p-J</t>
+  </si>
+  <si>
+    <t>Omaiß (die, dia)</t>
+  </si>
+  <si>
+    <t>Begrebnis (das), Licht (Lieche)</t>
+  </si>
+  <si>
+    <t>Brumbera (die)</t>
+  </si>
+  <si>
+    <t>Dissl (der)</t>
+  </si>
+  <si>
+    <t>Agesta (die)</t>
+  </si>
+  <si>
+    <t>Enta, Anta (die)</t>
+  </si>
+  <si>
+    <t>Fladdermüs (die)</t>
+  </si>
+  <si>
+    <t>a Mück (die)</t>
+  </si>
+  <si>
+    <t>Ahmet (das)</t>
+  </si>
+  <si>
+    <t>Gagumer (die)</t>
+  </si>
+  <si>
+    <t>Hahna (der), Hüahn (das)</t>
+  </si>
+  <si>
+    <t>Hewama (die)</t>
+  </si>
+  <si>
+    <t>Herdepfel (die), Grumbera (die)</t>
+  </si>
+  <si>
+    <t>Katz (die)</t>
+  </si>
+  <si>
+    <t>Scharmüs (die)</t>
+  </si>
+  <si>
+    <t>Galeriawala (die)</t>
+  </si>
+  <si>
+    <t>a Moora (die)</t>
+  </si>
+  <si>
+    <t>a Pfedder (der)</t>
+  </si>
+  <si>
+    <t>a Riama (der)</t>
+  </si>
+  <si>
+    <t>a Pflüma (die)</t>
+  </si>
+  <si>
+    <t>a Spatz (der)</t>
+  </si>
+  <si>
+    <t>Grüßlbeera (die)</t>
+  </si>
+  <si>
+    <t>a Nodla (die)</t>
+  </si>
+  <si>
+    <t>a Stricknodla (die)</t>
+  </si>
+  <si>
+    <t>Schissala (das)</t>
+  </si>
+  <si>
+    <t>a ardiger Hafa (der)</t>
+  </si>
+  <si>
+    <t>pfropfa</t>
+  </si>
+  <si>
+    <t>Gais (die)</t>
+  </si>
+  <si>
+    <t>Holdra (die)</t>
+  </si>
+  <si>
+    <t>Sohnsfraui (die)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1600,12 +1831,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1986,10 +2211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB17"/>
+  <dimension ref="A1:BB20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BA17" sqref="BA17"/>
+      <selection activeCell="BA20" sqref="BA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4475,6 +4700,459 @@
       </c>
       <c r="BA17" s="3" t="s">
         <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B18" s="10">
+        <v>44780</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>477</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>507</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18">
+        <v>24.3</v>
+      </c>
+      <c r="J18">
+        <v>47.5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>508</v>
+      </c>
+      <c r="L18" t="s">
+        <v>510</v>
+      </c>
+      <c r="N18" t="s">
+        <v>427</v>
+      </c>
+      <c r="O18" t="s">
+        <v>167</v>
+      </c>
+      <c r="P18" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>310</v>
+      </c>
+      <c r="S18" t="s">
+        <v>167</v>
+      </c>
+      <c r="T18" t="s">
+        <v>286</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z18" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="AA18" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="AE18" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="AF18" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG18" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AH18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI18" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="AJ18" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK18" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL18" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="AM18" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN18" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="AO18" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP18" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ18" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS18" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="AT18" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="AU18" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AV18" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="AW18" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="AX18" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="AY18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ18" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="BA18" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B19" s="10">
+        <v>44780</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>477</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>526</v>
+      </c>
+      <c r="H19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19">
+        <v>24.4</v>
+      </c>
+      <c r="J19">
+        <v>47.5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>531</v>
+      </c>
+      <c r="L19" t="s">
+        <v>527</v>
+      </c>
+      <c r="N19" t="s">
+        <v>427</v>
+      </c>
+      <c r="O19" t="s">
+        <v>167</v>
+      </c>
+      <c r="P19" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>529</v>
+      </c>
+      <c r="S19" t="s">
+        <v>530</v>
+      </c>
+      <c r="T19" t="s">
+        <v>96</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="X19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z19">
+        <v>999</v>
+      </c>
+      <c r="AA19" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB19" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC19" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD19" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="AE19" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF19" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="AG19" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="AH19" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="AI19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ19" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK19" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="AL19">
+        <v>999</v>
+      </c>
+      <c r="AM19" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN19" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="AO19" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="AP19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ19" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR19" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="AS19" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="AT19" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="AU19" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="AV19" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AW19">
+        <v>999</v>
+      </c>
+      <c r="AX19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY19" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="AZ19" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="BA19" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="20" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B20" s="10">
+        <v>44780</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>477</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>547</v>
+      </c>
+      <c r="H20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20">
+        <v>24.4</v>
+      </c>
+      <c r="J20">
+        <v>47.5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>553</v>
+      </c>
+      <c r="L20" t="s">
+        <v>548</v>
+      </c>
+      <c r="N20" t="s">
+        <v>427</v>
+      </c>
+      <c r="O20" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>550</v>
+      </c>
+      <c r="R20" t="s">
+        <v>551</v>
+      </c>
+      <c r="T20" t="s">
+        <v>286</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="X20" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y20" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z20" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA20" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="AB20" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC20" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD20" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="AE20" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="AF20">
+        <v>999</v>
+      </c>
+      <c r="AG20" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="AH20" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="AI20" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="AJ20" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="AK20" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="AL20" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM20" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="AN20" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="AO20" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="AP20" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="AQ20" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR20" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="AS20" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="AT20" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="AU20" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="AV20" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="AW20" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="AX20" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="AY20" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="AZ20" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="BA20" s="3" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC14DA7-0CDA-4371-B182-36C52BCCB11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224E5DDD-BC71-4142-AAB1-617708AE678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="637">
   <si>
     <t>ID</t>
   </si>
@@ -1791,6 +1791,165 @@
   </si>
   <si>
     <t>Sohnsfraui (die)</t>
+  </si>
+  <si>
+    <t>III_14_0010</t>
+  </si>
+  <si>
+    <t>p-K</t>
+  </si>
+  <si>
+    <t>Malmerspach</t>
+  </si>
+  <si>
+    <t>Otto Botz</t>
+  </si>
+  <si>
+    <t>Heidelberg</t>
+  </si>
+  <si>
+    <t>Omeise (w)</t>
+  </si>
+  <si>
+    <t>Lich (e, w)</t>
+  </si>
+  <si>
+    <t>Elster (w)</t>
+  </si>
+  <si>
+    <t>Mück (w)</t>
+  </si>
+  <si>
+    <t>Gummere (w)</t>
+  </si>
+  <si>
+    <t>Hogebutte (w)</t>
+  </si>
+  <si>
+    <t>Hahn (m), Hüehn (w)</t>
+  </si>
+  <si>
+    <t>Hebamme (w)</t>
+  </si>
+  <si>
+    <t>Hardäpfel (w)</t>
+  </si>
+  <si>
+    <t>Scharmüs (w)</t>
+  </si>
+  <si>
+    <t>Kehlrüb (w)</t>
+  </si>
+  <si>
+    <t>Moore (w)</t>
+  </si>
+  <si>
+    <t>Pfetter (m)</t>
+  </si>
+  <si>
+    <t>Pflüme (w)</t>
+  </si>
+  <si>
+    <t>Krüselbeere (w)</t>
+  </si>
+  <si>
+    <t>Gifele (w)</t>
+  </si>
+  <si>
+    <t>Shicknodel (w)</t>
+  </si>
+  <si>
+    <t>Dasele, Dallerle (s)</t>
+  </si>
+  <si>
+    <t>Kachel (w)</t>
+  </si>
+  <si>
+    <t>Holdere (w)</t>
+  </si>
+  <si>
+    <t>Schwiegertochter (w)</t>
+  </si>
+  <si>
+    <t>Moosch</t>
+  </si>
+  <si>
+    <t>III_14_0011</t>
+  </si>
+  <si>
+    <t>p-L</t>
+  </si>
+  <si>
+    <t>Frau Berna</t>
+  </si>
+  <si>
+    <t>Felleringen</t>
+  </si>
+  <si>
+    <t>in Mooscher Mundart</t>
+  </si>
+  <si>
+    <t>Begrebnis (s), Licht (w)</t>
+  </si>
+  <si>
+    <t>Brumbeer (m)</t>
+  </si>
+  <si>
+    <t>Agerschtle (s), Agerschde (w)</t>
+  </si>
+  <si>
+    <t>Gager, Ratsch (m)</t>
+  </si>
+  <si>
+    <t>Fladermüß (w)</t>
+  </si>
+  <si>
+    <t>Muck (m)</t>
+  </si>
+  <si>
+    <t>Gugummer (m)</t>
+  </si>
+  <si>
+    <t>Bude (w)</t>
+  </si>
+  <si>
+    <t>Hahn (m), Hüen (w)</t>
+  </si>
+  <si>
+    <t>Rolli, Katzerolli (m)</t>
+  </si>
+  <si>
+    <t>Scharrmüß (m)</t>
+  </si>
+  <si>
+    <t>Dirlibs (m)</t>
+  </si>
+  <si>
+    <t>Parä (m)</t>
+  </si>
+  <si>
+    <t>Pflüm (m)</t>
+  </si>
+  <si>
+    <t>Grüselbeer (m)</t>
+  </si>
+  <si>
+    <t>Nodel (w)</t>
+  </si>
+  <si>
+    <t>Stricknodel (w)</t>
+  </si>
+  <si>
+    <t>Dasse (w), Dassele (s), Dallerle (s)</t>
+  </si>
+  <si>
+    <t>Haf, ardene Haf (m)</t>
+  </si>
+  <si>
+    <t>Geis (w)</t>
+  </si>
+  <si>
+    <t>Suhnsfraui (w)</t>
   </si>
 </sst>
 </file>
@@ -2211,10 +2370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB20"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BA20" sqref="BA20"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BA22" sqref="BA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5153,6 +5312,295 @@
       </c>
       <c r="BA20" s="3" t="s">
         <v>583</v>
+      </c>
+    </row>
+    <row r="21" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B21" s="10">
+        <v>44784</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>477</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>584</v>
+      </c>
+      <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21">
+        <v>24.4</v>
+      </c>
+      <c r="J21">
+        <v>47.5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>585</v>
+      </c>
+      <c r="L21" t="s">
+        <v>586</v>
+      </c>
+      <c r="N21" t="s">
+        <v>427</v>
+      </c>
+      <c r="O21" t="s">
+        <v>167</v>
+      </c>
+      <c r="P21" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>588</v>
+      </c>
+      <c r="T21" t="s">
+        <v>96</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="X21" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA21">
+        <v>999</v>
+      </c>
+      <c r="AB21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC21" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="AD21" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="AE21" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="AF21" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>595</v>
+      </c>
+      <c r="AH21" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="AI21" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AJ21" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK21" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="AL21" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="AM21" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="AN21" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="AO21" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP21" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="AQ21" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="AR21" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS21" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT21" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="AU21" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="AV21" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="AW21" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="AX21" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="AY21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ21" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="BA21" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="22" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B22" s="10">
+        <v>44784</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>611</v>
+      </c>
+      <c r="H22" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22">
+        <v>24.4</v>
+      </c>
+      <c r="J22">
+        <v>47.5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>612</v>
+      </c>
+      <c r="L22" t="s">
+        <v>610</v>
+      </c>
+      <c r="P22" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>614</v>
+      </c>
+      <c r="T22" t="s">
+        <v>286</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z22" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="AA22" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB22" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="AC22" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="AD22" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE22" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="AF22" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="AG22" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="AH22" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="AI22" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ22" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="AK22" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="AL22" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="AM22" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="AN22" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="AO22" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="AP22" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="AQ22" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="AR22" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS22" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="AT22" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="AU22" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="AV22" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="AW22" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX22" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY22" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="AZ22" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="BA22" s="3" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224E5DDD-BC71-4142-AAB1-617708AE678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEEFCB2-F41A-4276-822E-76A1F9ED9E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="684">
   <si>
     <t>ID</t>
   </si>
@@ -1950,6 +1950,147 @@
   </si>
   <si>
     <t>Suhnsfraui (w)</t>
+  </si>
+  <si>
+    <t>III_14_0012</t>
+  </si>
+  <si>
+    <t>p-M</t>
+  </si>
+  <si>
+    <t>Weiler</t>
+  </si>
+  <si>
+    <t>bei St.Amarin</t>
+  </si>
+  <si>
+    <t>Ober-Elsaß</t>
+  </si>
+  <si>
+    <t>Gebel Karl</t>
+  </si>
+  <si>
+    <t>Ameise (die)</t>
+  </si>
+  <si>
+    <t>Begräbnis, z'Grabata</t>
+  </si>
+  <si>
+    <t>Dissel (die)</t>
+  </si>
+  <si>
+    <t>Agerste, Elster (die)</t>
+  </si>
+  <si>
+    <t>Ratsch (die)</t>
+  </si>
+  <si>
+    <t>[dsgl.]</t>
+  </si>
+  <si>
+    <t>Güggel</t>
+  </si>
+  <si>
+    <t>Hewamm</t>
+  </si>
+  <si>
+    <t>Mohre (die)</t>
+  </si>
+  <si>
+    <t>Rieme</t>
+  </si>
+  <si>
+    <t>Pflume (die)</t>
+  </si>
+  <si>
+    <t>schempfe , [dsgl.]</t>
+  </si>
+  <si>
+    <t>Spatz [??]</t>
+  </si>
+  <si>
+    <t>Grüselbeere [die]</t>
+  </si>
+  <si>
+    <t>Goff</t>
+  </si>
+  <si>
+    <t>Steinhafen (der)</t>
+  </si>
+  <si>
+    <t>Holdere</t>
+  </si>
+  <si>
+    <t>Gschwei (die)</t>
+  </si>
+  <si>
+    <t>III_14_0013</t>
+  </si>
+  <si>
+    <t>p-N</t>
+  </si>
+  <si>
+    <t>Geishausen</t>
+  </si>
+  <si>
+    <t>Rich. Schandt</t>
+  </si>
+  <si>
+    <t>Ottoschrauden</t>
+  </si>
+  <si>
+    <t>Omeis</t>
+  </si>
+  <si>
+    <t>Brumbera</t>
+  </si>
+  <si>
+    <t>Elschder</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Fladermus</t>
+  </si>
+  <si>
+    <t>Ahmd</t>
+  </si>
+  <si>
+    <t>Gugummara</t>
+  </si>
+  <si>
+    <t>Hähn</t>
+  </si>
+  <si>
+    <t>Herdepfel</t>
+  </si>
+  <si>
+    <t>Katz</t>
+  </si>
+  <si>
+    <t>Scharmus</t>
+  </si>
+  <si>
+    <t>Mo[?]</t>
+  </si>
+  <si>
+    <t>Pfedda</t>
+  </si>
+  <si>
+    <t>Schbatz</t>
+  </si>
+  <si>
+    <t>Giefala</t>
+  </si>
+  <si>
+    <t>Schdricknodel</t>
+  </si>
+  <si>
+    <t>Gaiß</t>
+  </si>
+  <si>
+    <t>Hold[?]a</t>
   </si>
 </sst>
 </file>
@@ -2370,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB22"/>
+  <dimension ref="A1:BB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BA22" sqref="BA22"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BA24" sqref="BA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5494,6 +5635,12 @@
       <c r="L22" t="s">
         <v>610</v>
       </c>
+      <c r="N22" t="s">
+        <v>427</v>
+      </c>
+      <c r="O22">
+        <v>999</v>
+      </c>
       <c r="P22" t="s">
         <v>613</v>
       </c>
@@ -5601,6 +5748,307 @@
       </c>
       <c r="BA22" s="3" t="s">
         <v>636</v>
+      </c>
+    </row>
+    <row r="23" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B23" s="10">
+        <v>44789</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>477</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>637</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23">
+        <v>24.4</v>
+      </c>
+      <c r="J23">
+        <v>47.5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>638</v>
+      </c>
+      <c r="L23" t="s">
+        <v>639</v>
+      </c>
+      <c r="M23" t="s">
+        <v>640</v>
+      </c>
+      <c r="N23" t="s">
+        <v>551</v>
+      </c>
+      <c r="O23" t="s">
+        <v>641</v>
+      </c>
+      <c r="P23" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>310</v>
+      </c>
+      <c r="T23" t="s">
+        <v>169</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>648</v>
+      </c>
+      <c r="AC23" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE23" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="AF23" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG23" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="AH23" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="AI23" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ23" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK23" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>648</v>
+      </c>
+      <c r="AM23" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="AN23" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="AO23" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="AP23" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="AQ23" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="AR23" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="AS23" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="AT23" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>648</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>648</v>
+      </c>
+      <c r="AW23" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="AX23" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY23" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="AZ23" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="BA23" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="24" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B24" s="10">
+        <v>44789</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>477</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>661</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24">
+        <v>24.4</v>
+      </c>
+      <c r="J24">
+        <v>47.5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>662</v>
+      </c>
+      <c r="L24" t="s">
+        <v>663</v>
+      </c>
+      <c r="M24" t="s">
+        <v>640</v>
+      </c>
+      <c r="N24" t="s">
+        <v>551</v>
+      </c>
+      <c r="O24" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>665</v>
+      </c>
+      <c r="R24" t="s">
+        <v>530</v>
+      </c>
+      <c r="T24" t="s">
+        <v>96</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="W24" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z24" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA24" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="AB24" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="AC24" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD24" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="AE24" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="AF24" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="AG24" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="AH24">
+        <v>999</v>
+      </c>
+      <c r="AI24" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="AJ24" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="AK24" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="AL24">
+        <v>999</v>
+      </c>
+      <c r="AM24" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="AN24" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="AO24" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="AP24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ24" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR24" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="AS24" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="AT24" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="AU24" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="AV24" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AW24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY24" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="AZ24" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="BA24" s="3" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEEFCB2-F41A-4276-822E-76A1F9ED9E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A156EE-5C2F-498C-819D-015377AF23E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="738">
   <si>
     <t>ID</t>
   </si>
@@ -2091,6 +2091,168 @@
   </si>
   <si>
     <t>Hold[?]a</t>
+  </si>
+  <si>
+    <t>III_14_0014</t>
+  </si>
+  <si>
+    <t>p-O</t>
+  </si>
+  <si>
+    <t>Goldbach</t>
+  </si>
+  <si>
+    <t>Altenbach</t>
+  </si>
+  <si>
+    <t>Leo Schwarz</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>im Breisgau</t>
+  </si>
+  <si>
+    <t>Liich (w)</t>
+  </si>
+  <si>
+    <t>Diisel (w)</t>
+  </si>
+  <si>
+    <t>Elschder (w)</t>
+  </si>
+  <si>
+    <t>Fladermuus (w)</t>
+  </si>
+  <si>
+    <t>Gugummere (w)</t>
+  </si>
+  <si>
+    <t>Butte (w)</t>
+  </si>
+  <si>
+    <t>Gückel (m), Gluckere (w)</t>
+  </si>
+  <si>
+    <t>Bubbele-mueder, Hebam (w)</t>
+  </si>
+  <si>
+    <t>Herdöpfel (m)</t>
+  </si>
+  <si>
+    <t>Schermüs (m)</t>
+  </si>
+  <si>
+    <t>Galribli (s)</t>
+  </si>
+  <si>
+    <t>Mohre (w)</t>
+  </si>
+  <si>
+    <t>Pfeder (m)</t>
+  </si>
+  <si>
+    <t>Riim (w)</t>
+  </si>
+  <si>
+    <t>Pflume (w)</t>
+  </si>
+  <si>
+    <t>händle</t>
+  </si>
+  <si>
+    <t>Krüselbeeri (w)</t>
+  </si>
+  <si>
+    <t>Guufe (w)</t>
+  </si>
+  <si>
+    <t>Schtricknödel (w)</t>
+  </si>
+  <si>
+    <t>Schisseli, Dallerli (s)</t>
+  </si>
+  <si>
+    <t>Haafe (m)</t>
+  </si>
+  <si>
+    <t>zwiige</t>
+  </si>
+  <si>
+    <t>Schwiegerdoochder (w)</t>
+  </si>
+  <si>
+    <t>III_14_0016</t>
+  </si>
+  <si>
+    <t>III_14_0015</t>
+  </si>
+  <si>
+    <t>p-Q</t>
+  </si>
+  <si>
+    <t>p-P</t>
+  </si>
+  <si>
+    <t>Wattweiler</t>
+  </si>
+  <si>
+    <t>Otto Meier, hgptl.</t>
+  </si>
+  <si>
+    <t>Ettenhennweiler</t>
+  </si>
+  <si>
+    <t>Lahr</t>
+  </si>
+  <si>
+    <t>Gastwirt Sengler</t>
+  </si>
+  <si>
+    <t>Omeisa (w)</t>
+  </si>
+  <si>
+    <t>Licht (s.)</t>
+  </si>
+  <si>
+    <t>Brummbeera (w)</t>
+  </si>
+  <si>
+    <t>Agerschd (m)</t>
+  </si>
+  <si>
+    <t>Ahmed (s)</t>
+  </si>
+  <si>
+    <t>Guggel (m), Hühen (w)</t>
+  </si>
+  <si>
+    <t>Katzerolli (m)</t>
+  </si>
+  <si>
+    <t>Galrüaba (w)</t>
+  </si>
+  <si>
+    <t>Pfeddr, Geddi (m)</t>
+  </si>
+  <si>
+    <t>Grüselbeera (w)</t>
+  </si>
+  <si>
+    <t>Schdricknodel (w)</t>
+  </si>
+  <si>
+    <t>Dasla, Dallerla (s)</t>
+  </si>
+  <si>
+    <t>&lt;nicht mehr in Gebrauch&gt;</t>
+  </si>
+  <si>
+    <t>&lt;einerseits&gt; dochder, &lt;and.s.&gt; Suhnsfräu (w)</t>
+  </si>
+  <si>
+    <t>Holdera (m)</t>
   </si>
 </sst>
 </file>
@@ -2511,10 +2673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB24"/>
+  <dimension ref="A1:BB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BA24" sqref="BA24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6049,6 +6211,339 @@
       </c>
       <c r="BA24" s="3" t="s">
         <v>546</v>
+      </c>
+    </row>
+    <row r="25" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B25" s="10">
+        <v>44790</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>477</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>684</v>
+      </c>
+      <c r="H25" t="s">
+        <v>163</v>
+      </c>
+      <c r="I25">
+        <v>24.4</v>
+      </c>
+      <c r="J25">
+        <v>47.5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>685</v>
+      </c>
+      <c r="L25" t="s">
+        <v>686</v>
+      </c>
+      <c r="M25" t="s">
+        <v>687</v>
+      </c>
+      <c r="N25" t="s">
+        <v>427</v>
+      </c>
+      <c r="O25" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>689</v>
+      </c>
+      <c r="R25" t="s">
+        <v>690</v>
+      </c>
+      <c r="T25" t="s">
+        <v>169</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB25" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="AC25" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD25" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE25" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="AF25" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="AG25" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="AH25" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="AI25" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="AJ25" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK25" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="AL25" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="AM25" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="AN25" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="AO25" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="AP25" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="AQ25" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="AR25" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS25" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="AT25" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="AU25" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="AV25" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="AW25" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="AX25" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="AY25" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="AZ25" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="BA25" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="26" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B26" s="10">
+        <v>44790</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>477</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>715</v>
+      </c>
+      <c r="H26" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26">
+        <v>24.4</v>
+      </c>
+      <c r="J26">
+        <v>47.5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="27" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B27" s="10">
+        <v>44790</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>477</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>714</v>
+      </c>
+      <c r="H27" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27">
+        <v>24.4</v>
+      </c>
+      <c r="J27">
+        <v>47.5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>716</v>
+      </c>
+      <c r="L27" t="s">
+        <v>718</v>
+      </c>
+      <c r="N27" t="s">
+        <v>427</v>
+      </c>
+      <c r="O27" t="s">
+        <v>641</v>
+      </c>
+      <c r="P27" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>720</v>
+      </c>
+      <c r="R27" t="s">
+        <v>721</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB27" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC27" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD27" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="AE27" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="AF27" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG27" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="AH27" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI27" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ27" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="AK27" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="AL27" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="AM27" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN27" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="AO27" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP27" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="AQ27" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR27" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS27" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="AT27" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU27" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="AV27" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="AW27" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="AX27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY27" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ27" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="BA27" s="3" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A156EE-5C2F-498C-819D-015377AF23E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267E2744-FF8A-4B51-BEEB-776DF2F075EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="776">
   <si>
     <t>ID</t>
   </si>
@@ -1021,9 +1021,6 @@
   </si>
   <si>
     <t>Wilhelm Tschan</t>
-  </si>
-  <si>
-    <t>Offenburg (Baden)</t>
   </si>
   <si>
     <t>Vath Rocklin, Oser Irma Mattler</t>
@@ -2253,6 +2250,123 @@
   </si>
   <si>
     <t>Holdera (m)</t>
+  </si>
+  <si>
+    <t>Rimbach</t>
+  </si>
+  <si>
+    <t>Gebweiler</t>
+  </si>
+  <si>
+    <t>Anna Ottstadt</t>
+  </si>
+  <si>
+    <t>Offenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offenburg </t>
+  </si>
+  <si>
+    <t>Omeis (w)</t>
+  </si>
+  <si>
+    <t>Brumbeer (w)</t>
+  </si>
+  <si>
+    <t>Anteratscher (m)</t>
+  </si>
+  <si>
+    <t>Fladermus (w)</t>
+  </si>
+  <si>
+    <t>Hahne, Huen</t>
+  </si>
+  <si>
+    <t>Herdäpfel (m)</t>
+  </si>
+  <si>
+    <t>Katzerolli</t>
+  </si>
+  <si>
+    <t>Scharmus (w)</t>
+  </si>
+  <si>
+    <t>Galrüwle</t>
+  </si>
+  <si>
+    <t>Beitsch (w)</t>
+  </si>
+  <si>
+    <t>Krüselbeer (w)</t>
+  </si>
+  <si>
+    <t>Guf (w)</t>
+  </si>
+  <si>
+    <t>Schissel, Taller</t>
+  </si>
+  <si>
+    <t>Sohnsfrau</t>
+  </si>
+  <si>
+    <t>III_14_0017</t>
+  </si>
+  <si>
+    <t>p-R</t>
+  </si>
+  <si>
+    <t>Rimbach-Zell</t>
+  </si>
+  <si>
+    <t>Heinrich Birkle</t>
+  </si>
+  <si>
+    <t>New-York</t>
+  </si>
+  <si>
+    <t>Omeise</t>
+  </si>
+  <si>
+    <t>Liacht</t>
+  </si>
+  <si>
+    <t>Disl</t>
+  </si>
+  <si>
+    <t>Alster</t>
+  </si>
+  <si>
+    <t>Gugummra</t>
+  </si>
+  <si>
+    <t>Hohn, Güller, Huhen, Bibbela</t>
+  </si>
+  <si>
+    <t>Hehwom</t>
+  </si>
+  <si>
+    <t>Gal-Rüble</t>
+  </si>
+  <si>
+    <t>Pfetter, Parre</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>Krüselbeere</t>
+  </si>
+  <si>
+    <t>Strecknodel</t>
+  </si>
+  <si>
+    <t>schüssela</t>
+  </si>
+  <si>
+    <t>Döpfla</t>
+  </si>
+  <si>
+    <t>oigeln, zwiaga</t>
   </si>
 </sst>
 </file>
@@ -2673,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB27"/>
+  <dimension ref="A1:BB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BA28" sqref="BA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2880,7 +2994,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E2" s="7">
         <v>9</v>
@@ -3024,7 +3138,7 @@
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -3167,7 +3281,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3307,7 +3421,7 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -3456,7 +3570,7 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -3596,7 +3710,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -3739,7 +3853,7 @@
         <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -3790,7 +3904,7 @@
         <v>265</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y8" s="11" t="s">
         <v>236</v>
@@ -3829,10 +3943,10 @@
         <v>115</v>
       </c>
       <c r="AK8" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AL8" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>372</v>
       </c>
       <c r="AM8" s="11" t="s">
         <v>247</v>
@@ -3871,7 +3985,7 @@
         <v>99</v>
       </c>
       <c r="AY8" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
@@ -3882,7 +3996,7 @@
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -4022,7 +4136,7 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -4162,7 +4276,7 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -4198,13 +4312,16 @@
         <v>332</v>
       </c>
       <c r="Q11" t="s">
-        <v>333</v>
+        <v>741</v>
+      </c>
+      <c r="S11" t="s">
+        <v>529</v>
       </c>
       <c r="T11">
         <v>999</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V11" s="11" t="s">
         <v>173</v>
@@ -4213,7 +4330,7 @@
         <v>203</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y11" s="11" t="s">
         <v>175</v>
@@ -4222,46 +4339,46 @@
         <v>64</v>
       </c>
       <c r="AA11" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AB11" s="11" t="s">
         <v>65</v>
       </c>
       <c r="AC11" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AD11" s="11" t="s">
         <v>179</v>
       </c>
       <c r="AE11" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF11" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="AF11" s="11" t="s">
+      <c r="AG11" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="AG11" s="11" t="s">
+      <c r="AH11" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="AH11" s="11" t="s">
+      <c r="AI11" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="AI11" s="11" t="s">
-        <v>342</v>
       </c>
       <c r="AJ11" s="11" t="s">
         <v>72</v>
       </c>
       <c r="AK11" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL11" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="AL11" s="11" t="s">
-        <v>344</v>
       </c>
       <c r="AM11" s="11" t="s">
         <v>186</v>
       </c>
       <c r="AN11" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AO11" s="11" t="s">
         <v>77</v>
@@ -4276,16 +4393,16 @@
         <v>80</v>
       </c>
       <c r="AS11" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AT11" s="11" t="s">
         <v>82</v>
       </c>
       <c r="AU11" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="AV11" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="AV11" s="11" t="s">
-        <v>348</v>
       </c>
       <c r="AW11" s="11" t="s">
         <v>85</v>
@@ -4305,7 +4422,7 @@
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -4314,7 +4431,7 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H12" t="s">
         <v>163</v>
@@ -4326,10 +4443,10 @@
         <v>47.3</v>
       </c>
       <c r="K12" t="s">
+        <v>349</v>
+      </c>
+      <c r="L12" t="s">
         <v>350</v>
-      </c>
-      <c r="L12" t="s">
-        <v>351</v>
       </c>
       <c r="N12" t="s">
         <v>91</v>
@@ -4338,10 +4455,10 @@
         <v>167</v>
       </c>
       <c r="P12" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q12" t="s">
         <v>352</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>353</v>
       </c>
       <c r="T12" t="s">
         <v>169</v>
@@ -4353,16 +4470,16 @@
         <v>174</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Y12" s="11" t="s">
         <v>175</v>
       </c>
       <c r="Z12" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA12" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="AA12" s="11" t="s">
-        <v>356</v>
       </c>
       <c r="AB12" s="11" t="s">
         <v>65</v>
@@ -4374,67 +4491,67 @@
         <v>179</v>
       </c>
       <c r="AE12" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF12" s="11" t="s">
         <v>293</v>
       </c>
       <c r="AG12" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AH12" s="11" t="s">
         <v>114</v>
       </c>
       <c r="AI12" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AJ12" s="11" t="s">
         <v>184</v>
       </c>
       <c r="AK12" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AL12" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="AM12" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="AM12" s="11" t="s">
+      <c r="AN12" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="AN12" s="11" t="s">
+      <c r="AO12" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="AO12" s="11" t="s">
+      <c r="AP12" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="AP12" s="11" t="s">
+      <c r="AQ12" s="11" t="s">
         <v>363</v>
-      </c>
-      <c r="AQ12" s="11" t="s">
-        <v>364</v>
       </c>
       <c r="AR12" s="11" t="s">
         <v>80</v>
       </c>
       <c r="AS12" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AT12" s="11" t="s">
         <v>303</v>
       </c>
       <c r="AU12" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AV12" s="11" t="s">
         <v>223</v>
       </c>
       <c r="AW12" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX12" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="AX12" s="11" t="s">
+      <c r="AY12" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="AY12" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
@@ -4445,7 +4562,7 @@
         <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -4454,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H13" t="s">
         <v>89</v>
@@ -4466,85 +4583,85 @@
         <v>47.3</v>
       </c>
       <c r="K13" t="s">
+        <v>375</v>
+      </c>
+      <c r="L13" t="s">
         <v>376</v>
-      </c>
-      <c r="L13" t="s">
-        <v>377</v>
       </c>
       <c r="N13" t="s">
         <v>91</v>
       </c>
       <c r="O13" t="s">
+        <v>377</v>
+      </c>
+      <c r="P13" t="s">
         <v>378</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>379</v>
       </c>
-      <c r="Q13" t="s">
-        <v>380</v>
-      </c>
       <c r="S13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T13" t="s">
         <v>286</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W13" s="11" t="s">
         <v>203</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Y13" s="11" t="s">
         <v>175</v>
       </c>
       <c r="Z13" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA13" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="AA13" s="11" t="s">
+      <c r="AB13" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="AB13" s="11" t="s">
+      <c r="AC13" s="11" t="s">
         <v>385</v>
-      </c>
-      <c r="AC13" s="11" t="s">
-        <v>386</v>
       </c>
       <c r="AD13" s="11" t="s">
         <v>111</v>
       </c>
       <c r="AE13" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF13" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG13" s="11" t="s">
         <v>387</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="AG13" s="11" t="s">
-        <v>388</v>
       </c>
       <c r="AH13" s="11" t="s">
         <v>183</v>
       </c>
       <c r="AI13" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ13" s="11" t="s">
         <v>184</v>
       </c>
       <c r="AK13" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL13" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="AL13" s="11" t="s">
-        <v>391</v>
       </c>
       <c r="AM13" s="11" t="s">
         <v>216</v>
       </c>
       <c r="AN13" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AO13" s="11" t="s">
         <v>77</v>
@@ -4556,28 +4673,28 @@
         <v>79</v>
       </c>
       <c r="AR13" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="AS13" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="AS13" s="11" t="s">
-        <v>394</v>
       </c>
       <c r="AT13" s="11" t="s">
         <v>82</v>
       </c>
       <c r="AU13" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="AV13" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="AV13" s="11" t="s">
+      <c r="AW13" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="AW13" s="11" t="s">
+      <c r="AX13" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AX13" s="11" t="s">
+      <c r="AY13" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="AY13" s="3" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
@@ -4588,7 +4705,7 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -4597,7 +4714,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H14" t="s">
         <v>89</v>
@@ -4609,10 +4726,10 @@
         <v>47.3</v>
       </c>
       <c r="K14" t="s">
+        <v>400</v>
+      </c>
+      <c r="L14" t="s">
         <v>401</v>
-      </c>
-      <c r="L14" t="s">
-        <v>402</v>
       </c>
       <c r="N14" t="s">
         <v>91</v>
@@ -4621,13 +4738,13 @@
         <v>167</v>
       </c>
       <c r="P14" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q14" t="s">
         <v>403</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>404</v>
-      </c>
-      <c r="R14" t="s">
-        <v>405</v>
       </c>
       <c r="T14" t="s">
         <v>169</v>
@@ -4636,10 +4753,10 @@
         <v>311</v>
       </c>
       <c r="W14" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="X14" s="11" t="s">
         <v>406</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>407</v>
       </c>
       <c r="Y14" s="11" t="s">
         <v>236</v>
@@ -4648,25 +4765,25 @@
         <v>237</v>
       </c>
       <c r="AA14" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AB14" s="11" t="s">
         <v>109</v>
       </c>
       <c r="AC14" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AD14" s="11" t="s">
         <v>239</v>
       </c>
       <c r="AE14" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="AF14" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="AF14" s="11" t="s">
+      <c r="AG14" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="AG14" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="AH14" s="11" t="s">
         <v>243</v>
@@ -4675,49 +4792,49 @@
         <v>244</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AK14" s="11" t="s">
         <v>116</v>
       </c>
       <c r="AL14" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM14" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="AM14" s="11" t="s">
+      <c r="AN14" s="11" t="s">
         <v>415</v>
-      </c>
-      <c r="AN14" s="11" t="s">
-        <v>416</v>
       </c>
       <c r="AO14" s="11" t="s">
         <v>249</v>
       </c>
       <c r="AP14" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="AQ14" s="11" t="s">
         <v>417</v>
-      </c>
-      <c r="AQ14" s="11" t="s">
-        <v>418</v>
       </c>
       <c r="AR14" s="11" t="s">
         <v>123</v>
       </c>
       <c r="AS14" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AT14" s="11" t="s">
         <v>324</v>
       </c>
       <c r="AU14" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="AV14" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="AV14" s="11" t="s">
+      <c r="AW14" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="AW14" s="11" t="s">
+      <c r="AX14" s="11" t="s">
         <v>422</v>
-      </c>
-      <c r="AX14" s="11" t="s">
-        <v>423</v>
       </c>
       <c r="AY14" s="3" t="s">
         <v>328</v>
@@ -4731,7 +4848,7 @@
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E15">
         <v>8</v>
@@ -4740,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H15" t="s">
         <v>163</v>
@@ -4752,67 +4869,67 @@
         <v>47.5</v>
       </c>
       <c r="K15" t="s">
+        <v>424</v>
+      </c>
+      <c r="L15" t="s">
         <v>425</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>426</v>
-      </c>
-      <c r="N15" t="s">
-        <v>427</v>
       </c>
       <c r="O15" t="s">
         <v>261</v>
       </c>
       <c r="P15" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q15" t="s">
         <v>428</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>429</v>
       </c>
       <c r="T15" t="s">
         <v>286</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="V15" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="W15" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>432</v>
       </c>
       <c r="Y15" s="11" t="s">
         <v>106</v>
       </c>
       <c r="Z15" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA15" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="AA15" s="11" t="s">
+      <c r="AB15" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="AB15" s="11" t="s">
+      <c r="AC15" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="AC15" s="11" t="s">
+      <c r="AD15" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="AD15" s="11" t="s">
+      <c r="AE15" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="AE15" s="11" t="s">
+      <c r="AF15" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="AF15" s="11" t="s">
+      <c r="AG15" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="AG15" s="11" t="s">
+      <c r="AH15" s="11" t="s">
         <v>440</v>
-      </c>
-      <c r="AH15" s="11" t="s">
-        <v>441</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>244</v>
@@ -4821,40 +4938,40 @@
         <v>115</v>
       </c>
       <c r="AK15" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="AL15" s="11" t="s">
         <v>442</v>
-      </c>
-      <c r="AL15" s="11" t="s">
-        <v>443</v>
       </c>
       <c r="AM15" s="11" t="s">
         <v>247</v>
       </c>
       <c r="AN15" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="AO15" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="AO15" s="11" t="s">
+      <c r="AP15" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="AP15" s="11" t="s">
+      <c r="AQ15" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="AQ15" s="11" t="s">
+      <c r="AR15" s="11" t="s">
         <v>447</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>448</v>
       </c>
       <c r="AS15" s="11" t="s">
         <v>191</v>
       </c>
       <c r="AT15" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="AU15" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="AU15" s="11" t="s">
+      <c r="AV15" s="11" t="s">
         <v>450</v>
-      </c>
-      <c r="AV15" s="11" t="s">
-        <v>451</v>
       </c>
       <c r="AW15" s="11" t="s">
         <v>128</v>
@@ -4863,13 +4980,13 @@
         <v>129</v>
       </c>
       <c r="AY15" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AZ15" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BA15" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:54" ht="15" x14ac:dyDescent="0.25">
@@ -4880,7 +4997,7 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -4889,7 +5006,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H16" t="s">
         <v>89</v>
@@ -4901,37 +5018,37 @@
         <v>47.5</v>
       </c>
       <c r="K16" t="s">
+        <v>454</v>
+      </c>
+      <c r="L16" t="s">
         <v>455</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
+        <v>426</v>
+      </c>
+      <c r="P16" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q16" t="s">
         <v>456</v>
       </c>
-      <c r="N16" t="s">
-        <v>427</v>
-      </c>
-      <c r="P16" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>457</v>
-      </c>
-      <c r="S16" t="s">
-        <v>458</v>
       </c>
       <c r="T16" t="s">
         <v>169</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>204</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Z16">
         <v>999</v>
@@ -4940,52 +5057,52 @@
         <v>999</v>
       </c>
       <c r="AB16" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="AC16" s="11" t="s">
         <v>461</v>
-      </c>
-      <c r="AC16" s="11" t="s">
-        <v>462</v>
       </c>
       <c r="AD16" s="11" t="s">
         <v>179</v>
       </c>
       <c r="AE16" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="AF16" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="AF16" s="11" t="s">
+      <c r="AG16" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="AG16" s="11" t="s">
+      <c r="AH16" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="AH16" s="11" t="s">
-        <v>466</v>
-      </c>
       <c r="AI16" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AJ16" s="11" t="s">
         <v>184</v>
       </c>
       <c r="AK16" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="AL16" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="AL16" s="11" t="s">
+      <c r="AM16" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="AM16" s="11" t="s">
+      <c r="AN16" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="AN16" s="11" t="s">
+      <c r="AO16" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="AO16" s="11" t="s">
+      <c r="AP16" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="AP16" s="11" t="s">
-        <v>472</v>
-      </c>
       <c r="AQ16" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AR16" s="11" t="s">
         <v>80</v>
@@ -4997,13 +5114,13 @@
         <v>303</v>
       </c>
       <c r="AU16" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="AV16" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="AV16" s="11" t="s">
-        <v>474</v>
-      </c>
       <c r="AW16" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AX16" s="11" t="s">
         <v>129</v>
@@ -5012,10 +5129,10 @@
         <v>130</v>
       </c>
       <c r="AZ16" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BA16" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="2:53" x14ac:dyDescent="0.2">
@@ -5026,7 +5143,7 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -5035,7 +5152,7 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H17" t="s">
         <v>89</v>
@@ -5047,61 +5164,61 @@
         <v>47.5</v>
       </c>
       <c r="K17" t="s">
+        <v>479</v>
+      </c>
+      <c r="L17" t="s">
         <v>480</v>
       </c>
-      <c r="L17" t="s">
-        <v>481</v>
-      </c>
       <c r="N17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O17" t="s">
         <v>167</v>
       </c>
       <c r="P17" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q17" t="s">
         <v>482</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>483</v>
       </c>
       <c r="T17" t="s">
         <v>96</v>
       </c>
       <c r="V17" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="X17" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="X17" s="11" t="s">
+      <c r="Y17" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="Y17" s="11" t="s">
+      <c r="Z17" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="Z17" s="11" t="s">
+      <c r="AA17" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="AA17" s="11" t="s">
+      <c r="AB17" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="AB17" s="11" t="s">
+      <c r="AC17" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="AC17" s="11" t="s">
+      <c r="AD17" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="AD17" s="11" t="s">
+      <c r="AE17" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="AF17" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="AE17" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="AF17" s="11" t="s">
+      <c r="AG17" s="11" t="s">
         <v>492</v>
-      </c>
-      <c r="AG17" s="11" t="s">
-        <v>493</v>
       </c>
       <c r="AH17" s="11" t="s">
         <v>183</v>
@@ -5113,55 +5230,55 @@
         <v>115</v>
       </c>
       <c r="AK17" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AL17" s="11" t="s">
         <v>494</v>
-      </c>
-      <c r="AL17" s="11" t="s">
-        <v>495</v>
       </c>
       <c r="AM17" s="11" t="s">
         <v>186</v>
       </c>
       <c r="AN17" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="AO17" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="AO17" s="11" t="s">
+      <c r="AP17" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="AP17" s="11" t="s">
+      <c r="AQ17" s="11" t="s">
         <v>498</v>
-      </c>
-      <c r="AQ17" s="11" t="s">
-        <v>499</v>
       </c>
       <c r="AR17" s="11" t="s">
         <v>80</v>
       </c>
       <c r="AS17" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="AT17" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="AT17" s="11" t="s">
+      <c r="AU17" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="AU17" s="11" t="s">
+      <c r="AV17" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="AV17" s="11" t="s">
+      <c r="AW17" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="AW17" s="11" t="s">
+      <c r="AX17" s="11" t="s">
         <v>504</v>
-      </c>
-      <c r="AX17" s="11" t="s">
-        <v>505</v>
       </c>
       <c r="AY17" s="3" t="s">
         <v>130</v>
       </c>
       <c r="AZ17" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BA17" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="2:53" x14ac:dyDescent="0.2">
@@ -5172,7 +5289,7 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -5181,7 +5298,7 @@
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -5193,19 +5310,19 @@
         <v>47.5</v>
       </c>
       <c r="K18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O18" t="s">
         <v>167</v>
       </c>
       <c r="P18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q18" t="s">
         <v>310</v>
@@ -5217,13 +5334,13 @@
         <v>286</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V18" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="W18" s="11" t="s">
         <v>511</v>
-      </c>
-      <c r="W18" s="11" t="s">
-        <v>512</v>
       </c>
       <c r="X18" s="11" t="s">
         <v>204</v>
@@ -5232,34 +5349,34 @@
         <v>175</v>
       </c>
       <c r="Z18" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA18" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="AA18" s="11" t="s">
+      <c r="AB18" s="11" t="s">
         <v>514</v>
-      </c>
-      <c r="AB18" s="11" t="s">
-        <v>515</v>
       </c>
       <c r="AC18" s="11" t="s">
         <v>208</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AE18" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF18" s="11" t="s">
         <v>293</v>
       </c>
       <c r="AG18" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AH18" s="11" t="s">
         <v>114</v>
       </c>
       <c r="AI18" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>184</v>
@@ -5268,13 +5385,13 @@
         <v>296</v>
       </c>
       <c r="AL18" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AM18" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AN18" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AO18" s="11" t="s">
         <v>218</v>
@@ -5283,37 +5400,37 @@
         <v>188</v>
       </c>
       <c r="AQ18" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AR18" s="11" t="s">
         <v>80</v>
       </c>
       <c r="AS18" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="AT18" s="11" t="s">
         <v>520</v>
-      </c>
-      <c r="AT18" s="11" t="s">
-        <v>521</v>
       </c>
       <c r="AU18" s="11" t="s">
         <v>222</v>
       </c>
       <c r="AV18" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="AW18" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="AW18" s="11" t="s">
+      <c r="AX18" s="11" t="s">
         <v>523</v>
-      </c>
-      <c r="AX18" s="11" t="s">
-        <v>524</v>
       </c>
       <c r="AY18" s="3" t="s">
         <v>130</v>
       </c>
       <c r="AZ18" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="BA18" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="2:53" x14ac:dyDescent="0.2">
@@ -5324,7 +5441,7 @@
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E19">
         <v>9</v>
@@ -5333,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -5345,34 +5462,34 @@
         <v>47.5</v>
       </c>
       <c r="K19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O19" t="s">
         <v>167</v>
       </c>
       <c r="P19" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q19" t="s">
         <v>528</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>529</v>
-      </c>
-      <c r="S19" t="s">
-        <v>530</v>
       </c>
       <c r="T19" t="s">
         <v>96</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="X19" s="11" t="s">
         <v>62</v>
@@ -5384,28 +5501,28 @@
         <v>999</v>
       </c>
       <c r="AA19" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AB19" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="AC19" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="AD19" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="AC19" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="AD19" s="11" t="s">
+      <c r="AE19" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="AE19" s="11" t="s">
+      <c r="AF19" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="AF19" s="11" t="s">
+      <c r="AG19" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="AG19" s="11" t="s">
-        <v>537</v>
-      </c>
       <c r="AH19" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>71</v>
@@ -5414,7 +5531,7 @@
         <v>184</v>
       </c>
       <c r="AK19" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AL19">
         <v>999</v>
@@ -5423,10 +5540,10 @@
         <v>216</v>
       </c>
       <c r="AN19" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="AO19" s="11" t="s">
         <v>539</v>
-      </c>
-      <c r="AO19" s="11" t="s">
-        <v>540</v>
       </c>
       <c r="AP19" s="11" t="s">
         <v>78</v>
@@ -5435,19 +5552,19 @@
         <v>189</v>
       </c>
       <c r="AR19" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="AS19" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="AS19" s="11" t="s">
+      <c r="AT19" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="AT19" s="11" t="s">
+      <c r="AU19" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="AU19" s="11" t="s">
-        <v>544</v>
-      </c>
       <c r="AV19" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AW19">
         <v>999</v>
@@ -5456,13 +5573,13 @@
         <v>99</v>
       </c>
       <c r="AY19" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AZ19" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="BA19" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="BA19" s="3" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="20" spans="2:53" x14ac:dyDescent="0.2">
@@ -5473,7 +5590,7 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E20">
         <v>9</v>
@@ -5482,7 +5599,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H20" t="s">
         <v>163</v>
@@ -5494,127 +5611,127 @@
         <v>47.5</v>
       </c>
       <c r="K20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O20" t="s">
         <v>93</v>
       </c>
       <c r="P20" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q20" t="s">
         <v>549</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>550</v>
-      </c>
-      <c r="R20" t="s">
-        <v>551</v>
       </c>
       <c r="T20" t="s">
         <v>286</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V20" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="W20" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="X20" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="X20" s="11" t="s">
+      <c r="Y20" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Z20" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="Z20" s="11" t="s">
+      <c r="AA20" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="AA20" s="11" t="s">
+      <c r="AB20" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="AB20" s="11" t="s">
+      <c r="AC20" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="AC20" s="11" t="s">
+      <c r="AD20" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="AD20" s="11" t="s">
+      <c r="AE20" s="11" t="s">
         <v>562</v>
-      </c>
-      <c r="AE20" s="11" t="s">
-        <v>563</v>
       </c>
       <c r="AF20">
         <v>999</v>
       </c>
       <c r="AG20" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="AH20" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="AH20" s="11" t="s">
+      <c r="AI20" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="AI20" s="11" t="s">
+      <c r="AJ20" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="AJ20" s="11" t="s">
+      <c r="AK20" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="AK20" s="11" t="s">
+      <c r="AL20" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="AL20" s="11" t="s">
+      <c r="AM20" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="AM20" s="11" t="s">
+      <c r="AN20" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="AN20" s="11" t="s">
+      <c r="AO20" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="AO20" s="11" t="s">
+      <c r="AP20" s="11" t="s">
         <v>572</v>
-      </c>
-      <c r="AP20" s="11" t="s">
-        <v>573</v>
       </c>
       <c r="AQ20" s="11" t="s">
         <v>189</v>
       </c>
       <c r="AR20" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="AS20" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="AS20" s="11" t="s">
+      <c r="AT20" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="AT20" s="11" t="s">
+      <c r="AU20" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="AU20" s="11" t="s">
+      <c r="AV20" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="AV20" s="11" t="s">
+      <c r="AW20" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="AW20" s="11" t="s">
+      <c r="AX20" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="AX20" s="11" t="s">
+      <c r="AY20" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="AY20" s="3" t="s">
+      <c r="AZ20" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="AZ20" s="11" t="s">
+      <c r="BA20" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="BA20" s="3" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="21" spans="2:53" x14ac:dyDescent="0.2">
@@ -5625,7 +5742,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -5634,7 +5751,7 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H21" t="s">
         <v>89</v>
@@ -5646,40 +5763,40 @@
         <v>47.5</v>
       </c>
       <c r="K21" t="s">
+        <v>584</v>
+      </c>
+      <c r="L21" t="s">
         <v>585</v>
       </c>
-      <c r="L21" t="s">
-        <v>586</v>
-      </c>
       <c r="N21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O21" t="s">
         <v>167</v>
       </c>
       <c r="P21" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q21" t="s">
         <v>587</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>588</v>
       </c>
       <c r="T21" t="s">
         <v>96</v>
       </c>
       <c r="V21" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="W21" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="W21" s="11" t="s">
-        <v>590</v>
-      </c>
       <c r="X21" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y21" s="11" t="s">
         <v>106</v>
       </c>
       <c r="Z21" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AA21">
         <v>999</v>
@@ -5688,79 +5805,79 @@
         <v>109</v>
       </c>
       <c r="AC21" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD21" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE21" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="AD21" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE21" s="11" t="s">
+      <c r="AF21" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="AF21" s="11" t="s">
+      <c r="AG21" t="s">
         <v>594</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="AH21" s="11" t="s">
+      <c r="AI21" s="11" t="s">
         <v>596</v>
-      </c>
-      <c r="AI21" s="11" t="s">
-        <v>597</v>
       </c>
       <c r="AJ21" s="11" t="s">
         <v>115</v>
       </c>
       <c r="AK21" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AL21" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="AL21" s="11" t="s">
+      <c r="AM21" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="AM21" s="11" t="s">
+      <c r="AN21" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="AN21" s="11" t="s">
-        <v>601</v>
       </c>
       <c r="AO21" s="11" t="s">
         <v>120</v>
       </c>
       <c r="AP21" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AQ21" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AR21" s="11" t="s">
         <v>123</v>
       </c>
       <c r="AS21" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="AT21" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="AT21" s="11" t="s">
+      <c r="AU21" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="AU21" s="11" t="s">
+      <c r="AV21" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="AV21" s="11" t="s">
+      <c r="AW21" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="AW21" s="11" t="s">
-        <v>607</v>
-      </c>
       <c r="AX21" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AY21" s="3" t="s">
         <v>130</v>
       </c>
       <c r="AZ21" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="BA21" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="BA21" s="3" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="22" spans="2:53" x14ac:dyDescent="0.2">
@@ -5771,7 +5888,7 @@
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E22">
         <v>9</v>
@@ -5780,7 +5897,7 @@
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H22" t="s">
         <v>89</v>
@@ -5792,124 +5909,124 @@
         <v>47.5</v>
       </c>
       <c r="K22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O22">
         <v>999</v>
       </c>
       <c r="P22" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q22" t="s">
         <v>613</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>614</v>
       </c>
       <c r="T22" t="s">
         <v>286</v>
       </c>
       <c r="U22" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="W22" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="V22" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="W22" s="11" t="s">
+      <c r="X22" s="11" t="s">
         <v>616</v>
-      </c>
-      <c r="X22" s="11" t="s">
-        <v>617</v>
       </c>
       <c r="Y22" s="11" t="s">
         <v>236</v>
       </c>
       <c r="Z22" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA22" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="AA22" s="11" t="s">
+      <c r="AB22" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="AB22" s="11" t="s">
+      <c r="AC22" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="AC22" s="11" t="s">
+      <c r="AD22" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE22" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="AD22" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="AE22" s="11" t="s">
+      <c r="AF22" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="AF22" s="11" t="s">
+      <c r="AG22" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="AG22" s="11" t="s">
-        <v>624</v>
-      </c>
       <c r="AH22" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AI22" s="11" t="s">
         <v>137</v>
       </c>
       <c r="AJ22" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="AK22" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="AK22" s="11" t="s">
+      <c r="AL22" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="AL22" s="11" t="s">
+      <c r="AM22" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN22" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="AM22" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="AN22" s="11" t="s">
+      <c r="AO22" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP22" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="AO22" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="AP22" s="11" t="s">
-        <v>629</v>
-      </c>
       <c r="AQ22" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AR22" s="11" t="s">
         <v>123</v>
       </c>
       <c r="AS22" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="AT22" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="AT22" s="11" t="s">
+      <c r="AU22" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="AU22" s="11" t="s">
+      <c r="AV22" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="AV22" s="11" t="s">
+      <c r="AW22" s="11" t="s">
         <v>633</v>
-      </c>
-      <c r="AW22" s="11" t="s">
-        <v>634</v>
       </c>
       <c r="AX22" s="11" t="s">
         <v>129</v>
       </c>
       <c r="AY22" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="AZ22" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="BA22" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="AZ22" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="BA22" s="3" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="23" spans="2:53" x14ac:dyDescent="0.2">
@@ -5920,7 +6037,7 @@
         <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E23">
         <v>9</v>
@@ -5929,7 +6046,7 @@
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -5941,22 +6058,22 @@
         <v>47.5</v>
       </c>
       <c r="K23" t="s">
+        <v>637</v>
+      </c>
+      <c r="L23" t="s">
         <v>638</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>639</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
+        <v>550</v>
+      </c>
+      <c r="O23" t="s">
         <v>640</v>
       </c>
-      <c r="N23" t="s">
-        <v>551</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>641</v>
-      </c>
-      <c r="P23" t="s">
-        <v>642</v>
       </c>
       <c r="Q23" t="s">
         <v>310</v>
@@ -5965,25 +6082,25 @@
         <v>169</v>
       </c>
       <c r="V23" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="W23" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="X23" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y23" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="X23" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="Y23" s="11" t="s">
+      <c r="Z23" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="AA23" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="AA23" s="11" t="s">
+      <c r="AB23" t="s">
         <v>647</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>648</v>
       </c>
       <c r="AC23" s="11" t="s">
         <v>208</v>
@@ -5992,73 +6109,73 @@
         <v>67</v>
       </c>
       <c r="AE23" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF23" s="11" t="s">
         <v>293</v>
       </c>
       <c r="AG23" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="AH23" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="AH23" s="11" t="s">
-        <v>650</v>
-      </c>
       <c r="AI23" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AJ23" s="11" t="s">
         <v>184</v>
       </c>
       <c r="AK23" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AL23" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AM23" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="AN23" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="AO23" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="AN23" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="AO23" s="11" t="s">
+      <c r="AP23" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="AP23" s="11" t="s">
+      <c r="AQ23" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="AQ23" s="11" t="s">
+      <c r="AR23" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="AR23" s="11" t="s">
+      <c r="AS23" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="AS23" s="11" t="s">
+      <c r="AT23" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="AT23" s="11" t="s">
+      <c r="AU23" t="s">
+        <v>647</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>647</v>
+      </c>
+      <c r="AW23" s="11" t="s">
         <v>657</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>648</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>648</v>
-      </c>
-      <c r="AW23" s="11" t="s">
-        <v>658</v>
       </c>
       <c r="AX23" s="11" t="s">
         <v>129</v>
       </c>
       <c r="AY23" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AZ23" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="BA23" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="BA23" s="3" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="24" spans="2:53" x14ac:dyDescent="0.2">
@@ -6069,7 +6186,7 @@
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E24">
         <v>9</v>
@@ -6078,7 +6195,7 @@
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -6090,91 +6207,91 @@
         <v>47.5</v>
       </c>
       <c r="K24" t="s">
+        <v>661</v>
+      </c>
+      <c r="L24" t="s">
         <v>662</v>
       </c>
-      <c r="L24" t="s">
-        <v>663</v>
-      </c>
       <c r="M24" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O24" t="s">
         <v>167</v>
       </c>
       <c r="P24" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q24" t="s">
         <v>664</v>
       </c>
-      <c r="Q24" t="s">
-        <v>665</v>
-      </c>
       <c r="R24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="T24" t="s">
         <v>96</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="W24" s="11" t="s">
         <v>203</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>175</v>
       </c>
       <c r="Z24" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="AA24" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="AA24" s="11" t="s">
+      <c r="AB24" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="AB24" s="11" t="s">
+      <c r="AC24" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD24" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="AC24" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="AD24" s="11" t="s">
+      <c r="AE24" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="AE24" s="11" t="s">
+      <c r="AF24" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="AG24" s="11" t="s">
         <v>672</v>
-      </c>
-      <c r="AF24" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="AG24" s="11" t="s">
-        <v>673</v>
       </c>
       <c r="AH24">
         <v>999</v>
       </c>
       <c r="AI24" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="AJ24" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="AJ24" s="11" t="s">
+      <c r="AK24" s="11" t="s">
         <v>675</v>
-      </c>
-      <c r="AK24" s="11" t="s">
-        <v>676</v>
       </c>
       <c r="AL24">
         <v>999</v>
       </c>
       <c r="AM24" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="AN24" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="AN24" s="11" t="s">
-        <v>678</v>
-      </c>
       <c r="AO24" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AP24" s="11" t="s">
         <v>78</v>
@@ -6183,19 +6300,19 @@
         <v>189</v>
       </c>
       <c r="AR24" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="AS24" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="AT24" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="AS24" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="AT24" s="11" t="s">
+      <c r="AU24" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="AU24" s="11" t="s">
-        <v>681</v>
-      </c>
       <c r="AV24" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AW24" s="11" t="s">
         <v>85</v>
@@ -6204,13 +6321,13 @@
         <v>99</v>
       </c>
       <c r="AY24" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="AZ24" s="11" t="s">
         <v>682</v>
       </c>
-      <c r="AZ24" s="11" t="s">
-        <v>683</v>
-      </c>
       <c r="BA24" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="25" spans="2:53" x14ac:dyDescent="0.2">
@@ -6221,7 +6338,7 @@
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E25">
         <v>9</v>
@@ -6230,7 +6347,7 @@
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H25" t="s">
         <v>163</v>
@@ -6242,52 +6359,52 @@
         <v>47.5</v>
       </c>
       <c r="K25" t="s">
+        <v>684</v>
+      </c>
+      <c r="L25" t="s">
         <v>685</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>686</v>
       </c>
-      <c r="M25" t="s">
-        <v>687</v>
-      </c>
       <c r="N25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O25" t="s">
         <v>167</v>
       </c>
       <c r="P25" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q25" t="s">
         <v>688</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>689</v>
-      </c>
-      <c r="R25" t="s">
-        <v>690</v>
       </c>
       <c r="T25" t="s">
         <v>169</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X25" s="11" t="s">
         <v>105</v>
       </c>
       <c r="Y25" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="Z25" s="11" t="s">
         <v>692</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>693</v>
       </c>
       <c r="AA25" s="11" t="s">
         <v>108</v>
       </c>
       <c r="AB25" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AC25" s="11" t="s">
         <v>110</v>
@@ -6296,73 +6413,73 @@
         <v>269</v>
       </c>
       <c r="AE25" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF25" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="AF25" s="11" t="s">
+      <c r="AG25" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="AG25" s="11" t="s">
+      <c r="AH25" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="AH25" s="11" t="s">
+      <c r="AI25" s="11" t="s">
         <v>698</v>
-      </c>
-      <c r="AI25" s="11" t="s">
-        <v>699</v>
       </c>
       <c r="AJ25" s="11" t="s">
         <v>115</v>
       </c>
       <c r="AK25" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="AL25" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="AL25" s="11" t="s">
+      <c r="AM25" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="AM25" s="11" t="s">
+      <c r="AN25" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="AN25" s="11" t="s">
+      <c r="AO25" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="AO25" s="11" t="s">
+      <c r="AP25" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="AP25" s="11" t="s">
+      <c r="AQ25" s="11" t="s">
         <v>705</v>
-      </c>
-      <c r="AQ25" s="11" t="s">
-        <v>706</v>
       </c>
       <c r="AR25" s="11" t="s">
         <v>277</v>
       </c>
       <c r="AS25" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="AT25" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="AT25" s="11" t="s">
+      <c r="AU25" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="AU25" s="11" t="s">
+      <c r="AV25" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="AV25" s="11" t="s">
+      <c r="AW25" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="AW25" s="11" t="s">
+      <c r="AX25" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="AX25" s="11" t="s">
+      <c r="AY25" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AZ25" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="BA25" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="AY25" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AZ25" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="BA25" s="3" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="26" spans="2:53" x14ac:dyDescent="0.2">
@@ -6373,7 +6490,7 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E26">
         <v>9</v>
@@ -6382,7 +6499,7 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H26" t="s">
         <v>163</v>
@@ -6394,7 +6511,124 @@
         <v>47.5</v>
       </c>
       <c r="K26" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="L26" t="s">
+        <v>737</v>
+      </c>
+      <c r="N26" t="s">
+        <v>738</v>
+      </c>
+      <c r="O26" t="s">
+        <v>640</v>
+      </c>
+      <c r="P26" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>740</v>
+      </c>
+      <c r="S26" t="s">
+        <v>529</v>
+      </c>
+      <c r="T26" t="s">
+        <v>286</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="W26" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y26" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z26" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA26" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="AB26" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="AC26" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD26" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE26" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="AF26" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG26" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="AH26" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="AI26" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="AJ26" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="AK26" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="AL26" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="AM26" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN26" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="AO26" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="AP26" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="AQ26" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="AR26" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS26" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="AT26" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="AU26" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="AV26" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="AW26" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX26" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY26" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ26" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="BA26" s="3" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="27" spans="2:53" x14ac:dyDescent="0.2">
@@ -6405,7 +6639,7 @@
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -6414,7 +6648,7 @@
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H27" t="s">
         <v>163</v>
@@ -6426,46 +6660,46 @@
         <v>47.5</v>
       </c>
       <c r="K27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L27" t="s">
+        <v>717</v>
+      </c>
+      <c r="N27" t="s">
+        <v>426</v>
+      </c>
+      <c r="O27" t="s">
+        <v>640</v>
+      </c>
+      <c r="P27" t="s">
         <v>718</v>
       </c>
-      <c r="N27" t="s">
-        <v>427</v>
-      </c>
-      <c r="O27" t="s">
-        <v>641</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>719</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>720</v>
       </c>
-      <c r="R27" t="s">
+      <c r="U27" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="V27" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="V27" s="11" t="s">
+      <c r="W27" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="W27" s="11" t="s">
+      <c r="X27" s="11" t="s">
         <v>724</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>725</v>
       </c>
       <c r="Y27" s="11" t="s">
         <v>106</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AA27" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AB27" s="11" t="s">
         <v>109</v>
@@ -6474,16 +6708,16 @@
         <v>238</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AE27" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AF27" s="11" t="s">
         <v>241</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AH27" s="11" t="s">
         <v>243</v>
@@ -6492,25 +6726,25 @@
         <v>137</v>
       </c>
       <c r="AJ27" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="AK27" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AL27" s="11" t="s">
         <v>729</v>
-      </c>
-      <c r="AK27" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="AL27" s="11" t="s">
-        <v>730</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>247</v>
       </c>
       <c r="AN27" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AO27" s="11" t="s">
         <v>249</v>
       </c>
       <c r="AP27" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AQ27" s="11" t="s">
         <v>189</v>
@@ -6519,19 +6753,19 @@
         <v>123</v>
       </c>
       <c r="AS27" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AT27" s="11" t="s">
         <v>324</v>
       </c>
       <c r="AU27" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="AV27" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="AV27" s="11" t="s">
+      <c r="AW27" s="11" t="s">
         <v>734</v>
-      </c>
-      <c r="AW27" s="11" t="s">
-        <v>735</v>
       </c>
       <c r="AX27" s="11" t="s">
         <v>99</v>
@@ -6540,10 +6774,156 @@
         <v>328</v>
       </c>
       <c r="AZ27" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="BA27" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="28" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B28" s="10">
+        <v>44791</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>476</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>756</v>
+      </c>
+      <c r="H28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28">
+        <v>24.5</v>
+      </c>
+      <c r="J28">
+        <v>47.5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>757</v>
+      </c>
+      <c r="L28" t="s">
+        <v>758</v>
+      </c>
+      <c r="N28" t="s">
+        <v>738</v>
+      </c>
+      <c r="O28" t="s">
+        <v>640</v>
+      </c>
+      <c r="P28" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>760</v>
+      </c>
+      <c r="T28" t="s">
+        <v>96</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="W28" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="X28" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="Z28" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="AA28" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC28" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD28" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE28" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="AF28" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG28" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="AH28" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="AI28" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ28" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK28" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL28" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="AM28" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN28" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="AO28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP28" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ28" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="AR28" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS28" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="AT28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU28" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="AV28" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="AW28" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="AX28" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="AY28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ28" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="BA28" s="3" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267E2744-FF8A-4B51-BEEB-776DF2F075EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D38CD81-85F4-4EF6-B4C2-3C51CD8CDC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="833">
   <si>
     <t>ID</t>
   </si>
@@ -2367,6 +2367,177 @@
   </si>
   <si>
     <t>oigeln, zwiaga</t>
+  </si>
+  <si>
+    <t>III_14_0018</t>
+  </si>
+  <si>
+    <t>p-S</t>
+  </si>
+  <si>
+    <t>Jungholz</t>
+  </si>
+  <si>
+    <t>Ludwig Haumesser</t>
+  </si>
+  <si>
+    <t>Omeisa</t>
+  </si>
+  <si>
+    <t>a Licht</t>
+  </si>
+  <si>
+    <t>Brumbura</t>
+  </si>
+  <si>
+    <t>Disel, Wagadisel</t>
+  </si>
+  <si>
+    <t>Agerscht</t>
+  </si>
+  <si>
+    <t>Andaratscher</t>
+  </si>
+  <si>
+    <t>[?]ugumer</t>
+  </si>
+  <si>
+    <t>Hahna, Huan</t>
+  </si>
+  <si>
+    <t>Hewam</t>
+  </si>
+  <si>
+    <t>Katzarolli</t>
+  </si>
+  <si>
+    <t>a Mor</t>
+  </si>
+  <si>
+    <t>[?]rüselbeera</t>
+  </si>
+  <si>
+    <t>Stupfnadel</t>
+  </si>
+  <si>
+    <t>Stiecknadel</t>
+  </si>
+  <si>
+    <t>Tasla, Talerla</t>
+  </si>
+  <si>
+    <t>Suhnsfrau</t>
+  </si>
+  <si>
+    <t>III_14_0019</t>
+  </si>
+  <si>
+    <t>p-T</t>
+  </si>
+  <si>
+    <t>Wünheim</t>
+  </si>
+  <si>
+    <t>A. Giold</t>
+  </si>
+  <si>
+    <t>Neu-Br[?]aes</t>
+  </si>
+  <si>
+    <t>Antaratscher</t>
+  </si>
+  <si>
+    <t>Buta</t>
+  </si>
+  <si>
+    <t>Guller, Huan</t>
+  </si>
+  <si>
+    <t>Hadäpfel</t>
+  </si>
+  <si>
+    <t>Mülwurf</t>
+  </si>
+  <si>
+    <t>Mohrrüawa</t>
+  </si>
+  <si>
+    <t>Geitsch, Riama</t>
+  </si>
+  <si>
+    <t>Pfum</t>
+  </si>
+  <si>
+    <t>schüfel</t>
+  </si>
+  <si>
+    <t>Grüsselbeera</t>
+  </si>
+  <si>
+    <t>Streggnodel</t>
+  </si>
+  <si>
+    <t>Tass, Dallerla</t>
+  </si>
+  <si>
+    <t>Rutschhafa</t>
+  </si>
+  <si>
+    <t>aigla</t>
+  </si>
+  <si>
+    <t>III_14_0020</t>
+  </si>
+  <si>
+    <t>p-U</t>
+  </si>
+  <si>
+    <t>Harrtmannsweiler</t>
+  </si>
+  <si>
+    <t>Frau Bischoff</t>
+  </si>
+  <si>
+    <t>Kolmar, &lt;aber in Gebweiler seit Kindheit&gt;</t>
+  </si>
+  <si>
+    <t>Licht (s)</t>
+  </si>
+  <si>
+    <t>Gägummer</t>
+  </si>
+  <si>
+    <t>Gückel, Hüan</t>
+  </si>
+  <si>
+    <t>Hewämm</t>
+  </si>
+  <si>
+    <t>Kätzarolli (m)</t>
+  </si>
+  <si>
+    <t>Pflum, Zwatschg (w)</t>
+  </si>
+  <si>
+    <t>handla, abriala</t>
+  </si>
+  <si>
+    <t>Grüsselbeer (w)</t>
+  </si>
+  <si>
+    <t>Strecknodl (w)</t>
+  </si>
+  <si>
+    <t>Tassla, Dalerla (s)</t>
+  </si>
+  <si>
+    <t>pfropfa, aigla, zwiega</t>
+  </si>
+  <si>
+    <t>Geiss (w)</t>
+  </si>
+  <si>
+    <t>Sunsfrai (w)</t>
   </si>
 </sst>
 </file>
@@ -2787,10 +2958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB28"/>
+  <dimension ref="A1:BB31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BA28" sqref="BA28"/>
+      <selection activeCell="BA31" sqref="BA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6924,6 +7095,444 @@
       </c>
       <c r="BA28" s="3" t="s">
         <v>474</v>
+      </c>
+    </row>
+    <row r="29" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B29" s="10">
+        <v>44796</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>476</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>776</v>
+      </c>
+      <c r="H29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29">
+        <v>24.5</v>
+      </c>
+      <c r="J29">
+        <v>47.5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>777</v>
+      </c>
+      <c r="L29" t="s">
+        <v>778</v>
+      </c>
+      <c r="N29" t="s">
+        <v>738</v>
+      </c>
+      <c r="O29" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>201</v>
+      </c>
+      <c r="T29" t="s">
+        <v>286</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="X29" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC29" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE29" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="AF29" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG29" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="AH29" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="AI29" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ29" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="AK29" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL29">
+        <v>999</v>
+      </c>
+      <c r="AM29" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="AN29" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="AO29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP29" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS29" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="AT29" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="AU29" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="AV29" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="AW29" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX29">
+        <v>999</v>
+      </c>
+      <c r="AY29" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ29" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="BA29" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="30" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B30" s="10">
+        <v>44796</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>476</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>796</v>
+      </c>
+      <c r="H30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30">
+        <v>24.5</v>
+      </c>
+      <c r="J30">
+        <v>47.5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>797</v>
+      </c>
+      <c r="L30" t="s">
+        <v>798</v>
+      </c>
+      <c r="N30" t="s">
+        <v>738</v>
+      </c>
+      <c r="O30">
+        <v>999</v>
+      </c>
+      <c r="P30" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>800</v>
+      </c>
+      <c r="T30" t="s">
+        <v>169</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="X30" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y30" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z30" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="AA30" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="AB30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC30" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD30" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE30" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="AF30" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="AG30" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="AH30" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="AI30" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="AJ30" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK30" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="AL30" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="AM30" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN30" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="AO30" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="AP30" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="AQ30" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="AR30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS30" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="AT30" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="AU30" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="AV30" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="AW30" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="AX30" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="AY30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ30" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="BA30" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="31" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B31" s="10">
+        <v>44796</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>476</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>815</v>
+      </c>
+      <c r="H31" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31">
+        <v>24.5</v>
+      </c>
+      <c r="J31">
+        <v>47.5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>816</v>
+      </c>
+      <c r="L31" t="s">
+        <v>817</v>
+      </c>
+      <c r="N31" t="s">
+        <v>738</v>
+      </c>
+      <c r="O31">
+        <v>999</v>
+      </c>
+      <c r="P31" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>819</v>
+      </c>
+      <c r="T31" t="s">
+        <v>169</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="W31" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="X31" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y31" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z31" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA31" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB31" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC31" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD31" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE31" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="AF31" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG31" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="AH31" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="AI31" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ31" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="AK31" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AL31">
+        <v>999</v>
+      </c>
+      <c r="AM31" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN31" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="AO31" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP31" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="AQ31" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="AR31" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS31" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="AT31" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="AU31" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="AV31" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="AW31" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX31" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="AY31" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="AZ31">
+        <v>999</v>
+      </c>
+      <c r="BA31" s="3" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D38CD81-85F4-4EF6-B4C2-3C51CD8CDC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3DFE05-3E5C-4281-8D58-E632ABBA1455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="866">
   <si>
     <t>ID</t>
   </si>
@@ -2538,6 +2538,105 @@
   </si>
   <si>
     <t>Sunsfrai (w)</t>
+  </si>
+  <si>
+    <t>III_14_0021</t>
+  </si>
+  <si>
+    <t>p-V</t>
+  </si>
+  <si>
+    <t>Berrweiler</t>
+  </si>
+  <si>
+    <t>J. Schnetis</t>
+  </si>
+  <si>
+    <t>Triberg i[?] Schw.</t>
+  </si>
+  <si>
+    <t>Gügel (m), Huahn (w)</t>
+  </si>
+  <si>
+    <t>Butt (d', w)</t>
+  </si>
+  <si>
+    <t>Gagummer (w)</t>
+  </si>
+  <si>
+    <t>Doppelschor (w)</t>
+  </si>
+  <si>
+    <t>[S]issel (m)</t>
+  </si>
+  <si>
+    <t>Brumbiera (w)</t>
+  </si>
+  <si>
+    <t>Licht (d', w)</t>
+  </si>
+  <si>
+    <t>Hewam (w)</t>
+  </si>
+  <si>
+    <t>Katz (w)</t>
+  </si>
+  <si>
+    <t>Tasla</t>
+  </si>
+  <si>
+    <t>[???]hofa</t>
+  </si>
+  <si>
+    <t>Schwiegerdochter (w)</t>
+  </si>
+  <si>
+    <t>III_14_0023</t>
+  </si>
+  <si>
+    <t>p-Y</t>
+  </si>
+  <si>
+    <t>Bollweiler</t>
+  </si>
+  <si>
+    <t>bei Ober Sulz</t>
+  </si>
+  <si>
+    <t>M. Breg</t>
+  </si>
+  <si>
+    <t>Mülhausen</t>
+  </si>
+  <si>
+    <t>Gugumer (w)</t>
+  </si>
+  <si>
+    <t>Gügel (m), Glugrd (w)</t>
+  </si>
+  <si>
+    <t>Hewamma (w)</t>
+  </si>
+  <si>
+    <t>Galrüawa (w)</t>
+  </si>
+  <si>
+    <t>Stiecknodal (w)</t>
+  </si>
+  <si>
+    <t>Tassa (w)</t>
+  </si>
+  <si>
+    <t>Erdiga Hafa (m)</t>
+  </si>
+  <si>
+    <t>Gais (w)</t>
+  </si>
+  <si>
+    <t>Sohnsfrau (w)</t>
+  </si>
+  <si>
+    <t>Holdra (w)</t>
   </si>
 </sst>
 </file>
@@ -2958,10 +3057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB31"/>
+  <dimension ref="A1:BB34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BA31" sqref="BA31"/>
+      <selection activeCell="AZ34" sqref="AZ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7533,6 +7632,295 @@
       </c>
       <c r="BA31" s="3" t="s">
         <v>832</v>
+      </c>
+    </row>
+    <row r="32" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B32" s="10">
+        <v>44802</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>476</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>833</v>
+      </c>
+      <c r="H32" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32">
+        <v>24.5</v>
+      </c>
+      <c r="J32">
+        <v>47.5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>834</v>
+      </c>
+      <c r="L32" t="s">
+        <v>835</v>
+      </c>
+      <c r="N32" t="s">
+        <v>738</v>
+      </c>
+      <c r="O32">
+        <v>999</v>
+      </c>
+      <c r="P32" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>837</v>
+      </c>
+      <c r="T32" t="s">
+        <v>96</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="W32" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="X32" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="Y32" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="Z32" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA32" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB32" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC32" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD32" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="AE32" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="AF32" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="AG32" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="AH32" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="AI32" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ32" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="AK32" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="AL32">
+        <v>999</v>
+      </c>
+      <c r="AM32" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN32" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="AO32">
+        <v>999</v>
+      </c>
+      <c r="AP32" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="AQ32" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR32">
+        <v>999</v>
+      </c>
+      <c r="AS32">
+        <v>999</v>
+      </c>
+      <c r="AT32" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="AU32" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="AV32" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="AW32" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="AX32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY32" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="BA32" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="34" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B34" s="10">
+        <v>44802</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>476</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>850</v>
+      </c>
+      <c r="H34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34">
+        <v>24.5</v>
+      </c>
+      <c r="J34">
+        <v>47.5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>851</v>
+      </c>
+      <c r="L34" t="s">
+        <v>852</v>
+      </c>
+      <c r="M34" t="s">
+        <v>853</v>
+      </c>
+      <c r="N34" t="s">
+        <v>738</v>
+      </c>
+      <c r="O34" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>855</v>
+      </c>
+      <c r="T34" t="s">
+        <v>96</v>
+      </c>
+      <c r="V34" t="s">
+        <v>742</v>
+      </c>
+      <c r="W34" t="s">
+        <v>820</v>
+      </c>
+      <c r="X34" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>856</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>857</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>858</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>846</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>597</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>859</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>600</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>416</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>731</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>753</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>860</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>861</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>862</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY34" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="AZ34" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="BA34" s="3" t="s">
+        <v>864</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3DFE05-3E5C-4281-8D58-E632ABBA1455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAF5715-6C7E-481D-ACBB-B40780B30E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="915">
   <si>
     <t>ID</t>
   </si>
@@ -2637,6 +2637,153 @@
   </si>
   <si>
     <t>Holdra (w)</t>
+  </si>
+  <si>
+    <t>Būdda</t>
+  </si>
+  <si>
+    <t>III_14_0022</t>
+  </si>
+  <si>
+    <t>p-X</t>
+  </si>
+  <si>
+    <t>Sulz</t>
+  </si>
+  <si>
+    <t>Ober / Elsaß</t>
+  </si>
+  <si>
+    <t>Paul Meyer</t>
+  </si>
+  <si>
+    <t>Ob - Elsaß</t>
+  </si>
+  <si>
+    <t>Omeisa, Omeis</t>
+  </si>
+  <si>
+    <t>Begrabnis, Licht (w)</t>
+  </si>
+  <si>
+    <t>Bromera, Brumbeera (d´, w)</t>
+  </si>
+  <si>
+    <t>Agerscht, Agerschta (w)</t>
+  </si>
+  <si>
+    <t>Flādermüs (w)</t>
+  </si>
+  <si>
+    <t>Muck, Mucka (w)</t>
+  </si>
+  <si>
+    <t>Āmt (s´, s)</t>
+  </si>
+  <si>
+    <t>Gugumera (d´, w)</t>
+  </si>
+  <si>
+    <t>Hahn, Hüan (m, f)</t>
+  </si>
+  <si>
+    <t>Hawam (d´, w)</t>
+  </si>
+  <si>
+    <t>Katz (ā, w)</t>
+  </si>
+  <si>
+    <t>Müllwarfa (m)</t>
+  </si>
+  <si>
+    <t>Galrüawa (m)</t>
+  </si>
+  <si>
+    <t>Müādersäila (w)</t>
+  </si>
+  <si>
+    <t>Riăma (m)</t>
+  </si>
+  <si>
+    <t>Pflümă</t>
+  </si>
+  <si>
+    <t>Krüsala (w)</t>
+  </si>
+  <si>
+    <t>Gufă, Guf (w)</t>
+  </si>
+  <si>
+    <t>Stricknōdel (w)</t>
+  </si>
+  <si>
+    <t>Schissala (s)</t>
+  </si>
+  <si>
+    <t>Hāfă (m)</t>
+  </si>
+  <si>
+    <t>aigla, pfropfa</t>
+  </si>
+  <si>
+    <t>III_14_0024</t>
+  </si>
+  <si>
+    <t>Oberelsaß</t>
+  </si>
+  <si>
+    <t>Rastatt i / B</t>
+  </si>
+  <si>
+    <t>[????] saden</t>
+  </si>
+  <si>
+    <t>Ā Licht</t>
+  </si>
+  <si>
+    <t>Brummabeer</t>
+  </si>
+  <si>
+    <t>Ä Ant</t>
+  </si>
+  <si>
+    <t>Flattamüs</t>
+  </si>
+  <si>
+    <t>Hagebudde</t>
+  </si>
+  <si>
+    <t>Gukummer</t>
+  </si>
+  <si>
+    <t>Gückel,Hahne, Hühen</t>
+  </si>
+  <si>
+    <t>Ardäpfel</t>
+  </si>
+  <si>
+    <t>Mülwürf</t>
+  </si>
+  <si>
+    <t>Sui</t>
+  </si>
+  <si>
+    <t>Rüma</t>
+  </si>
+  <si>
+    <t>Pflǖma</t>
+  </si>
+  <si>
+    <t>Schbotz</t>
+  </si>
+  <si>
+    <t>Schdricknōdl</t>
+  </si>
+  <si>
+    <t>Tossa</t>
+  </si>
+  <si>
+    <t>zwīege</t>
   </si>
 </sst>
 </file>
@@ -2726,17 +2873,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -3057,10 +3200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB34"/>
+  <dimension ref="A1:BB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AZ34" sqref="AZ34"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BB35" sqref="BB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3260,148 +3403,148 @@
       <c r="B2" s="6">
         <v>44739</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
         <v>373</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2">
         <v>9</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2">
         <v>24.4</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2">
         <v>47.3</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2">
         <v>999</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2">
         <v>999</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2">
         <v>999</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7">
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2">
         <v>999</v>
       </c>
       <c r="U2" s="2"/>
-      <c r="V2" s="7" t="s">
+      <c r="V2" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AA2">
         <v>999</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" t="s">
         <v>65</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" t="s">
         <v>66</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" t="s">
         <v>67</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" s="7">
+      <c r="AF2">
         <v>999</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" t="s">
         <v>69</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" t="s">
         <v>70</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" t="s">
         <v>73</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" t="s">
         <v>74</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" t="s">
         <v>75</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" t="s">
         <v>76</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AO2" t="s">
         <v>77</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AP2" t="s">
         <v>78</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" t="s">
         <v>79</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AR2" t="s">
         <v>80</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AS2" t="s">
         <v>81</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" t="s">
         <v>82</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" t="s">
         <v>83</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AV2" t="s">
         <v>84</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AW2" t="s">
         <v>85</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AX2" t="s">
         <v>86</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AY2" s="3" t="s">
         <v>87</v>
       </c>
       <c r="BA2" s="2"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <v>44740</v>
       </c>
       <c r="C3" t="s">
@@ -3452,91 +3595,91 @@
       <c r="U3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" t="s">
         <v>139</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" t="s">
         <v>134</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" t="s">
         <v>135</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" t="s">
         <v>136</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z3" t="s">
         <v>140</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AA3" t="s">
         <v>141</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AB3" t="s">
         <v>142</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" t="s">
         <v>143</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" t="s">
         <v>144</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" t="s">
         <v>145</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AF3" t="s">
         <v>146</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AG3" t="s">
         <v>147</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AH3" t="s">
         <v>148</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AI3" t="s">
         <v>149</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AJ3" t="s">
         <v>150</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AK3" t="s">
         <v>151</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AL3" t="s">
         <v>152</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AM3" t="s">
         <v>153</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AN3" t="s">
         <v>154</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AO3" t="s">
         <v>155</v>
       </c>
-      <c r="AP3" s="11" t="s">
+      <c r="AP3" t="s">
         <v>156</v>
       </c>
-      <c r="AQ3" s="11" t="s">
+      <c r="AQ3" t="s">
         <v>79</v>
       </c>
-      <c r="AR3" s="11" t="s">
+      <c r="AR3" t="s">
         <v>157</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AS3" t="s">
         <v>158</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AT3" t="s">
         <v>159</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AU3" t="s">
         <v>160</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AV3" t="s">
         <v>161</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AW3" t="s">
         <v>98</v>
       </c>
-      <c r="AX3" s="11" t="s">
+      <c r="AX3" t="s">
         <v>99</v>
       </c>
       <c r="AY3" s="3" t="s">
@@ -3544,7 +3687,7 @@
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <v>44742</v>
       </c>
       <c r="C4" t="s">
@@ -3684,7 +3827,7 @@
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <v>44760</v>
       </c>
       <c r="C5" t="s">
@@ -3738,85 +3881,85 @@
       <c r="T5" t="s">
         <v>169</v>
       </c>
-      <c r="V5" s="11" t="s">
+      <c r="V5" t="s">
         <v>173</v>
       </c>
-      <c r="W5" s="11" t="s">
+      <c r="W5" t="s">
         <v>174</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="X5" t="s">
         <v>62</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="Z5" t="s">
         <v>176</v>
       </c>
-      <c r="AA5" s="11" t="s">
+      <c r="AA5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" s="11" t="s">
+      <c r="AB5" t="s">
         <v>65</v>
       </c>
-      <c r="AC5" s="11" t="s">
+      <c r="AC5" t="s">
         <v>178</v>
       </c>
-      <c r="AD5" s="11" t="s">
+      <c r="AD5" t="s">
         <v>179</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" t="s">
         <v>180</v>
       </c>
-      <c r="AF5" s="11" t="s">
+      <c r="AF5" t="s">
         <v>181</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AG5" t="s">
         <v>182</v>
       </c>
-      <c r="AH5" s="11" t="s">
+      <c r="AH5" t="s">
         <v>183</v>
       </c>
-      <c r="AI5" s="11" t="s">
+      <c r="AI5" t="s">
         <v>71</v>
       </c>
-      <c r="AJ5" s="11" t="s">
+      <c r="AJ5" t="s">
         <v>184</v>
       </c>
-      <c r="AK5" s="11" t="s">
+      <c r="AK5" t="s">
         <v>73</v>
       </c>
-      <c r="AL5" s="11" t="s">
+      <c r="AL5" t="s">
         <v>185</v>
       </c>
-      <c r="AM5" s="11" t="s">
+      <c r="AM5" t="s">
         <v>186</v>
       </c>
-      <c r="AN5" s="11" t="s">
+      <c r="AN5" t="s">
         <v>187</v>
       </c>
-      <c r="AO5" s="11" t="s">
+      <c r="AO5" t="s">
         <v>77</v>
       </c>
-      <c r="AP5" s="11" t="s">
+      <c r="AP5" t="s">
         <v>188</v>
       </c>
-      <c r="AQ5" s="11" t="s">
+      <c r="AQ5" t="s">
         <v>189</v>
       </c>
-      <c r="AR5" s="11" t="s">
+      <c r="AR5" t="s">
         <v>190</v>
       </c>
-      <c r="AS5" s="11" t="s">
+      <c r="AS5" t="s">
         <v>191</v>
       </c>
-      <c r="AT5" s="11" t="s">
+      <c r="AT5" t="s">
         <v>192</v>
       </c>
-      <c r="AU5" s="11" t="s">
+      <c r="AU5" t="s">
         <v>193</v>
       </c>
-      <c r="AV5" s="11" t="s">
+      <c r="AV5" t="s">
         <v>195</v>
       </c>
       <c r="AW5" t="s">
@@ -3833,7 +3976,7 @@
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>44760</v>
       </c>
       <c r="C6" t="s">
@@ -3881,91 +4024,91 @@
       <c r="T6">
         <v>999</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="V6" t="s">
         <v>202</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="W6" t="s">
         <v>203</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="X6" t="s">
         <v>204</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Y6" t="s">
         <v>175</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="Z6" t="s">
         <v>205</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AA6" t="s">
         <v>206</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AB6" t="s">
         <v>207</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AC6" t="s">
         <v>208</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AD6" t="s">
         <v>209</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" t="s">
         <v>210</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AF6" t="s">
         <v>211</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AG6" t="s">
         <v>182</v>
       </c>
-      <c r="AH6" s="11" t="s">
+      <c r="AH6" t="s">
         <v>212</v>
       </c>
-      <c r="AI6" s="11" t="s">
+      <c r="AI6" t="s">
         <v>213</v>
       </c>
-      <c r="AJ6" s="11" t="s">
+      <c r="AJ6" t="s">
         <v>184</v>
       </c>
-      <c r="AK6" s="11" t="s">
+      <c r="AK6" t="s">
         <v>214</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="AL6" t="s">
         <v>215</v>
       </c>
-      <c r="AM6" s="11" t="s">
+      <c r="AM6" t="s">
         <v>216</v>
       </c>
-      <c r="AN6" s="11" t="s">
+      <c r="AN6" t="s">
         <v>217</v>
       </c>
-      <c r="AO6" s="11" t="s">
+      <c r="AO6" t="s">
         <v>218</v>
       </c>
-      <c r="AP6" s="11" t="s">
+      <c r="AP6" t="s">
         <v>188</v>
       </c>
-      <c r="AQ6" s="11" t="s">
+      <c r="AQ6" t="s">
         <v>219</v>
       </c>
-      <c r="AR6" s="11" t="s">
+      <c r="AR6" t="s">
         <v>80</v>
       </c>
-      <c r="AS6" s="11" t="s">
+      <c r="AS6" t="s">
         <v>220</v>
       </c>
-      <c r="AT6" s="11" t="s">
+      <c r="AT6" t="s">
         <v>221</v>
       </c>
-      <c r="AU6" s="11" t="s">
+      <c r="AU6" t="s">
         <v>222</v>
       </c>
-      <c r="AV6" s="11" t="s">
+      <c r="AV6" t="s">
         <v>223</v>
       </c>
-      <c r="AW6" s="11" t="s">
+      <c r="AW6" t="s">
         <v>224</v>
       </c>
-      <c r="AX6" s="11" t="s">
+      <c r="AX6" t="s">
         <v>225</v>
       </c>
       <c r="AY6" s="3" t="s">
@@ -3973,7 +4116,7 @@
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>44760</v>
       </c>
       <c r="C7" t="s">
@@ -4024,88 +4167,88 @@
       <c r="U7" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="V7" t="s">
         <v>233</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="W7" t="s">
         <v>234</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" t="s">
         <v>235</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Y7" t="s">
         <v>236</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="Z7" t="s">
         <v>237</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AA7" t="s">
         <v>108</v>
       </c>
-      <c r="AB7" s="11" t="s">
+      <c r="AB7" t="s">
         <v>109</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" t="s">
         <v>238</v>
       </c>
-      <c r="AD7" s="11" t="s">
+      <c r="AD7" t="s">
         <v>239</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE7" t="s">
         <v>240</v>
       </c>
-      <c r="AF7" s="11" t="s">
+      <c r="AF7" t="s">
         <v>241</v>
       </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AG7" t="s">
         <v>242</v>
       </c>
-      <c r="AH7" s="11" t="s">
+      <c r="AH7" t="s">
         <v>243</v>
       </c>
-      <c r="AI7" s="11" t="s">
+      <c r="AI7" t="s">
         <v>244</v>
       </c>
-      <c r="AJ7" s="11" t="s">
+      <c r="AJ7" t="s">
         <v>115</v>
       </c>
-      <c r="AK7" s="11" t="s">
+      <c r="AK7" t="s">
         <v>245</v>
       </c>
-      <c r="AL7" s="11" t="s">
+      <c r="AL7" t="s">
         <v>246</v>
       </c>
-      <c r="AM7" s="11" t="s">
+      <c r="AM7" t="s">
         <v>247</v>
       </c>
-      <c r="AN7" s="11" t="s">
+      <c r="AN7" t="s">
         <v>248</v>
       </c>
-      <c r="AO7" s="11" t="s">
+      <c r="AO7" t="s">
         <v>249</v>
       </c>
-      <c r="AP7" s="11" t="s">
+      <c r="AP7" t="s">
         <v>250</v>
       </c>
-      <c r="AQ7" s="11" t="s">
+      <c r="AQ7" t="s">
         <v>251</v>
       </c>
-      <c r="AR7" s="11" t="s">
+      <c r="AR7" t="s">
         <v>123</v>
       </c>
-      <c r="AS7" s="11" t="s">
+      <c r="AS7" t="s">
         <v>252</v>
       </c>
-      <c r="AT7" s="11" t="s">
+      <c r="AT7" t="s">
         <v>253</v>
       </c>
-      <c r="AU7" s="11" t="s">
+      <c r="AU7" t="s">
         <v>254</v>
       </c>
-      <c r="AV7" s="11" t="s">
+      <c r="AV7" t="s">
         <v>255</v>
       </c>
-      <c r="AW7" s="11" t="s">
+      <c r="AW7" t="s">
         <v>256</v>
       </c>
       <c r="AX7">
@@ -4116,7 +4259,7 @@
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <v>44762</v>
       </c>
       <c r="C8" t="s">
@@ -4167,91 +4310,91 @@
       <c r="U8" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V8" t="s">
         <v>103</v>
       </c>
-      <c r="W8" s="11" t="s">
+      <c r="W8" t="s">
         <v>265</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="X8" t="s">
         <v>369</v>
       </c>
-      <c r="Y8" s="11" t="s">
+      <c r="Y8" t="s">
         <v>236</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="Z8" t="s">
         <v>266</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AA8" t="s">
         <v>267</v>
       </c>
-      <c r="AB8" s="11" t="s">
+      <c r="AB8" t="s">
         <v>268</v>
       </c>
-      <c r="AC8" s="11" t="s">
+      <c r="AC8" t="s">
         <v>110</v>
       </c>
-      <c r="AD8" s="11" t="s">
+      <c r="AD8" t="s">
         <v>269</v>
       </c>
-      <c r="AE8" s="11" t="s">
+      <c r="AE8" t="s">
         <v>270</v>
       </c>
-      <c r="AF8" s="11" t="s">
+      <c r="AF8" t="s">
         <v>271</v>
       </c>
-      <c r="AG8" s="11" t="s">
+      <c r="AG8" t="s">
         <v>272</v>
       </c>
-      <c r="AH8" s="11" t="s">
+      <c r="AH8" t="s">
         <v>243</v>
       </c>
-      <c r="AI8" s="11" t="s">
+      <c r="AI8" t="s">
         <v>273</v>
       </c>
-      <c r="AJ8" s="11" t="s">
+      <c r="AJ8" t="s">
         <v>115</v>
       </c>
-      <c r="AK8" s="11" t="s">
+      <c r="AK8" t="s">
         <v>370</v>
       </c>
-      <c r="AL8" s="11" t="s">
+      <c r="AL8" t="s">
         <v>371</v>
       </c>
-      <c r="AM8" s="11" t="s">
+      <c r="AM8" t="s">
         <v>247</v>
       </c>
-      <c r="AN8" s="11" t="s">
+      <c r="AN8" t="s">
         <v>274</v>
       </c>
-      <c r="AO8" s="11" t="s">
+      <c r="AO8" t="s">
         <v>120</v>
       </c>
-      <c r="AP8" s="11" t="s">
+      <c r="AP8" t="s">
         <v>275</v>
       </c>
-      <c r="AQ8" s="11" t="s">
+      <c r="AQ8" t="s">
         <v>276</v>
       </c>
-      <c r="AR8" s="11" t="s">
+      <c r="AR8" t="s">
         <v>277</v>
       </c>
-      <c r="AS8" s="11" t="s">
+      <c r="AS8" t="s">
         <v>278</v>
       </c>
-      <c r="AT8" s="11" t="s">
+      <c r="AT8" t="s">
         <v>324</v>
       </c>
-      <c r="AU8" s="11" t="s">
+      <c r="AU8" t="s">
         <v>279</v>
       </c>
-      <c r="AV8" s="11" t="s">
+      <c r="AV8" t="s">
         <v>280</v>
       </c>
-      <c r="AW8" s="11" t="s">
+      <c r="AW8" t="s">
         <v>256</v>
       </c>
-      <c r="AX8" s="11" t="s">
+      <c r="AX8" t="s">
         <v>99</v>
       </c>
       <c r="AY8" s="3" t="s">
@@ -4259,7 +4402,7 @@
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B9" s="10">
+      <c r="B9" s="6">
         <v>44762</v>
       </c>
       <c r="C9" t="s">
@@ -4307,91 +4450,91 @@
       <c r="T9" t="s">
         <v>286</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" t="s">
         <v>60</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="W9" t="s">
         <v>287</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" t="s">
         <v>288</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="Y9" t="s">
         <v>175</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z9" t="s">
         <v>289</v>
       </c>
-      <c r="AA9" s="11" t="s">
+      <c r="AA9" t="s">
         <v>177</v>
       </c>
-      <c r="AB9" s="11" t="s">
+      <c r="AB9" t="s">
         <v>65</v>
       </c>
-      <c r="AC9" s="11" t="s">
+      <c r="AC9" t="s">
         <v>290</v>
       </c>
-      <c r="AD9" s="11" t="s">
+      <c r="AD9" t="s">
         <v>291</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE9" t="s">
         <v>292</v>
       </c>
-      <c r="AF9" s="11" t="s">
+      <c r="AF9" t="s">
         <v>293</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" t="s">
         <v>294</v>
       </c>
-      <c r="AH9" s="11" t="s">
+      <c r="AH9" t="s">
         <v>114</v>
       </c>
-      <c r="AI9" s="11" t="s">
+      <c r="AI9" t="s">
         <v>295</v>
       </c>
-      <c r="AJ9" s="11" t="s">
+      <c r="AJ9" t="s">
         <v>184</v>
       </c>
-      <c r="AK9" s="11" t="s">
+      <c r="AK9" t="s">
         <v>296</v>
       </c>
-      <c r="AL9" s="11" t="s">
+      <c r="AL9" t="s">
         <v>297</v>
       </c>
-      <c r="AM9" s="11" t="s">
+      <c r="AM9" t="s">
         <v>298</v>
       </c>
-      <c r="AN9" s="11" t="s">
+      <c r="AN9" t="s">
         <v>299</v>
       </c>
-      <c r="AO9" s="11" t="s">
+      <c r="AO9" t="s">
         <v>218</v>
       </c>
-      <c r="AP9" s="11" t="s">
+      <c r="AP9" t="s">
         <v>300</v>
       </c>
-      <c r="AQ9" s="11" t="s">
+      <c r="AQ9" t="s">
         <v>301</v>
       </c>
-      <c r="AR9" s="11" t="s">
+      <c r="AR9" t="s">
         <v>80</v>
       </c>
-      <c r="AS9" s="11" t="s">
+      <c r="AS9" t="s">
         <v>302</v>
       </c>
-      <c r="AT9" s="11" t="s">
+      <c r="AT9" t="s">
         <v>303</v>
       </c>
-      <c r="AU9" s="11" t="s">
+      <c r="AU9" t="s">
         <v>222</v>
       </c>
-      <c r="AV9" s="11" t="s">
+      <c r="AV9" t="s">
         <v>304</v>
       </c>
-      <c r="AW9" s="11" t="s">
+      <c r="AW9" t="s">
         <v>224</v>
       </c>
-      <c r="AX9" s="11" t="s">
+      <c r="AX9" t="s">
         <v>305</v>
       </c>
       <c r="AY9" s="3" t="s">
@@ -4399,7 +4542,7 @@
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B10" s="10">
+      <c r="B10" s="6">
         <v>44762</v>
       </c>
       <c r="C10" t="s">
@@ -4447,91 +4590,91 @@
       <c r="T10" t="s">
         <v>286</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V10" t="s">
         <v>311</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="W10" t="s">
         <v>312</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="X10" t="s">
         <v>313</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Y10" t="s">
         <v>236</v>
       </c>
-      <c r="Z10" s="11" t="s">
+      <c r="Z10" t="s">
         <v>314</v>
       </c>
-      <c r="AA10" s="11" t="s">
+      <c r="AA10" t="s">
         <v>108</v>
       </c>
-      <c r="AB10" s="11" t="s">
+      <c r="AB10" t="s">
         <v>315</v>
       </c>
-      <c r="AC10" s="11" t="s">
+      <c r="AC10" t="s">
         <v>238</v>
       </c>
-      <c r="AD10" s="11" t="s">
+      <c r="AD10" t="s">
         <v>316</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AE10" t="s">
         <v>317</v>
       </c>
-      <c r="AF10" s="11" t="s">
+      <c r="AF10" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AG10" t="s">
         <v>319</v>
       </c>
-      <c r="AH10" s="11" t="s">
+      <c r="AH10" t="s">
         <v>243</v>
       </c>
-      <c r="AI10" s="11" t="s">
+      <c r="AI10" t="s">
         <v>244</v>
       </c>
-      <c r="AJ10" s="11" t="s">
+      <c r="AJ10" t="s">
         <v>115</v>
       </c>
-      <c r="AK10" s="11" t="s">
+      <c r="AK10" t="s">
         <v>116</v>
       </c>
-      <c r="AL10" s="11" t="s">
+      <c r="AL10" t="s">
         <v>320</v>
       </c>
-      <c r="AM10" s="11" t="s">
+      <c r="AM10" t="s">
         <v>247</v>
       </c>
-      <c r="AN10" s="11" t="s">
+      <c r="AN10" t="s">
         <v>321</v>
       </c>
-      <c r="AO10" s="11" t="s">
+      <c r="AO10" t="s">
         <v>249</v>
       </c>
-      <c r="AP10" s="11" t="s">
+      <c r="AP10" t="s">
         <v>188</v>
       </c>
-      <c r="AQ10" s="11" t="s">
+      <c r="AQ10" t="s">
         <v>322</v>
       </c>
-      <c r="AR10" s="11" t="s">
+      <c r="AR10" t="s">
         <v>123</v>
       </c>
-      <c r="AS10" s="11" t="s">
+      <c r="AS10" t="s">
         <v>323</v>
       </c>
-      <c r="AT10" s="11" t="s">
+      <c r="AT10" t="s">
         <v>324</v>
       </c>
-      <c r="AU10" s="11" t="s">
+      <c r="AU10" t="s">
         <v>325</v>
       </c>
-      <c r="AV10" s="11" t="s">
+      <c r="AV10" t="s">
         <v>326</v>
       </c>
-      <c r="AW10" s="11" t="s">
+      <c r="AW10" t="s">
         <v>327</v>
       </c>
-      <c r="AX10" s="11" t="s">
+      <c r="AX10" t="s">
         <v>194</v>
       </c>
       <c r="AY10" s="3" t="s">
@@ -4539,7 +4682,7 @@
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>44763</v>
       </c>
       <c r="C11" t="s">
@@ -4593,91 +4736,91 @@
       <c r="U11" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="V11" t="s">
         <v>173</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="W11" t="s">
         <v>203</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="X11" t="s">
         <v>334</v>
       </c>
-      <c r="Y11" s="11" t="s">
+      <c r="Y11" t="s">
         <v>175</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="Z11" t="s">
         <v>64</v>
       </c>
-      <c r="AA11" s="11" t="s">
+      <c r="AA11" t="s">
         <v>335</v>
       </c>
-      <c r="AB11" s="11" t="s">
+      <c r="AB11" t="s">
         <v>65</v>
       </c>
-      <c r="AC11" s="11" t="s">
+      <c r="AC11" t="s">
         <v>336</v>
       </c>
-      <c r="AD11" s="11" t="s">
+      <c r="AD11" t="s">
         <v>179</v>
       </c>
-      <c r="AE11" s="11" t="s">
+      <c r="AE11" t="s">
         <v>337</v>
       </c>
-      <c r="AF11" s="11" t="s">
+      <c r="AF11" t="s">
         <v>338</v>
       </c>
-      <c r="AG11" s="11" t="s">
+      <c r="AG11" t="s">
         <v>339</v>
       </c>
-      <c r="AH11" s="11" t="s">
+      <c r="AH11" t="s">
         <v>340</v>
       </c>
-      <c r="AI11" s="11" t="s">
+      <c r="AI11" t="s">
         <v>341</v>
       </c>
-      <c r="AJ11" s="11" t="s">
+      <c r="AJ11" t="s">
         <v>72</v>
       </c>
-      <c r="AK11" s="11" t="s">
+      <c r="AK11" t="s">
         <v>342</v>
       </c>
-      <c r="AL11" s="11" t="s">
+      <c r="AL11" t="s">
         <v>343</v>
       </c>
-      <c r="AM11" s="11" t="s">
+      <c r="AM11" t="s">
         <v>186</v>
       </c>
-      <c r="AN11" s="11" t="s">
+      <c r="AN11" t="s">
         <v>344</v>
       </c>
-      <c r="AO11" s="11" t="s">
+      <c r="AO11" t="s">
         <v>77</v>
       </c>
-      <c r="AP11" s="11" t="s">
+      <c r="AP11" t="s">
         <v>188</v>
       </c>
-      <c r="AQ11" s="11" t="s">
+      <c r="AQ11" t="s">
         <v>189</v>
       </c>
-      <c r="AR11" s="11" t="s">
+      <c r="AR11" t="s">
         <v>80</v>
       </c>
-      <c r="AS11" s="11" t="s">
+      <c r="AS11" t="s">
         <v>345</v>
       </c>
-      <c r="AT11" s="11" t="s">
+      <c r="AT11" t="s">
         <v>82</v>
       </c>
-      <c r="AU11" s="11" t="s">
+      <c r="AU11" t="s">
         <v>346</v>
       </c>
-      <c r="AV11" s="11" t="s">
+      <c r="AV11" t="s">
         <v>347</v>
       </c>
-      <c r="AW11" s="11" t="s">
+      <c r="AW11" t="s">
         <v>85</v>
       </c>
-      <c r="AX11" s="11" t="s">
+      <c r="AX11" t="s">
         <v>194</v>
       </c>
       <c r="AY11" s="3" t="s">
@@ -4685,7 +4828,7 @@
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B12" s="10">
+      <c r="B12" s="6">
         <v>44763</v>
       </c>
       <c r="C12" t="s">
@@ -4733,91 +4876,91 @@
       <c r="T12" t="s">
         <v>169</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="V12" t="s">
         <v>202</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="W12" t="s">
         <v>174</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="X12" t="s">
         <v>353</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Y12" t="s">
         <v>175</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="Z12" t="s">
         <v>354</v>
       </c>
-      <c r="AA12" s="11" t="s">
+      <c r="AA12" t="s">
         <v>355</v>
       </c>
-      <c r="AB12" s="11" t="s">
+      <c r="AB12" t="s">
         <v>65</v>
       </c>
-      <c r="AC12" s="11" t="s">
+      <c r="AC12" t="s">
         <v>208</v>
       </c>
-      <c r="AD12" s="11" t="s">
+      <c r="AD12" t="s">
         <v>179</v>
       </c>
-      <c r="AE12" s="11" t="s">
+      <c r="AE12" t="s">
         <v>356</v>
       </c>
-      <c r="AF12" s="11" t="s">
+      <c r="AF12" t="s">
         <v>293</v>
       </c>
-      <c r="AG12" s="11" t="s">
+      <c r="AG12" t="s">
         <v>357</v>
       </c>
-      <c r="AH12" s="11" t="s">
+      <c r="AH12" t="s">
         <v>114</v>
       </c>
-      <c r="AI12" s="11" t="s">
+      <c r="AI12" t="s">
         <v>341</v>
       </c>
-      <c r="AJ12" s="11" t="s">
+      <c r="AJ12" t="s">
         <v>184</v>
       </c>
-      <c r="AK12" s="11" t="s">
+      <c r="AK12" t="s">
         <v>342</v>
       </c>
-      <c r="AL12" s="11" t="s">
+      <c r="AL12" t="s">
         <v>358</v>
       </c>
-      <c r="AM12" s="11" t="s">
+      <c r="AM12" t="s">
         <v>359</v>
       </c>
-      <c r="AN12" s="11" t="s">
+      <c r="AN12" t="s">
         <v>360</v>
       </c>
-      <c r="AO12" s="11" t="s">
+      <c r="AO12" t="s">
         <v>361</v>
       </c>
-      <c r="AP12" s="11" t="s">
+      <c r="AP12" t="s">
         <v>362</v>
       </c>
-      <c r="AQ12" s="11" t="s">
+      <c r="AQ12" t="s">
         <v>363</v>
       </c>
-      <c r="AR12" s="11" t="s">
+      <c r="AR12" t="s">
         <v>80</v>
       </c>
-      <c r="AS12" s="11" t="s">
+      <c r="AS12" t="s">
         <v>364</v>
       </c>
-      <c r="AT12" s="11" t="s">
+      <c r="AT12" t="s">
         <v>303</v>
       </c>
-      <c r="AU12" s="11" t="s">
+      <c r="AU12" t="s">
         <v>365</v>
       </c>
-      <c r="AV12" s="11" t="s">
+      <c r="AV12" t="s">
         <v>223</v>
       </c>
-      <c r="AW12" s="11" t="s">
+      <c r="AW12" t="s">
         <v>366</v>
       </c>
-      <c r="AX12" s="11" t="s">
+      <c r="AX12" t="s">
         <v>367</v>
       </c>
       <c r="AY12" s="3" t="s">
@@ -4825,7 +4968,7 @@
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B13" s="10">
+      <c r="B13" s="6">
         <v>44765</v>
       </c>
       <c r="C13" t="s">
@@ -4876,91 +5019,91 @@
       <c r="T13" t="s">
         <v>286</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="V13" t="s">
         <v>380</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="W13" t="s">
         <v>203</v>
       </c>
-      <c r="X13" s="11" t="s">
+      <c r="X13" t="s">
         <v>381</v>
       </c>
-      <c r="Y13" s="11" t="s">
+      <c r="Y13" t="s">
         <v>175</v>
       </c>
-      <c r="Z13" s="11" t="s">
+      <c r="Z13" t="s">
         <v>382</v>
       </c>
-      <c r="AA13" s="11" t="s">
+      <c r="AA13" t="s">
         <v>383</v>
       </c>
-      <c r="AB13" s="11" t="s">
+      <c r="AB13" t="s">
         <v>384</v>
       </c>
-      <c r="AC13" s="11" t="s">
+      <c r="AC13" t="s">
         <v>385</v>
       </c>
-      <c r="AD13" s="11" t="s">
+      <c r="AD13" t="s">
         <v>111</v>
       </c>
-      <c r="AE13" s="11" t="s">
+      <c r="AE13" t="s">
         <v>386</v>
       </c>
-      <c r="AF13" s="11" t="s">
+      <c r="AF13" t="s">
         <v>338</v>
       </c>
-      <c r="AG13" s="11" t="s">
+      <c r="AG13" t="s">
         <v>387</v>
       </c>
-      <c r="AH13" s="11" t="s">
+      <c r="AH13" t="s">
         <v>183</v>
       </c>
-      <c r="AI13" s="11" t="s">
+      <c r="AI13" t="s">
         <v>388</v>
       </c>
-      <c r="AJ13" s="11" t="s">
+      <c r="AJ13" t="s">
         <v>184</v>
       </c>
-      <c r="AK13" s="11" t="s">
+      <c r="AK13" t="s">
         <v>389</v>
       </c>
-      <c r="AL13" s="11" t="s">
+      <c r="AL13" t="s">
         <v>390</v>
       </c>
-      <c r="AM13" s="11" t="s">
+      <c r="AM13" t="s">
         <v>216</v>
       </c>
-      <c r="AN13" s="11" t="s">
+      <c r="AN13" t="s">
         <v>391</v>
       </c>
-      <c r="AO13" s="11" t="s">
+      <c r="AO13" t="s">
         <v>77</v>
       </c>
-      <c r="AP13" s="11" t="s">
+      <c r="AP13" t="s">
         <v>188</v>
       </c>
-      <c r="AQ13" s="11" t="s">
+      <c r="AQ13" t="s">
         <v>79</v>
       </c>
-      <c r="AR13" s="11" t="s">
+      <c r="AR13" t="s">
         <v>392</v>
       </c>
-      <c r="AS13" s="11" t="s">
+      <c r="AS13" t="s">
         <v>393</v>
       </c>
-      <c r="AT13" s="11" t="s">
+      <c r="AT13" t="s">
         <v>82</v>
       </c>
-      <c r="AU13" s="11" t="s">
+      <c r="AU13" t="s">
         <v>394</v>
       </c>
-      <c r="AV13" s="11" t="s">
+      <c r="AV13" t="s">
         <v>395</v>
       </c>
-      <c r="AW13" s="11" t="s">
+      <c r="AW13" t="s">
         <v>396</v>
       </c>
-      <c r="AX13" s="11" t="s">
+      <c r="AX13" t="s">
         <v>397</v>
       </c>
       <c r="AY13" s="3" t="s">
@@ -4968,7 +5111,7 @@
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <v>44765</v>
       </c>
       <c r="C14" t="s">
@@ -5019,91 +5162,91 @@
       <c r="T14" t="s">
         <v>169</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="V14" t="s">
         <v>311</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="W14" t="s">
         <v>405</v>
       </c>
-      <c r="X14" s="11" t="s">
+      <c r="X14" t="s">
         <v>406</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Y14" t="s">
         <v>236</v>
       </c>
-      <c r="Z14" s="11" t="s">
+      <c r="Z14" t="s">
         <v>237</v>
       </c>
-      <c r="AA14" s="11" t="s">
+      <c r="AA14" t="s">
         <v>407</v>
       </c>
-      <c r="AB14" s="11" t="s">
+      <c r="AB14" t="s">
         <v>109</v>
       </c>
-      <c r="AC14" s="11" t="s">
+      <c r="AC14" t="s">
         <v>408</v>
       </c>
-      <c r="AD14" s="11" t="s">
+      <c r="AD14" t="s">
         <v>239</v>
       </c>
-      <c r="AE14" s="11" t="s">
+      <c r="AE14" t="s">
         <v>409</v>
       </c>
-      <c r="AF14" s="11" t="s">
+      <c r="AF14" t="s">
         <v>410</v>
       </c>
-      <c r="AG14" s="11" t="s">
+      <c r="AG14" t="s">
         <v>411</v>
       </c>
-      <c r="AH14" s="11" t="s">
+      <c r="AH14" t="s">
         <v>243</v>
       </c>
-      <c r="AI14" s="11" t="s">
+      <c r="AI14" t="s">
         <v>244</v>
       </c>
-      <c r="AJ14" s="11" t="s">
+      <c r="AJ14" t="s">
         <v>412</v>
       </c>
-      <c r="AK14" s="11" t="s">
+      <c r="AK14" t="s">
         <v>116</v>
       </c>
-      <c r="AL14" s="11" t="s">
+      <c r="AL14" t="s">
         <v>413</v>
       </c>
-      <c r="AM14" s="11" t="s">
+      <c r="AM14" t="s">
         <v>414</v>
       </c>
-      <c r="AN14" s="11" t="s">
+      <c r="AN14" t="s">
         <v>415</v>
       </c>
-      <c r="AO14" s="11" t="s">
+      <c r="AO14" t="s">
         <v>249</v>
       </c>
-      <c r="AP14" s="11" t="s">
+      <c r="AP14" t="s">
         <v>416</v>
       </c>
-      <c r="AQ14" s="11" t="s">
+      <c r="AQ14" t="s">
         <v>417</v>
       </c>
-      <c r="AR14" s="11" t="s">
+      <c r="AR14" t="s">
         <v>123</v>
       </c>
-      <c r="AS14" s="11" t="s">
+      <c r="AS14" t="s">
         <v>418</v>
       </c>
-      <c r="AT14" s="11" t="s">
+      <c r="AT14" t="s">
         <v>324</v>
       </c>
-      <c r="AU14" s="11" t="s">
+      <c r="AU14" t="s">
         <v>419</v>
       </c>
-      <c r="AV14" s="11" t="s">
+      <c r="AV14" t="s">
         <v>420</v>
       </c>
-      <c r="AW14" s="11" t="s">
+      <c r="AW14" t="s">
         <v>421</v>
       </c>
-      <c r="AX14" s="11" t="s">
+      <c r="AX14" t="s">
         <v>422</v>
       </c>
       <c r="AY14" s="3" t="s">
@@ -5111,7 +5254,7 @@
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="B15" s="10">
+      <c r="B15" s="6">
         <v>44779</v>
       </c>
       <c r="C15" t="s">
@@ -5162,97 +5305,97 @@
       <c r="U15" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="V15" t="s">
         <v>429</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="W15" t="s">
         <v>430</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="X15" t="s">
         <v>431</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Y15" t="s">
         <v>106</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="Z15" t="s">
         <v>432</v>
       </c>
-      <c r="AA15" s="11" t="s">
+      <c r="AA15" t="s">
         <v>433</v>
       </c>
-      <c r="AB15" s="11" t="s">
+      <c r="AB15" t="s">
         <v>434</v>
       </c>
-      <c r="AC15" s="11" t="s">
+      <c r="AC15" t="s">
         <v>435</v>
       </c>
-      <c r="AD15" s="11" t="s">
+      <c r="AD15" t="s">
         <v>436</v>
       </c>
-      <c r="AE15" s="11" t="s">
+      <c r="AE15" t="s">
         <v>437</v>
       </c>
-      <c r="AF15" s="11" t="s">
+      <c r="AF15" t="s">
         <v>438</v>
       </c>
-      <c r="AG15" s="11" t="s">
+      <c r="AG15" t="s">
         <v>439</v>
       </c>
-      <c r="AH15" s="11" t="s">
+      <c r="AH15" t="s">
         <v>440</v>
       </c>
-      <c r="AI15" s="11" t="s">
+      <c r="AI15" t="s">
         <v>244</v>
       </c>
-      <c r="AJ15" s="11" t="s">
+      <c r="AJ15" t="s">
         <v>115</v>
       </c>
-      <c r="AK15" s="11" t="s">
+      <c r="AK15" t="s">
         <v>441</v>
       </c>
-      <c r="AL15" s="11" t="s">
+      <c r="AL15" t="s">
         <v>442</v>
       </c>
-      <c r="AM15" s="11" t="s">
+      <c r="AM15" t="s">
         <v>247</v>
       </c>
-      <c r="AN15" s="11" t="s">
+      <c r="AN15" t="s">
         <v>443</v>
       </c>
-      <c r="AO15" s="11" t="s">
+      <c r="AO15" t="s">
         <v>444</v>
       </c>
-      <c r="AP15" s="11" t="s">
+      <c r="AP15" t="s">
         <v>445</v>
       </c>
-      <c r="AQ15" s="11" t="s">
+      <c r="AQ15" t="s">
         <v>446</v>
       </c>
-      <c r="AR15" s="11" t="s">
+      <c r="AR15" t="s">
         <v>447</v>
       </c>
-      <c r="AS15" s="11" t="s">
+      <c r="AS15" t="s">
         <v>191</v>
       </c>
-      <c r="AT15" s="11" t="s">
+      <c r="AT15" t="s">
         <v>448</v>
       </c>
-      <c r="AU15" s="11" t="s">
+      <c r="AU15" t="s">
         <v>449</v>
       </c>
-      <c r="AV15" s="11" t="s">
+      <c r="AV15" t="s">
         <v>450</v>
       </c>
-      <c r="AW15" s="11" t="s">
+      <c r="AW15" t="s">
         <v>128</v>
       </c>
-      <c r="AX15" s="11" t="s">
+      <c r="AX15" t="s">
         <v>129</v>
       </c>
       <c r="AY15" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="AZ15" s="11" t="s">
+      <c r="AZ15" t="s">
         <v>452</v>
       </c>
       <c r="BA15" s="3" t="s">
@@ -5260,7 +5403,7 @@
       </c>
     </row>
     <row r="16" spans="1:54" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
+      <c r="B16" s="6">
         <v>44779</v>
       </c>
       <c r="C16" t="s">
@@ -5296,6 +5439,9 @@
       <c r="N16" t="s">
         <v>426</v>
       </c>
+      <c r="O16">
+        <v>999</v>
+      </c>
       <c r="P16" t="s">
         <v>427</v>
       </c>
@@ -5308,16 +5454,16 @@
       <c r="T16" t="s">
         <v>169</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="V16" t="s">
         <v>458</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="W16" t="s">
         <v>477</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="X16" t="s">
         <v>204</v>
       </c>
-      <c r="Y16" s="11" t="s">
+      <c r="Y16" t="s">
         <v>459</v>
       </c>
       <c r="Z16">
@@ -5326,79 +5472,79 @@
       <c r="AA16">
         <v>999</v>
       </c>
-      <c r="AB16" s="11" t="s">
+      <c r="AB16" t="s">
         <v>460</v>
       </c>
-      <c r="AC16" s="11" t="s">
+      <c r="AC16" t="s">
         <v>461</v>
       </c>
-      <c r="AD16" s="11" t="s">
+      <c r="AD16" t="s">
         <v>179</v>
       </c>
-      <c r="AE16" s="11" t="s">
+      <c r="AE16" t="s">
         <v>462</v>
       </c>
-      <c r="AF16" s="11" t="s">
+      <c r="AF16" t="s">
         <v>463</v>
       </c>
-      <c r="AG16" s="11" t="s">
+      <c r="AG16" t="s">
         <v>464</v>
       </c>
-      <c r="AH16" s="11" t="s">
+      <c r="AH16" t="s">
         <v>465</v>
       </c>
-      <c r="AI16" s="11" t="s">
+      <c r="AI16" t="s">
         <v>341</v>
       </c>
-      <c r="AJ16" s="11" t="s">
+      <c r="AJ16" t="s">
         <v>184</v>
       </c>
-      <c r="AK16" s="11" t="s">
+      <c r="AK16" t="s">
         <v>466</v>
       </c>
-      <c r="AL16" s="11" t="s">
+      <c r="AL16" t="s">
         <v>467</v>
       </c>
-      <c r="AM16" s="11" t="s">
+      <c r="AM16" t="s">
         <v>468</v>
       </c>
-      <c r="AN16" s="11" t="s">
+      <c r="AN16" t="s">
         <v>469</v>
       </c>
-      <c r="AO16" s="11" t="s">
+      <c r="AO16" t="s">
         <v>470</v>
       </c>
-      <c r="AP16" s="11" t="s">
+      <c r="AP16" t="s">
         <v>471</v>
       </c>
-      <c r="AQ16" s="11" t="s">
+      <c r="AQ16" t="s">
         <v>363</v>
       </c>
-      <c r="AR16" s="11" t="s">
+      <c r="AR16" t="s">
         <v>80</v>
       </c>
-      <c r="AS16" s="11" t="s">
+      <c r="AS16" t="s">
         <v>302</v>
       </c>
-      <c r="AT16" s="11" t="s">
+      <c r="AT16" t="s">
         <v>303</v>
       </c>
-      <c r="AU16" s="11" t="s">
+      <c r="AU16" t="s">
         <v>472</v>
       </c>
-      <c r="AV16" s="11" t="s">
+      <c r="AV16" t="s">
         <v>473</v>
       </c>
-      <c r="AW16" s="11" t="s">
+      <c r="AW16" t="s">
         <v>366</v>
       </c>
-      <c r="AX16" s="11" t="s">
+      <c r="AX16" t="s">
         <v>129</v>
       </c>
       <c r="AY16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AZ16" s="11" t="s">
+      <c r="AZ16" t="s">
         <v>475</v>
       </c>
       <c r="BA16" s="3" t="s">
@@ -5406,7 +5552,7 @@
       </c>
     </row>
     <row r="17" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B17" s="10">
+      <c r="B17" s="6">
         <v>44779</v>
       </c>
       <c r="C17" t="s">
@@ -5454,97 +5600,97 @@
       <c r="T17" t="s">
         <v>96</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="V17" t="s">
         <v>483</v>
       </c>
-      <c r="W17" s="11" t="s">
+      <c r="W17" t="s">
         <v>430</v>
       </c>
-      <c r="X17" s="11" t="s">
+      <c r="X17" t="s">
         <v>484</v>
       </c>
-      <c r="Y17" s="11" t="s">
+      <c r="Y17" t="s">
         <v>485</v>
       </c>
-      <c r="Z17" s="11" t="s">
+      <c r="Z17" t="s">
         <v>486</v>
       </c>
-      <c r="AA17" s="11" t="s">
+      <c r="AA17" t="s">
         <v>487</v>
       </c>
-      <c r="AB17" s="11" t="s">
+      <c r="AB17" t="s">
         <v>488</v>
       </c>
-      <c r="AC17" s="11" t="s">
+      <c r="AC17" t="s">
         <v>489</v>
       </c>
-      <c r="AD17" s="11" t="s">
+      <c r="AD17" t="s">
         <v>490</v>
       </c>
-      <c r="AE17" s="11" t="s">
+      <c r="AE17" t="s">
         <v>437</v>
       </c>
-      <c r="AF17" s="11" t="s">
+      <c r="AF17" t="s">
         <v>491</v>
       </c>
-      <c r="AG17" s="11" t="s">
+      <c r="AG17" t="s">
         <v>492</v>
       </c>
-      <c r="AH17" s="11" t="s">
+      <c r="AH17" t="s">
         <v>183</v>
       </c>
-      <c r="AI17" s="11" t="s">
+      <c r="AI17" t="s">
         <v>137</v>
       </c>
-      <c r="AJ17" s="11" t="s">
+      <c r="AJ17" t="s">
         <v>115</v>
       </c>
-      <c r="AK17" s="11" t="s">
+      <c r="AK17" t="s">
         <v>493</v>
       </c>
-      <c r="AL17" s="11" t="s">
+      <c r="AL17" t="s">
         <v>494</v>
       </c>
-      <c r="AM17" s="11" t="s">
+      <c r="AM17" t="s">
         <v>186</v>
       </c>
-      <c r="AN17" s="11" t="s">
+      <c r="AN17" t="s">
         <v>495</v>
       </c>
-      <c r="AO17" s="11" t="s">
+      <c r="AO17" t="s">
         <v>496</v>
       </c>
-      <c r="AP17" s="11" t="s">
+      <c r="AP17" t="s">
         <v>497</v>
       </c>
-      <c r="AQ17" s="11" t="s">
+      <c r="AQ17" t="s">
         <v>498</v>
       </c>
-      <c r="AR17" s="11" t="s">
+      <c r="AR17" t="s">
         <v>80</v>
       </c>
-      <c r="AS17" s="11" t="s">
+      <c r="AS17" t="s">
         <v>499</v>
       </c>
-      <c r="AT17" s="11" t="s">
+      <c r="AT17" t="s">
         <v>500</v>
       </c>
-      <c r="AU17" s="11" t="s">
+      <c r="AU17" t="s">
         <v>501</v>
       </c>
-      <c r="AV17" s="11" t="s">
+      <c r="AV17" t="s">
         <v>502</v>
       </c>
-      <c r="AW17" s="11" t="s">
+      <c r="AW17" t="s">
         <v>503</v>
       </c>
-      <c r="AX17" s="11" t="s">
+      <c r="AX17" t="s">
         <v>504</v>
       </c>
       <c r="AY17" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AZ17" s="11" t="s">
+      <c r="AZ17" t="s">
         <v>452</v>
       </c>
       <c r="BA17" s="3" t="s">
@@ -5552,7 +5698,7 @@
       </c>
     </row>
     <row r="18" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B18" s="10">
+      <c r="B18" s="6">
         <v>44780</v>
       </c>
       <c r="C18" t="s">
@@ -5606,97 +5752,97 @@
       <c r="U18" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="V18" s="11" t="s">
+      <c r="V18" t="s">
         <v>510</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="W18" t="s">
         <v>511</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="X18" t="s">
         <v>204</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Y18" t="s">
         <v>175</v>
       </c>
-      <c r="Z18" s="11" t="s">
+      <c r="Z18" t="s">
         <v>512</v>
       </c>
-      <c r="AA18" s="11" t="s">
+      <c r="AA18" t="s">
         <v>513</v>
       </c>
-      <c r="AB18" s="11" t="s">
+      <c r="AB18" t="s">
         <v>514</v>
       </c>
-      <c r="AC18" s="11" t="s">
+      <c r="AC18" t="s">
         <v>208</v>
       </c>
-      <c r="AD18" s="11" t="s">
+      <c r="AD18" t="s">
         <v>515</v>
       </c>
-      <c r="AE18" s="11" t="s">
+      <c r="AE18" t="s">
         <v>462</v>
       </c>
-      <c r="AF18" s="11" t="s">
+      <c r="AF18" t="s">
         <v>293</v>
       </c>
-      <c r="AG18" s="11" t="s">
+      <c r="AG18" t="s">
         <v>492</v>
       </c>
-      <c r="AH18" s="11" t="s">
+      <c r="AH18" t="s">
         <v>114</v>
       </c>
-      <c r="AI18" s="11" t="s">
+      <c r="AI18" t="s">
         <v>516</v>
       </c>
-      <c r="AJ18" s="11" t="s">
+      <c r="AJ18" t="s">
         <v>184</v>
       </c>
-      <c r="AK18" s="11" t="s">
+      <c r="AK18" t="s">
         <v>296</v>
       </c>
-      <c r="AL18" s="11" t="s">
+      <c r="AL18" t="s">
         <v>517</v>
       </c>
-      <c r="AM18" s="11" t="s">
+      <c r="AM18" t="s">
         <v>359</v>
       </c>
-      <c r="AN18" s="11" t="s">
+      <c r="AN18" t="s">
         <v>495</v>
       </c>
-      <c r="AO18" s="11" t="s">
+      <c r="AO18" t="s">
         <v>218</v>
       </c>
-      <c r="AP18" s="11" t="s">
+      <c r="AP18" t="s">
         <v>188</v>
       </c>
-      <c r="AQ18" s="11" t="s">
+      <c r="AQ18" t="s">
         <v>518</v>
       </c>
-      <c r="AR18" s="11" t="s">
+      <c r="AR18" t="s">
         <v>80</v>
       </c>
-      <c r="AS18" s="11" t="s">
+      <c r="AS18" t="s">
         <v>519</v>
       </c>
-      <c r="AT18" s="11" t="s">
+      <c r="AT18" t="s">
         <v>520</v>
       </c>
-      <c r="AU18" s="11" t="s">
+      <c r="AU18" t="s">
         <v>222</v>
       </c>
-      <c r="AV18" s="11" t="s">
+      <c r="AV18" t="s">
         <v>521</v>
       </c>
-      <c r="AW18" s="11" t="s">
+      <c r="AW18" t="s">
         <v>522</v>
       </c>
-      <c r="AX18" s="11" t="s">
+      <c r="AX18" t="s">
         <v>523</v>
       </c>
       <c r="AY18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AZ18" s="11" t="s">
+      <c r="AZ18" t="s">
         <v>524</v>
       </c>
       <c r="BA18" s="3" t="s">
@@ -5704,7 +5850,7 @@
       </c>
     </row>
     <row r="19" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B19" s="10">
+      <c r="B19" s="6">
         <v>44780</v>
       </c>
       <c r="C19" t="s">
@@ -5755,97 +5901,97 @@
       <c r="T19" t="s">
         <v>96</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="V19" t="s">
         <v>510</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="W19" t="s">
         <v>531</v>
       </c>
-      <c r="X19" s="11" t="s">
+      <c r="X19" t="s">
         <v>62</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="Y19" t="s">
         <v>175</v>
       </c>
       <c r="Z19">
         <v>999</v>
       </c>
-      <c r="AA19" s="11" t="s">
+      <c r="AA19" t="s">
         <v>383</v>
       </c>
-      <c r="AB19" s="11" t="s">
+      <c r="AB19" t="s">
         <v>532</v>
       </c>
-      <c r="AC19" s="11" t="s">
+      <c r="AC19" t="s">
         <v>385</v>
       </c>
-      <c r="AD19" s="11" t="s">
+      <c r="AD19" t="s">
         <v>533</v>
       </c>
-      <c r="AE19" s="11" t="s">
+      <c r="AE19" t="s">
         <v>534</v>
       </c>
-      <c r="AF19" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="AG19" s="11" t="s">
+      <c r="AF19" t="s">
+        <v>866</v>
+      </c>
+      <c r="AG19" t="s">
         <v>536</v>
       </c>
-      <c r="AH19" s="11" t="s">
+      <c r="AH19" t="s">
         <v>440</v>
       </c>
-      <c r="AI19" s="11" t="s">
+      <c r="AI19" t="s">
         <v>71</v>
       </c>
-      <c r="AJ19" s="11" t="s">
+      <c r="AJ19" t="s">
         <v>184</v>
       </c>
-      <c r="AK19" s="11" t="s">
+      <c r="AK19" t="s">
         <v>537</v>
       </c>
       <c r="AL19">
         <v>999</v>
       </c>
-      <c r="AM19" s="11" t="s">
+      <c r="AM19" t="s">
         <v>216</v>
       </c>
-      <c r="AN19" s="11" t="s">
+      <c r="AN19" t="s">
         <v>538</v>
       </c>
-      <c r="AO19" s="11" t="s">
+      <c r="AO19" t="s">
         <v>539</v>
       </c>
-      <c r="AP19" s="11" t="s">
+      <c r="AP19" t="s">
         <v>78</v>
       </c>
-      <c r="AQ19" s="11" t="s">
+      <c r="AQ19" t="s">
         <v>189</v>
       </c>
-      <c r="AR19" s="11" t="s">
+      <c r="AR19" t="s">
         <v>540</v>
       </c>
-      <c r="AS19" s="11" t="s">
+      <c r="AS19" t="s">
         <v>541</v>
       </c>
-      <c r="AT19" s="11" t="s">
+      <c r="AT19" t="s">
         <v>542</v>
       </c>
-      <c r="AU19" s="11" t="s">
+      <c r="AU19" t="s">
         <v>543</v>
       </c>
-      <c r="AV19" s="11" t="s">
+      <c r="AV19" t="s">
         <v>347</v>
       </c>
       <c r="AW19">
         <v>999</v>
       </c>
-      <c r="AX19" s="11" t="s">
+      <c r="AX19" t="s">
         <v>99</v>
       </c>
       <c r="AY19" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="AZ19" s="11" t="s">
+      <c r="AZ19" t="s">
         <v>544</v>
       </c>
       <c r="BA19" s="3" t="s">
@@ -5853,7 +5999,7 @@
       </c>
     </row>
     <row r="20" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B20" s="10">
+      <c r="B20" s="6">
         <v>44780</v>
       </c>
       <c r="C20" t="s">
@@ -5907,97 +6053,97 @@
       <c r="U20" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="V20" t="s">
         <v>553</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="W20" t="s">
         <v>554</v>
       </c>
-      <c r="X20" s="11" t="s">
+      <c r="X20" t="s">
         <v>555</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Y20" t="s">
         <v>556</v>
       </c>
-      <c r="Z20" s="11" t="s">
+      <c r="Z20" t="s">
         <v>557</v>
       </c>
-      <c r="AA20" s="11" t="s">
+      <c r="AA20" t="s">
         <v>558</v>
       </c>
-      <c r="AB20" s="11" t="s">
+      <c r="AB20" t="s">
         <v>559</v>
       </c>
-      <c r="AC20" s="11" t="s">
+      <c r="AC20" t="s">
         <v>560</v>
       </c>
-      <c r="AD20" s="11" t="s">
+      <c r="AD20" t="s">
         <v>561</v>
       </c>
-      <c r="AE20" s="11" t="s">
+      <c r="AE20" t="s">
         <v>562</v>
       </c>
       <c r="AF20">
         <v>999</v>
       </c>
-      <c r="AG20" s="11" t="s">
+      <c r="AG20" t="s">
         <v>563</v>
       </c>
-      <c r="AH20" s="11" t="s">
+      <c r="AH20" t="s">
         <v>564</v>
       </c>
-      <c r="AI20" s="11" t="s">
+      <c r="AI20" t="s">
         <v>565</v>
       </c>
-      <c r="AJ20" s="11" t="s">
+      <c r="AJ20" t="s">
         <v>566</v>
       </c>
-      <c r="AK20" s="11" t="s">
+      <c r="AK20" t="s">
         <v>567</v>
       </c>
-      <c r="AL20" s="11" t="s">
+      <c r="AL20" t="s">
         <v>568</v>
       </c>
-      <c r="AM20" s="11" t="s">
+      <c r="AM20" t="s">
         <v>569</v>
       </c>
-      <c r="AN20" s="11" t="s">
+      <c r="AN20" t="s">
         <v>570</v>
       </c>
-      <c r="AO20" s="11" t="s">
+      <c r="AO20" t="s">
         <v>571</v>
       </c>
-      <c r="AP20" s="11" t="s">
+      <c r="AP20" t="s">
         <v>572</v>
       </c>
-      <c r="AQ20" s="11" t="s">
+      <c r="AQ20" t="s">
         <v>189</v>
       </c>
-      <c r="AR20" s="11" t="s">
+      <c r="AR20" t="s">
         <v>573</v>
       </c>
-      <c r="AS20" s="11" t="s">
+      <c r="AS20" t="s">
         <v>574</v>
       </c>
-      <c r="AT20" s="11" t="s">
+      <c r="AT20" t="s">
         <v>575</v>
       </c>
-      <c r="AU20" s="11" t="s">
+      <c r="AU20" t="s">
         <v>576</v>
       </c>
-      <c r="AV20" s="11" t="s">
+      <c r="AV20" t="s">
         <v>577</v>
       </c>
-      <c r="AW20" s="11" t="s">
+      <c r="AW20" t="s">
         <v>578</v>
       </c>
-      <c r="AX20" s="11" t="s">
+      <c r="AX20" t="s">
         <v>579</v>
       </c>
       <c r="AY20" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="AZ20" s="11" t="s">
+      <c r="AZ20" t="s">
         <v>581</v>
       </c>
       <c r="BA20" s="3" t="s">
@@ -6005,7 +6151,7 @@
       </c>
     </row>
     <row r="21" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B21" s="10">
+      <c r="B21" s="6">
         <v>44784</v>
       </c>
       <c r="C21" t="s">
@@ -6053,97 +6199,97 @@
       <c r="T21" t="s">
         <v>96</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="V21" t="s">
         <v>588</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="W21" t="s">
         <v>589</v>
       </c>
-      <c r="X21" s="11" t="s">
+      <c r="X21" t="s">
         <v>431</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Y21" t="s">
         <v>106</v>
       </c>
-      <c r="Z21" s="11" t="s">
+      <c r="Z21" t="s">
         <v>590</v>
       </c>
       <c r="AA21">
         <v>999</v>
       </c>
-      <c r="AB21" s="11" t="s">
+      <c r="AB21" t="s">
         <v>109</v>
       </c>
-      <c r="AC21" s="11" t="s">
+      <c r="AC21" t="s">
         <v>591</v>
       </c>
-      <c r="AD21" s="11" t="s">
+      <c r="AD21" t="s">
         <v>490</v>
       </c>
-      <c r="AE21" s="11" t="s">
+      <c r="AE21" t="s">
         <v>592</v>
       </c>
-      <c r="AF21" s="11" t="s">
+      <c r="AF21" t="s">
         <v>593</v>
       </c>
       <c r="AG21" t="s">
         <v>594</v>
       </c>
-      <c r="AH21" s="11" t="s">
+      <c r="AH21" t="s">
         <v>595</v>
       </c>
-      <c r="AI21" s="11" t="s">
+      <c r="AI21" t="s">
         <v>596</v>
       </c>
-      <c r="AJ21" s="11" t="s">
+      <c r="AJ21" t="s">
         <v>115</v>
       </c>
-      <c r="AK21" s="11" t="s">
+      <c r="AK21" t="s">
         <v>597</v>
       </c>
-      <c r="AL21" s="11" t="s">
+      <c r="AL21" t="s">
         <v>598</v>
       </c>
-      <c r="AM21" s="11" t="s">
+      <c r="AM21" t="s">
         <v>599</v>
       </c>
-      <c r="AN21" s="11" t="s">
+      <c r="AN21" t="s">
         <v>600</v>
       </c>
-      <c r="AO21" s="11" t="s">
+      <c r="AO21" t="s">
         <v>120</v>
       </c>
-      <c r="AP21" s="11" t="s">
+      <c r="AP21" t="s">
         <v>601</v>
       </c>
-      <c r="AQ21" s="11" t="s">
+      <c r="AQ21" t="s">
         <v>363</v>
       </c>
-      <c r="AR21" s="11" t="s">
+      <c r="AR21" t="s">
         <v>123</v>
       </c>
-      <c r="AS21" s="11" t="s">
+      <c r="AS21" t="s">
         <v>602</v>
       </c>
-      <c r="AT21" s="11" t="s">
+      <c r="AT21" t="s">
         <v>603</v>
       </c>
-      <c r="AU21" s="11" t="s">
+      <c r="AU21" t="s">
         <v>604</v>
       </c>
-      <c r="AV21" s="11" t="s">
+      <c r="AV21" t="s">
         <v>605</v>
       </c>
-      <c r="AW21" s="11" t="s">
+      <c r="AW21" t="s">
         <v>606</v>
       </c>
-      <c r="AX21" s="11" t="s">
+      <c r="AX21" t="s">
         <v>367</v>
       </c>
       <c r="AY21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AZ21" s="11" t="s">
+      <c r="AZ21" t="s">
         <v>607</v>
       </c>
       <c r="BA21" s="3" t="s">
@@ -6151,7 +6297,7 @@
       </c>
     </row>
     <row r="22" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B22" s="10">
+      <c r="B22" s="6">
         <v>44784</v>
       </c>
       <c r="C22" t="s">
@@ -6202,97 +6348,97 @@
       <c r="U22" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="V22" t="s">
         <v>588</v>
       </c>
-      <c r="W22" s="11" t="s">
+      <c r="W22" t="s">
         <v>615</v>
       </c>
-      <c r="X22" s="11" t="s">
+      <c r="X22" t="s">
         <v>616</v>
       </c>
-      <c r="Y22" s="11" t="s">
+      <c r="Y22" t="s">
         <v>236</v>
       </c>
-      <c r="Z22" s="11" t="s">
+      <c r="Z22" t="s">
         <v>617</v>
       </c>
-      <c r="AA22" s="11" t="s">
+      <c r="AA22" t="s">
         <v>618</v>
       </c>
-      <c r="AB22" s="11" t="s">
+      <c r="AB22" t="s">
         <v>619</v>
       </c>
-      <c r="AC22" s="11" t="s">
+      <c r="AC22" t="s">
         <v>620</v>
       </c>
-      <c r="AD22" s="11" t="s">
+      <c r="AD22" t="s">
         <v>436</v>
       </c>
-      <c r="AE22" s="11" t="s">
+      <c r="AE22" t="s">
         <v>621</v>
       </c>
-      <c r="AF22" s="11" t="s">
+      <c r="AF22" t="s">
         <v>622</v>
       </c>
-      <c r="AG22" s="11" t="s">
+      <c r="AG22" t="s">
         <v>623</v>
       </c>
-      <c r="AH22" s="11" t="s">
+      <c r="AH22" t="s">
         <v>440</v>
       </c>
-      <c r="AI22" s="11" t="s">
+      <c r="AI22" t="s">
         <v>137</v>
       </c>
-      <c r="AJ22" s="11" t="s">
+      <c r="AJ22" t="s">
         <v>624</v>
       </c>
-      <c r="AK22" s="11" t="s">
+      <c r="AK22" t="s">
         <v>625</v>
       </c>
-      <c r="AL22" s="11" t="s">
+      <c r="AL22" t="s">
         <v>626</v>
       </c>
-      <c r="AM22" s="11" t="s">
+      <c r="AM22" t="s">
         <v>414</v>
       </c>
-      <c r="AN22" s="11" t="s">
+      <c r="AN22" t="s">
         <v>627</v>
       </c>
-      <c r="AO22" s="11" t="s">
+      <c r="AO22" t="s">
         <v>444</v>
       </c>
-      <c r="AP22" s="11" t="s">
+      <c r="AP22" t="s">
         <v>628</v>
       </c>
-      <c r="AQ22" s="11" t="s">
+      <c r="AQ22" t="s">
         <v>446</v>
       </c>
-      <c r="AR22" s="11" t="s">
+      <c r="AR22" t="s">
         <v>123</v>
       </c>
-      <c r="AS22" s="11" t="s">
+      <c r="AS22" t="s">
         <v>629</v>
       </c>
-      <c r="AT22" s="11" t="s">
+      <c r="AT22" t="s">
         <v>630</v>
       </c>
-      <c r="AU22" s="11" t="s">
+      <c r="AU22" t="s">
         <v>631</v>
       </c>
-      <c r="AV22" s="11" t="s">
+      <c r="AV22" t="s">
         <v>632</v>
       </c>
-      <c r="AW22" s="11" t="s">
+      <c r="AW22" t="s">
         <v>633</v>
       </c>
-      <c r="AX22" s="11" t="s">
+      <c r="AX22" t="s">
         <v>129</v>
       </c>
       <c r="AY22" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="AZ22" s="11" t="s">
+      <c r="AZ22" t="s">
         <v>452</v>
       </c>
       <c r="BA22" s="3" t="s">
@@ -6300,7 +6446,7 @@
       </c>
     </row>
     <row r="23" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B23" s="10">
+      <c r="B23" s="6">
         <v>44789</v>
       </c>
       <c r="C23" t="s">
@@ -6351,79 +6497,79 @@
       <c r="T23" t="s">
         <v>169</v>
       </c>
-      <c r="V23" s="11" t="s">
+      <c r="V23" t="s">
         <v>642</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="W23" t="s">
         <v>643</v>
       </c>
-      <c r="X23" s="11" t="s">
+      <c r="X23" t="s">
         <v>647</v>
       </c>
-      <c r="Y23" s="11" t="s">
+      <c r="Y23" t="s">
         <v>644</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="Z23" t="s">
         <v>645</v>
       </c>
-      <c r="AA23" s="11" t="s">
+      <c r="AA23" t="s">
         <v>646</v>
       </c>
       <c r="AB23" t="s">
         <v>647</v>
       </c>
-      <c r="AC23" s="11" t="s">
+      <c r="AC23" t="s">
         <v>208</v>
       </c>
-      <c r="AD23" s="11" t="s">
+      <c r="AD23" t="s">
         <v>67</v>
       </c>
-      <c r="AE23" s="11" t="s">
+      <c r="AE23" t="s">
         <v>462</v>
       </c>
-      <c r="AF23" s="11" t="s">
+      <c r="AF23" t="s">
         <v>293</v>
       </c>
-      <c r="AG23" s="11" t="s">
+      <c r="AG23" t="s">
         <v>648</v>
       </c>
-      <c r="AH23" s="11" t="s">
+      <c r="AH23" t="s">
         <v>649</v>
       </c>
-      <c r="AI23" s="11" t="s">
+      <c r="AI23" t="s">
         <v>341</v>
       </c>
-      <c r="AJ23" s="11" t="s">
+      <c r="AJ23" t="s">
         <v>184</v>
       </c>
-      <c r="AK23" s="11" t="s">
+      <c r="AK23" t="s">
         <v>342</v>
       </c>
       <c r="AL23" t="s">
         <v>647</v>
       </c>
-      <c r="AM23" s="11" t="s">
+      <c r="AM23" t="s">
         <v>650</v>
       </c>
-      <c r="AN23" s="11" t="s">
+      <c r="AN23" t="s">
         <v>495</v>
       </c>
-      <c r="AO23" s="11" t="s">
+      <c r="AO23" t="s">
         <v>651</v>
       </c>
-      <c r="AP23" s="11" t="s">
+      <c r="AP23" t="s">
         <v>652</v>
       </c>
-      <c r="AQ23" s="11" t="s">
+      <c r="AQ23" t="s">
         <v>653</v>
       </c>
-      <c r="AR23" s="11" t="s">
+      <c r="AR23" t="s">
         <v>654</v>
       </c>
-      <c r="AS23" s="11" t="s">
+      <c r="AS23" t="s">
         <v>655</v>
       </c>
-      <c r="AT23" s="11" t="s">
+      <c r="AT23" t="s">
         <v>656</v>
       </c>
       <c r="AU23" t="s">
@@ -6432,16 +6578,16 @@
       <c r="AV23" t="s">
         <v>647</v>
       </c>
-      <c r="AW23" s="11" t="s">
+      <c r="AW23" t="s">
         <v>657</v>
       </c>
-      <c r="AX23" s="11" t="s">
+      <c r="AX23" t="s">
         <v>129</v>
       </c>
       <c r="AY23" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="AZ23" s="11" t="s">
+      <c r="AZ23" t="s">
         <v>658</v>
       </c>
       <c r="BA23" s="3" t="s">
@@ -6449,7 +6595,7 @@
       </c>
     </row>
     <row r="24" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B24" s="10">
+      <c r="B24" s="6">
         <v>44789</v>
       </c>
       <c r="C24" t="s">
@@ -6503,97 +6649,97 @@
       <c r="T24" t="s">
         <v>96</v>
       </c>
-      <c r="V24" s="11" t="s">
+      <c r="V24" t="s">
         <v>665</v>
       </c>
-      <c r="W24" s="11" t="s">
+      <c r="W24" t="s">
         <v>203</v>
       </c>
-      <c r="X24" s="11" t="s">
+      <c r="X24" t="s">
         <v>666</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Y24" t="s">
         <v>175</v>
       </c>
-      <c r="Z24" s="11" t="s">
+      <c r="Z24" t="s">
         <v>667</v>
       </c>
-      <c r="AA24" s="11" t="s">
+      <c r="AA24" t="s">
         <v>668</v>
       </c>
-      <c r="AB24" s="11" t="s">
+      <c r="AB24" t="s">
         <v>669</v>
       </c>
-      <c r="AC24" s="11" t="s">
+      <c r="AC24" t="s">
         <v>461</v>
       </c>
-      <c r="AD24" s="11" t="s">
+      <c r="AD24" t="s">
         <v>670</v>
       </c>
-      <c r="AE24" s="11" t="s">
+      <c r="AE24" t="s">
         <v>671</v>
       </c>
-      <c r="AF24" s="11" t="s">
+      <c r="AF24" t="s">
         <v>535</v>
       </c>
-      <c r="AG24" s="11" t="s">
+      <c r="AG24" t="s">
         <v>672</v>
       </c>
       <c r="AH24">
         <v>999</v>
       </c>
-      <c r="AI24" s="11" t="s">
+      <c r="AI24" t="s">
         <v>673</v>
       </c>
-      <c r="AJ24" s="11" t="s">
+      <c r="AJ24" t="s">
         <v>674</v>
       </c>
-      <c r="AK24" s="11" t="s">
+      <c r="AK24" t="s">
         <v>675</v>
       </c>
       <c r="AL24">
         <v>999</v>
       </c>
-      <c r="AM24" s="11" t="s">
+      <c r="AM24" t="s">
         <v>676</v>
       </c>
-      <c r="AN24" s="11" t="s">
+      <c r="AN24" t="s">
         <v>677</v>
       </c>
-      <c r="AO24" s="11" t="s">
+      <c r="AO24" t="s">
         <v>539</v>
       </c>
-      <c r="AP24" s="11" t="s">
+      <c r="AP24" t="s">
         <v>78</v>
       </c>
-      <c r="AQ24" s="11" t="s">
+      <c r="AQ24" t="s">
         <v>189</v>
       </c>
-      <c r="AR24" s="11" t="s">
+      <c r="AR24" t="s">
         <v>678</v>
       </c>
-      <c r="AS24" s="11" t="s">
+      <c r="AS24" t="s">
         <v>541</v>
       </c>
-      <c r="AT24" s="11" t="s">
+      <c r="AT24" t="s">
         <v>679</v>
       </c>
-      <c r="AU24" s="11" t="s">
+      <c r="AU24" t="s">
         <v>680</v>
       </c>
-      <c r="AV24" s="11" t="s">
+      <c r="AV24" t="s">
         <v>347</v>
       </c>
-      <c r="AW24" s="11" t="s">
+      <c r="AW24" t="s">
         <v>85</v>
       </c>
-      <c r="AX24" s="11" t="s">
+      <c r="AX24" t="s">
         <v>99</v>
       </c>
       <c r="AY24" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="AZ24" s="11" t="s">
+      <c r="AZ24" t="s">
         <v>682</v>
       </c>
       <c r="BA24" s="3" t="s">
@@ -6601,7 +6747,7 @@
       </c>
     </row>
     <row r="25" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B25" s="10">
+      <c r="B25" s="6">
         <v>44790</v>
       </c>
       <c r="C25" t="s">
@@ -6655,97 +6801,97 @@
       <c r="T25" t="s">
         <v>169</v>
       </c>
-      <c r="V25" s="11" t="s">
+      <c r="V25" t="s">
         <v>588</v>
       </c>
-      <c r="W25" s="11" t="s">
+      <c r="W25" t="s">
         <v>690</v>
       </c>
-      <c r="X25" s="11" t="s">
+      <c r="X25" t="s">
         <v>105</v>
       </c>
-      <c r="Y25" s="11" t="s">
+      <c r="Y25" t="s">
         <v>691</v>
       </c>
-      <c r="Z25" s="11" t="s">
+      <c r="Z25" t="s">
         <v>692</v>
       </c>
-      <c r="AA25" s="11" t="s">
+      <c r="AA25" t="s">
         <v>108</v>
       </c>
-      <c r="AB25" s="11" t="s">
+      <c r="AB25" t="s">
         <v>693</v>
       </c>
-      <c r="AC25" s="11" t="s">
+      <c r="AC25" t="s">
         <v>110</v>
       </c>
-      <c r="AD25" s="11" t="s">
+      <c r="AD25" t="s">
         <v>269</v>
       </c>
-      <c r="AE25" s="11" t="s">
+      <c r="AE25" t="s">
         <v>694</v>
       </c>
-      <c r="AF25" s="11" t="s">
+      <c r="AF25" t="s">
         <v>695</v>
       </c>
-      <c r="AG25" s="11" t="s">
+      <c r="AG25" t="s">
         <v>696</v>
       </c>
-      <c r="AH25" s="11" t="s">
+      <c r="AH25" t="s">
         <v>697</v>
       </c>
-      <c r="AI25" s="11" t="s">
+      <c r="AI25" t="s">
         <v>698</v>
       </c>
-      <c r="AJ25" s="11" t="s">
+      <c r="AJ25" t="s">
         <v>115</v>
       </c>
-      <c r="AK25" s="11" t="s">
+      <c r="AK25" t="s">
         <v>699</v>
       </c>
-      <c r="AL25" s="11" t="s">
+      <c r="AL25" t="s">
         <v>700</v>
       </c>
-      <c r="AM25" s="11" t="s">
+      <c r="AM25" t="s">
         <v>701</v>
       </c>
-      <c r="AN25" s="11" t="s">
+      <c r="AN25" t="s">
         <v>702</v>
       </c>
-      <c r="AO25" s="11" t="s">
+      <c r="AO25" t="s">
         <v>703</v>
       </c>
-      <c r="AP25" s="11" t="s">
+      <c r="AP25" t="s">
         <v>704</v>
       </c>
-      <c r="AQ25" s="11" t="s">
+      <c r="AQ25" t="s">
         <v>705</v>
       </c>
-      <c r="AR25" s="11" t="s">
+      <c r="AR25" t="s">
         <v>277</v>
       </c>
-      <c r="AS25" s="11" t="s">
+      <c r="AS25" t="s">
         <v>706</v>
       </c>
-      <c r="AT25" s="11" t="s">
+      <c r="AT25" t="s">
         <v>707</v>
       </c>
-      <c r="AU25" s="11" t="s">
+      <c r="AU25" t="s">
         <v>708</v>
       </c>
-      <c r="AV25" s="11" t="s">
+      <c r="AV25" t="s">
         <v>709</v>
       </c>
-      <c r="AW25" s="11" t="s">
+      <c r="AW25" t="s">
         <v>710</v>
       </c>
-      <c r="AX25" s="11" t="s">
+      <c r="AX25" t="s">
         <v>711</v>
       </c>
       <c r="AY25" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AZ25" s="11" t="s">
+      <c r="AZ25" t="s">
         <v>452</v>
       </c>
       <c r="BA25" s="3" t="s">
@@ -6753,7 +6899,7 @@
       </c>
     </row>
     <row r="26" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B26" s="10">
+      <c r="B26" s="6">
         <v>44790</v>
       </c>
       <c r="C26" t="s">
@@ -6804,97 +6950,97 @@
       <c r="T26" t="s">
         <v>286</v>
       </c>
-      <c r="V26" s="11" t="s">
+      <c r="V26" t="s">
         <v>742</v>
       </c>
-      <c r="W26" s="11" t="s">
+      <c r="W26" t="s">
         <v>312</v>
       </c>
-      <c r="X26" s="11" t="s">
+      <c r="X26" t="s">
         <v>743</v>
       </c>
-      <c r="Y26" s="11" t="s">
+      <c r="Y26" t="s">
         <v>106</v>
       </c>
-      <c r="Z26" s="11" t="s">
+      <c r="Z26" t="s">
         <v>590</v>
       </c>
-      <c r="AA26" s="11" t="s">
+      <c r="AA26" t="s">
         <v>744</v>
       </c>
-      <c r="AB26" s="11" t="s">
+      <c r="AB26" t="s">
         <v>745</v>
       </c>
-      <c r="AC26" s="11" t="s">
+      <c r="AC26" t="s">
         <v>435</v>
       </c>
-      <c r="AD26" s="11" t="s">
+      <c r="AD26" t="s">
         <v>670</v>
       </c>
-      <c r="AE26" s="11" t="s">
+      <c r="AE26" t="s">
         <v>462</v>
       </c>
-      <c r="AF26" s="11" t="s">
+      <c r="AF26" t="s">
         <v>695</v>
       </c>
-      <c r="AG26" s="11" t="s">
+      <c r="AG26" t="s">
         <v>746</v>
       </c>
-      <c r="AH26" s="11" t="s">
+      <c r="AH26" t="s">
         <v>649</v>
       </c>
-      <c r="AI26" s="11" t="s">
+      <c r="AI26" t="s">
         <v>747</v>
       </c>
-      <c r="AJ26" s="11" t="s">
+      <c r="AJ26" t="s">
         <v>748</v>
       </c>
-      <c r="AK26" s="11" t="s">
+      <c r="AK26" t="s">
         <v>749</v>
       </c>
-      <c r="AL26" s="11" t="s">
+      <c r="AL26" t="s">
         <v>750</v>
       </c>
-      <c r="AM26" s="11" t="s">
+      <c r="AM26" t="s">
         <v>216</v>
       </c>
-      <c r="AN26" s="11" t="s">
+      <c r="AN26" t="s">
         <v>600</v>
       </c>
-      <c r="AO26" s="11" t="s">
+      <c r="AO26" t="s">
         <v>751</v>
       </c>
-      <c r="AP26" s="11" t="s">
+      <c r="AP26" t="s">
         <v>445</v>
       </c>
-      <c r="AQ26" s="11" t="s">
+      <c r="AQ26" t="s">
         <v>446</v>
       </c>
-      <c r="AR26" s="11" t="s">
+      <c r="AR26" t="s">
         <v>123</v>
       </c>
-      <c r="AS26" s="11" t="s">
+      <c r="AS26" t="s">
         <v>752</v>
       </c>
-      <c r="AT26" s="11" t="s">
+      <c r="AT26" t="s">
         <v>753</v>
       </c>
-      <c r="AU26" s="11" t="s">
+      <c r="AU26" t="s">
         <v>631</v>
       </c>
-      <c r="AV26" s="11" t="s">
+      <c r="AV26" t="s">
         <v>754</v>
       </c>
-      <c r="AW26" s="11" t="s">
+      <c r="AW26" t="s">
         <v>366</v>
       </c>
-      <c r="AX26" s="11" t="s">
+      <c r="AX26" t="s">
         <v>129</v>
       </c>
       <c r="AY26" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="AZ26" s="11" t="s">
+      <c r="AZ26" t="s">
         <v>607</v>
       </c>
       <c r="BA26" s="3" t="s">
@@ -6902,7 +7048,7 @@
       </c>
     </row>
     <row r="27" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B27" s="10">
+      <c r="B27" s="6">
         <v>44790</v>
       </c>
       <c r="C27" t="s">
@@ -6953,97 +7099,97 @@
       <c r="U27" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="V27" s="11" t="s">
+      <c r="V27" t="s">
         <v>722</v>
       </c>
-      <c r="W27" s="11" t="s">
+      <c r="W27" t="s">
         <v>723</v>
       </c>
-      <c r="X27" s="11" t="s">
+      <c r="X27" t="s">
         <v>724</v>
       </c>
-      <c r="Y27" s="11" t="s">
+      <c r="Y27" t="s">
         <v>106</v>
       </c>
-      <c r="Z27" s="11" t="s">
+      <c r="Z27" t="s">
         <v>725</v>
       </c>
-      <c r="AA27" s="11" t="s">
+      <c r="AA27" t="s">
         <v>487</v>
       </c>
-      <c r="AB27" s="11" t="s">
+      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AC27" s="11" t="s">
+      <c r="AC27" t="s">
         <v>238</v>
       </c>
-      <c r="AD27" s="11" t="s">
+      <c r="AD27" t="s">
         <v>726</v>
       </c>
-      <c r="AE27" s="11" t="s">
+      <c r="AE27" t="s">
         <v>694</v>
       </c>
-      <c r="AF27" s="11" t="s">
+      <c r="AF27" t="s">
         <v>241</v>
       </c>
-      <c r="AG27" s="11" t="s">
+      <c r="AG27" t="s">
         <v>727</v>
       </c>
-      <c r="AH27" s="11" t="s">
+      <c r="AH27" t="s">
         <v>243</v>
       </c>
-      <c r="AI27" s="11" t="s">
+      <c r="AI27" t="s">
         <v>137</v>
       </c>
-      <c r="AJ27" s="11" t="s">
+      <c r="AJ27" t="s">
         <v>728</v>
       </c>
-      <c r="AK27" s="11" t="s">
+      <c r="AK27" t="s">
         <v>597</v>
       </c>
-      <c r="AL27" s="11" t="s">
+      <c r="AL27" t="s">
         <v>729</v>
       </c>
-      <c r="AM27" s="11" t="s">
+      <c r="AM27" t="s">
         <v>247</v>
       </c>
-      <c r="AN27" s="11" t="s">
+      <c r="AN27" t="s">
         <v>730</v>
       </c>
-      <c r="AO27" s="11" t="s">
+      <c r="AO27" t="s">
         <v>249</v>
       </c>
-      <c r="AP27" s="11" t="s">
+      <c r="AP27" t="s">
         <v>416</v>
       </c>
-      <c r="AQ27" s="11" t="s">
+      <c r="AQ27" t="s">
         <v>189</v>
       </c>
-      <c r="AR27" s="11" t="s">
+      <c r="AR27" t="s">
         <v>123</v>
       </c>
-      <c r="AS27" s="11" t="s">
+      <c r="AS27" t="s">
         <v>731</v>
       </c>
-      <c r="AT27" s="11" t="s">
+      <c r="AT27" t="s">
         <v>324</v>
       </c>
-      <c r="AU27" s="11" t="s">
+      <c r="AU27" t="s">
         <v>732</v>
       </c>
-      <c r="AV27" s="11" t="s">
+      <c r="AV27" t="s">
         <v>733</v>
       </c>
-      <c r="AW27" s="11" t="s">
+      <c r="AW27" t="s">
         <v>734</v>
       </c>
-      <c r="AX27" s="11" t="s">
+      <c r="AX27" t="s">
         <v>99</v>
       </c>
       <c r="AY27" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="AZ27" s="11" t="s">
+      <c r="AZ27" t="s">
         <v>736</v>
       </c>
       <c r="BA27" s="3" t="s">
@@ -7051,7 +7197,7 @@
       </c>
     </row>
     <row r="28" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B28" s="10">
+      <c r="B28" s="6">
         <v>44791</v>
       </c>
       <c r="C28" t="s">
@@ -7099,97 +7245,97 @@
       <c r="T28" t="s">
         <v>96</v>
       </c>
-      <c r="V28" s="11" t="s">
+      <c r="V28" t="s">
         <v>761</v>
       </c>
-      <c r="W28" s="11" t="s">
+      <c r="W28" t="s">
         <v>762</v>
       </c>
-      <c r="X28" s="11" t="s">
+      <c r="X28" t="s">
         <v>288</v>
       </c>
-      <c r="Y28" s="11" t="s">
+      <c r="Y28" t="s">
         <v>763</v>
       </c>
-      <c r="Z28" s="11" t="s">
+      <c r="Z28" t="s">
         <v>764</v>
       </c>
-      <c r="AA28" s="11" t="s">
+      <c r="AA28" t="s">
         <v>383</v>
       </c>
-      <c r="AB28" s="11" t="s">
+      <c r="AB28" t="s">
         <v>65</v>
       </c>
-      <c r="AC28" s="11" t="s">
+      <c r="AC28" t="s">
         <v>336</v>
       </c>
-      <c r="AD28" s="11" t="s">
+      <c r="AD28" t="s">
         <v>670</v>
       </c>
-      <c r="AE28" s="11" t="s">
+      <c r="AE28" t="s">
         <v>765</v>
       </c>
-      <c r="AF28" s="11" t="s">
+      <c r="AF28" t="s">
         <v>338</v>
       </c>
-      <c r="AG28" s="11" t="s">
+      <c r="AG28" t="s">
         <v>766</v>
       </c>
-      <c r="AH28" s="11" t="s">
+      <c r="AH28" t="s">
         <v>767</v>
       </c>
-      <c r="AI28" s="11" t="s">
+      <c r="AI28" t="s">
         <v>341</v>
       </c>
-      <c r="AJ28" s="11" t="s">
+      <c r="AJ28" t="s">
         <v>184</v>
       </c>
-      <c r="AK28" s="11" t="s">
+      <c r="AK28" t="s">
         <v>342</v>
       </c>
-      <c r="AL28" s="11" t="s">
+      <c r="AL28" t="s">
         <v>768</v>
       </c>
-      <c r="AM28" s="11" t="s">
+      <c r="AM28" t="s">
         <v>216</v>
       </c>
-      <c r="AN28" s="11" t="s">
+      <c r="AN28" t="s">
         <v>769</v>
       </c>
-      <c r="AO28" s="11" t="s">
+      <c r="AO28" t="s">
         <v>77</v>
       </c>
-      <c r="AP28" s="11" t="s">
+      <c r="AP28" t="s">
         <v>188</v>
       </c>
-      <c r="AQ28" s="11" t="s">
+      <c r="AQ28" t="s">
         <v>770</v>
       </c>
-      <c r="AR28" s="11" t="s">
+      <c r="AR28" t="s">
         <v>190</v>
       </c>
-      <c r="AS28" s="11" t="s">
+      <c r="AS28" t="s">
         <v>771</v>
       </c>
-      <c r="AT28" s="11" t="s">
+      <c r="AT28" t="s">
         <v>82</v>
       </c>
-      <c r="AU28" s="11" t="s">
+      <c r="AU28" t="s">
         <v>772</v>
       </c>
-      <c r="AV28" s="11" t="s">
+      <c r="AV28" t="s">
         <v>773</v>
       </c>
-      <c r="AW28" s="11" t="s">
+      <c r="AW28" t="s">
         <v>774</v>
       </c>
-      <c r="AX28" s="11" t="s">
+      <c r="AX28" t="s">
         <v>775</v>
       </c>
       <c r="AY28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AZ28" s="11" t="s">
+      <c r="AZ28" t="s">
         <v>524</v>
       </c>
       <c r="BA28" s="3" t="s">
@@ -7197,7 +7343,7 @@
       </c>
     </row>
     <row r="29" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B29" s="10">
+      <c r="B29" s="6">
         <v>44796</v>
       </c>
       <c r="C29" t="s">
@@ -7245,88 +7391,88 @@
       <c r="T29" t="s">
         <v>286</v>
       </c>
-      <c r="V29" s="11" t="s">
+      <c r="V29" t="s">
         <v>780</v>
       </c>
-      <c r="W29" s="11" t="s">
+      <c r="W29" t="s">
         <v>781</v>
       </c>
-      <c r="X29" s="11" t="s">
+      <c r="X29" t="s">
         <v>782</v>
       </c>
-      <c r="Y29" s="11" t="s">
+      <c r="Y29" t="s">
         <v>783</v>
       </c>
-      <c r="Z29" s="11" t="s">
+      <c r="Z29" t="s">
         <v>784</v>
       </c>
-      <c r="AA29" s="11" t="s">
+      <c r="AA29" t="s">
         <v>785</v>
       </c>
-      <c r="AB29" s="11" t="s">
+      <c r="AB29" t="s">
         <v>65</v>
       </c>
-      <c r="AC29" s="11" t="s">
+      <c r="AC29" t="s">
         <v>461</v>
       </c>
-      <c r="AD29" s="11" t="s">
+      <c r="AD29" t="s">
         <v>67</v>
       </c>
-      <c r="AE29" s="11" t="s">
+      <c r="AE29" t="s">
         <v>786</v>
       </c>
-      <c r="AF29" s="11" t="s">
+      <c r="AF29" t="s">
         <v>338</v>
       </c>
-      <c r="AG29" s="11" t="s">
+      <c r="AG29" t="s">
         <v>787</v>
       </c>
-      <c r="AH29" s="11" t="s">
+      <c r="AH29" t="s">
         <v>788</v>
       </c>
-      <c r="AI29" s="11" t="s">
+      <c r="AI29" t="s">
         <v>341</v>
       </c>
-      <c r="AJ29" s="11" t="s">
+      <c r="AJ29" t="s">
         <v>789</v>
       </c>
-      <c r="AK29" s="11" t="s">
+      <c r="AK29" t="s">
         <v>342</v>
       </c>
       <c r="AL29">
         <v>999</v>
       </c>
-      <c r="AM29" s="11" t="s">
+      <c r="AM29" t="s">
         <v>790</v>
       </c>
-      <c r="AN29" s="11" t="s">
+      <c r="AN29" t="s">
         <v>495</v>
       </c>
-      <c r="AO29" s="11" t="s">
+      <c r="AO29" t="s">
         <v>77</v>
       </c>
-      <c r="AP29" s="11" t="s">
+      <c r="AP29" t="s">
         <v>188</v>
       </c>
-      <c r="AQ29" s="11" t="s">
+      <c r="AQ29" t="s">
         <v>79</v>
       </c>
-      <c r="AR29" s="11" t="s">
+      <c r="AR29" t="s">
         <v>80</v>
       </c>
-      <c r="AS29" s="11" t="s">
+      <c r="AS29" t="s">
         <v>791</v>
       </c>
-      <c r="AT29" s="11" t="s">
+      <c r="AT29" t="s">
         <v>792</v>
       </c>
-      <c r="AU29" s="11" t="s">
+      <c r="AU29" t="s">
         <v>793</v>
       </c>
-      <c r="AV29" s="11" t="s">
+      <c r="AV29" t="s">
         <v>794</v>
       </c>
-      <c r="AW29" s="11" t="s">
+      <c r="AW29" t="s">
         <v>85</v>
       </c>
       <c r="AX29">
@@ -7335,7 +7481,7 @@
       <c r="AY29" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="AZ29" s="11" t="s">
+      <c r="AZ29" t="s">
         <v>524</v>
       </c>
       <c r="BA29" s="3" t="s">
@@ -7343,7 +7489,7 @@
       </c>
     </row>
     <row r="30" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B30" s="10">
+      <c r="B30" s="6">
         <v>44796</v>
       </c>
       <c r="C30" t="s">
@@ -7391,97 +7537,97 @@
       <c r="T30" t="s">
         <v>169</v>
       </c>
-      <c r="V30" s="11" t="s">
+      <c r="V30" t="s">
         <v>742</v>
       </c>
-      <c r="W30" s="11" t="s">
+      <c r="W30" t="s">
         <v>312</v>
       </c>
-      <c r="X30" s="11" t="s">
+      <c r="X30" t="s">
         <v>313</v>
       </c>
-      <c r="Y30" s="11" t="s">
+      <c r="Y30" t="s">
         <v>106</v>
       </c>
-      <c r="Z30" s="11" t="s">
+      <c r="Z30" t="s">
         <v>784</v>
       </c>
-      <c r="AA30" s="11" t="s">
+      <c r="AA30" t="s">
         <v>801</v>
       </c>
-      <c r="AB30" s="11" t="s">
+      <c r="AB30" t="s">
         <v>65</v>
       </c>
-      <c r="AC30" s="11" t="s">
+      <c r="AC30" t="s">
         <v>461</v>
       </c>
-      <c r="AD30" s="11" t="s">
+      <c r="AD30" t="s">
         <v>179</v>
       </c>
-      <c r="AE30" s="11" t="s">
+      <c r="AE30" t="s">
         <v>462</v>
       </c>
-      <c r="AF30" s="11" t="s">
+      <c r="AF30" t="s">
         <v>802</v>
       </c>
-      <c r="AG30" s="11" t="s">
+      <c r="AG30" t="s">
         <v>803</v>
       </c>
-      <c r="AH30" s="11" t="s">
+      <c r="AH30" t="s">
         <v>649</v>
       </c>
-      <c r="AI30" s="11" t="s">
+      <c r="AI30" t="s">
         <v>804</v>
       </c>
-      <c r="AJ30" s="11" t="s">
+      <c r="AJ30" t="s">
         <v>184</v>
       </c>
-      <c r="AK30" s="11" t="s">
+      <c r="AK30" t="s">
         <v>805</v>
       </c>
-      <c r="AL30" s="11" t="s">
+      <c r="AL30" t="s">
         <v>806</v>
       </c>
-      <c r="AM30" s="11" t="s">
+      <c r="AM30" t="s">
         <v>298</v>
       </c>
-      <c r="AN30" s="11" t="s">
+      <c r="AN30" t="s">
         <v>495</v>
       </c>
-      <c r="AO30" s="11" t="s">
+      <c r="AO30" t="s">
         <v>807</v>
       </c>
-      <c r="AP30" s="11" t="s">
+      <c r="AP30" t="s">
         <v>808</v>
       </c>
-      <c r="AQ30" s="11" t="s">
+      <c r="AQ30" t="s">
         <v>809</v>
       </c>
-      <c r="AR30" s="11" t="s">
+      <c r="AR30" t="s">
         <v>80</v>
       </c>
-      <c r="AS30" s="11" t="s">
+      <c r="AS30" t="s">
         <v>810</v>
       </c>
-      <c r="AT30" s="11" t="s">
+      <c r="AT30" t="s">
         <v>542</v>
       </c>
-      <c r="AU30" s="11" t="s">
+      <c r="AU30" t="s">
         <v>811</v>
       </c>
-      <c r="AV30" s="11" t="s">
+      <c r="AV30" t="s">
         <v>812</v>
       </c>
-      <c r="AW30" s="11" t="s">
+      <c r="AW30" t="s">
         <v>813</v>
       </c>
-      <c r="AX30" s="11" t="s">
+      <c r="AX30" t="s">
         <v>814</v>
       </c>
       <c r="AY30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AZ30" s="11" t="s">
+      <c r="AZ30" t="s">
         <v>524</v>
       </c>
       <c r="BA30" s="3" t="s">
@@ -7489,7 +7635,7 @@
       </c>
     </row>
     <row r="31" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B31" s="10">
+      <c r="B31" s="6">
         <v>44796</v>
       </c>
       <c r="C31" t="s">
@@ -7537,91 +7683,91 @@
       <c r="T31" t="s">
         <v>169</v>
       </c>
-      <c r="V31" s="11" t="s">
+      <c r="V31" t="s">
         <v>742</v>
       </c>
-      <c r="W31" s="11" t="s">
+      <c r="W31" t="s">
         <v>820</v>
       </c>
-      <c r="X31" s="11" t="s">
+      <c r="X31" t="s">
         <v>743</v>
       </c>
-      <c r="Y31" s="11" t="s">
+      <c r="Y31" t="s">
         <v>236</v>
       </c>
-      <c r="Z31" s="11" t="s">
+      <c r="Z31" t="s">
         <v>383</v>
       </c>
-      <c r="AA31" s="11" t="s">
+      <c r="AA31" t="s">
         <v>487</v>
       </c>
-      <c r="AB31" s="11" t="s">
+      <c r="AB31" t="s">
         <v>109</v>
       </c>
-      <c r="AC31" s="11" t="s">
+      <c r="AC31" t="s">
         <v>435</v>
       </c>
-      <c r="AD31" s="11" t="s">
+      <c r="AD31" t="s">
         <v>436</v>
       </c>
-      <c r="AE31" s="11" t="s">
+      <c r="AE31" t="s">
         <v>821</v>
       </c>
-      <c r="AF31" s="11" t="s">
+      <c r="AF31" t="s">
         <v>410</v>
       </c>
-      <c r="AG31" s="11" t="s">
+      <c r="AG31" t="s">
         <v>822</v>
       </c>
-      <c r="AH31" s="11" t="s">
+      <c r="AH31" t="s">
         <v>823</v>
       </c>
-      <c r="AI31" s="11" t="s">
+      <c r="AI31" t="s">
         <v>244</v>
       </c>
-      <c r="AJ31" s="11" t="s">
+      <c r="AJ31" t="s">
         <v>824</v>
       </c>
-      <c r="AK31" s="11" t="s">
+      <c r="AK31" t="s">
         <v>597</v>
       </c>
       <c r="AL31">
         <v>999</v>
       </c>
-      <c r="AM31" s="11" t="s">
+      <c r="AM31" t="s">
         <v>186</v>
       </c>
-      <c r="AN31" s="11" t="s">
+      <c r="AN31" t="s">
         <v>600</v>
       </c>
-      <c r="AO31" s="11" t="s">
+      <c r="AO31" t="s">
         <v>249</v>
       </c>
-      <c r="AP31" s="11" t="s">
+      <c r="AP31" t="s">
         <v>825</v>
       </c>
-      <c r="AQ31" s="11" t="s">
+      <c r="AQ31" t="s">
         <v>826</v>
       </c>
-      <c r="AR31" s="11" t="s">
+      <c r="AR31" t="s">
         <v>123</v>
       </c>
-      <c r="AS31" s="11" t="s">
+      <c r="AS31" t="s">
         <v>827</v>
       </c>
-      <c r="AT31" s="11" t="s">
+      <c r="AT31" t="s">
         <v>753</v>
       </c>
-      <c r="AU31" s="11" t="s">
+      <c r="AU31" t="s">
         <v>828</v>
       </c>
-      <c r="AV31" s="11" t="s">
+      <c r="AV31" t="s">
         <v>829</v>
       </c>
-      <c r="AW31" s="11" t="s">
+      <c r="AW31" t="s">
         <v>256</v>
       </c>
-      <c r="AX31" s="11" t="s">
+      <c r="AX31" t="s">
         <v>830</v>
       </c>
       <c r="AY31" s="3" t="s">
@@ -7635,7 +7781,7 @@
       </c>
     </row>
     <row r="32" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B32" s="10">
+      <c r="B32" s="6">
         <v>44802</v>
       </c>
       <c r="C32" t="s">
@@ -7683,70 +7829,70 @@
       <c r="T32" t="s">
         <v>96</v>
       </c>
-      <c r="V32" s="11" t="s">
+      <c r="V32" t="s">
         <v>742</v>
       </c>
-      <c r="W32" s="11" t="s">
+      <c r="W32" t="s">
         <v>844</v>
       </c>
-      <c r="X32" s="11" t="s">
+      <c r="X32" t="s">
         <v>843</v>
       </c>
-      <c r="Y32" s="11" t="s">
+      <c r="Y32" t="s">
         <v>842</v>
       </c>
-      <c r="Z32" s="11" t="s">
+      <c r="Z32" t="s">
         <v>486</v>
       </c>
-      <c r="AA32" s="11" t="s">
+      <c r="AA32" t="s">
         <v>487</v>
       </c>
-      <c r="AB32" s="11" t="s">
+      <c r="AB32" t="s">
         <v>109</v>
       </c>
-      <c r="AC32" s="11" t="s">
+      <c r="AC32" t="s">
         <v>435</v>
       </c>
-      <c r="AD32" s="11" t="s">
+      <c r="AD32" t="s">
         <v>841</v>
       </c>
-      <c r="AE32" s="11" t="s">
+      <c r="AE32" t="s">
         <v>840</v>
       </c>
-      <c r="AF32" s="11" t="s">
+      <c r="AF32" t="s">
         <v>839</v>
       </c>
-      <c r="AG32" s="11" t="s">
+      <c r="AG32" t="s">
         <v>838</v>
       </c>
-      <c r="AH32" s="11" t="s">
+      <c r="AH32" t="s">
         <v>845</v>
       </c>
-      <c r="AI32" s="11" t="s">
+      <c r="AI32" t="s">
         <v>244</v>
       </c>
-      <c r="AJ32" s="11" t="s">
+      <c r="AJ32" t="s">
         <v>846</v>
       </c>
-      <c r="AK32" s="11" t="s">
+      <c r="AK32" t="s">
         <v>597</v>
       </c>
       <c r="AL32">
         <v>999</v>
       </c>
-      <c r="AM32" s="11" t="s">
+      <c r="AM32" t="s">
         <v>414</v>
       </c>
-      <c r="AN32" s="11" t="s">
+      <c r="AN32" t="s">
         <v>600</v>
       </c>
       <c r="AO32">
         <v>999</v>
       </c>
-      <c r="AP32" s="11" t="s">
+      <c r="AP32" t="s">
         <v>445</v>
       </c>
-      <c r="AQ32" s="11" t="s">
+      <c r="AQ32" t="s">
         <v>79</v>
       </c>
       <c r="AR32">
@@ -7755,19 +7901,19 @@
       <c r="AS32">
         <v>999</v>
       </c>
-      <c r="AT32" s="11" t="s">
+      <c r="AT32" t="s">
         <v>753</v>
       </c>
-      <c r="AU32" s="11" t="s">
+      <c r="AU32" t="s">
         <v>501</v>
       </c>
-      <c r="AV32" s="11" t="s">
+      <c r="AV32" t="s">
         <v>847</v>
       </c>
-      <c r="AW32" s="11" t="s">
+      <c r="AW32" t="s">
         <v>848</v>
       </c>
-      <c r="AX32" s="11" t="s">
+      <c r="AX32" t="s">
         <v>99</v>
       </c>
       <c r="AY32" s="3" t="s">
@@ -7777,8 +7923,154 @@
         <v>849</v>
       </c>
     </row>
+    <row r="33" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B33" s="6">
+        <v>44802</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>476</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>867</v>
+      </c>
+      <c r="H33" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33">
+        <v>24.5</v>
+      </c>
+      <c r="J33">
+        <v>47.5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>868</v>
+      </c>
+      <c r="L33" t="s">
+        <v>869</v>
+      </c>
+      <c r="N33" t="s">
+        <v>738</v>
+      </c>
+      <c r="O33" t="s">
+        <v>870</v>
+      </c>
+      <c r="P33" t="s">
+        <v>871</v>
+      </c>
+      <c r="S33" t="s">
+        <v>872</v>
+      </c>
+      <c r="T33" t="s">
+        <v>286</v>
+      </c>
+      <c r="V33" t="s">
+        <v>873</v>
+      </c>
+      <c r="W33" t="s">
+        <v>874</v>
+      </c>
+      <c r="X33" t="s">
+        <v>875</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>876</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>877</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>878</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>879</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>880</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>881</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>882</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>883</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>884</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>885</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>886</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>600</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>887</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>889</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>890</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>891</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>892</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>893</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>894</v>
+      </c>
+      <c r="AY33" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ33" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="BA33" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
     <row r="34" spans="2:53" x14ac:dyDescent="0.2">
-      <c r="B34" s="10">
+      <c r="B34" s="6">
         <v>44802</v>
       </c>
       <c r="C34" t="s">
@@ -7916,11 +8208,157 @@
       <c r="AY34" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="AZ34" s="11" t="s">
+      <c r="AZ34" t="s">
         <v>865</v>
       </c>
       <c r="BA34" s="3" t="s">
         <v>864</v>
+      </c>
+    </row>
+    <row r="35" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B35" s="6">
+        <v>44806</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>476</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>895</v>
+      </c>
+      <c r="H35" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35">
+        <v>24.5</v>
+      </c>
+      <c r="J35">
+        <v>47.5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>851</v>
+      </c>
+      <c r="L35" t="s">
+        <v>852</v>
+      </c>
+      <c r="N35" t="s">
+        <v>738</v>
+      </c>
+      <c r="O35" t="s">
+        <v>896</v>
+      </c>
+      <c r="P35" t="s">
+        <v>898</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>897</v>
+      </c>
+      <c r="T35" t="s">
+        <v>169</v>
+      </c>
+      <c r="V35" t="s">
+        <v>665</v>
+      </c>
+      <c r="W35" t="s">
+        <v>899</v>
+      </c>
+      <c r="X35" t="s">
+        <v>900</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z35">
+        <v>999</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>901</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>902</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>904</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>903</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>905</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>649</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>906</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>907</v>
+      </c>
+      <c r="AL35">
+        <v>999</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>908</v>
+      </c>
+      <c r="AN35">
+        <v>999</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>909</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>910</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>911</v>
+      </c>
+      <c r="AS35">
+        <v>999</v>
+      </c>
+      <c r="AT35">
+        <v>999</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>912</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>913</v>
+      </c>
+      <c r="AW35">
+        <v>999</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>914</v>
+      </c>
+      <c r="AY35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ35">
+        <v>999</v>
+      </c>
+      <c r="BA35" s="3">
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAF5715-6C7E-481D-ACBB-B40780B30E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D615CE1-0E5C-4F23-A58C-A2F39A81574E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="974">
   <si>
     <t>ID</t>
   </si>
@@ -2784,6 +2784,183 @@
   </si>
   <si>
     <t>zwīege</t>
+  </si>
+  <si>
+    <t>III_14_0025</t>
+  </si>
+  <si>
+    <t>p-Z</t>
+  </si>
+  <si>
+    <t>Feldkirch</t>
+  </si>
+  <si>
+    <t>Joh. Stoffel</t>
+  </si>
+  <si>
+    <t>Heiligberg</t>
+  </si>
+  <si>
+    <t>Omais</t>
+  </si>
+  <si>
+    <t>Brummera</t>
+  </si>
+  <si>
+    <t>a Dissel</t>
+  </si>
+  <si>
+    <t>Entaratsch</t>
+  </si>
+  <si>
+    <t>Gugumra</t>
+  </si>
+  <si>
+    <t>Gockel, Hahna</t>
+  </si>
+  <si>
+    <t>Galrüawa</t>
+  </si>
+  <si>
+    <t>Mora</t>
+  </si>
+  <si>
+    <t>Pfetter, Gatti</t>
+  </si>
+  <si>
+    <t>Peitsch</t>
+  </si>
+  <si>
+    <t>Grüselbeera</t>
+  </si>
+  <si>
+    <t>a Goffa</t>
+  </si>
+  <si>
+    <t>Schtrecknodel</t>
+  </si>
+  <si>
+    <t>Dassla</t>
+  </si>
+  <si>
+    <t>zwiga, pfropfa</t>
+  </si>
+  <si>
+    <t>Gaiss</t>
+  </si>
+  <si>
+    <t>Holder</t>
+  </si>
+  <si>
+    <t>Schwogertochter, Sohnsfraui</t>
+  </si>
+  <si>
+    <t>III_14_0026</t>
+  </si>
+  <si>
+    <t>a Licht, [?]reicha</t>
+  </si>
+  <si>
+    <t>Brummera (w)</t>
+  </si>
+  <si>
+    <t>Agerschta, [?]a[?]el (w)</t>
+  </si>
+  <si>
+    <t>Flattrmüs (w)</t>
+  </si>
+  <si>
+    <t>Ähmt, sächl.</t>
+  </si>
+  <si>
+    <t>Kukummer (w)</t>
+  </si>
+  <si>
+    <t>Gackel, Güllar (m)</t>
+  </si>
+  <si>
+    <t>Hartäpfel (m)</t>
+  </si>
+  <si>
+    <t>Katzarolli (m)</t>
+  </si>
+  <si>
+    <t>Scharermüs (w)</t>
+  </si>
+  <si>
+    <t>Mohra (d´, w)</t>
+  </si>
+  <si>
+    <t>schempfa, ankotza</t>
+  </si>
+  <si>
+    <t>Grüßala, sächl.</t>
+  </si>
+  <si>
+    <t>Gofa</t>
+  </si>
+  <si>
+    <t>Daßla, sächl</t>
+  </si>
+  <si>
+    <t>Hollera (m)</t>
+  </si>
+  <si>
+    <t>Sohnsfraü (w)</t>
+  </si>
+  <si>
+    <t>III_14_0027</t>
+  </si>
+  <si>
+    <t>p-W</t>
+  </si>
+  <si>
+    <t>L. Richert</t>
+  </si>
+  <si>
+    <t>Sulz O.E.</t>
+  </si>
+  <si>
+    <t>die Lehrerin u. die Schülerinnen</t>
+  </si>
+  <si>
+    <t>Gugummera (w)</t>
+  </si>
+  <si>
+    <t>Guckel, Hüahn (m, s)</t>
+  </si>
+  <si>
+    <t>Hewâmm (w)</t>
+  </si>
+  <si>
+    <t>Scharnialer (m)</t>
+  </si>
+  <si>
+    <t>Rossgalriawla (s)</t>
+  </si>
+  <si>
+    <t>Riema, Geissla (m, w)</t>
+  </si>
+  <si>
+    <t>brialla</t>
+  </si>
+  <si>
+    <t>Spârt (m)</t>
+  </si>
+  <si>
+    <t>Grüselsbeera (w)</t>
+  </si>
+  <si>
+    <t>St&lt;r&gt;ecknodel (w)</t>
+  </si>
+  <si>
+    <t>Dassla, Dallerla (s)</t>
+  </si>
+  <si>
+    <t>Hâfa (m)</t>
+  </si>
+  <si>
+    <t>Suhnsfrâi (w)</t>
   </si>
 </sst>
 </file>
@@ -3200,10 +3377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB35"/>
+  <dimension ref="A1:BB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BB35" sqref="BB35"/>
+    <sheetView tabSelected="1" topLeftCell="AQ7" workbookViewId="0">
+      <selection activeCell="BA38" sqref="BA38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8062,7 +8239,7 @@
       <c r="AY33" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="AZ33" s="7" t="s">
+      <c r="AZ33" t="s">
         <v>865</v>
       </c>
       <c r="BA33" s="3" t="s">
@@ -8142,6 +8319,9 @@
       <c r="AB34" t="s">
         <v>109</v>
       </c>
+      <c r="AC34" t="s">
+        <v>408</v>
+      </c>
       <c r="AD34" t="s">
         <v>436</v>
       </c>
@@ -8359,6 +8539,453 @@
       </c>
       <c r="BA35" s="3">
         <v>999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B36" s="6">
+        <v>44810</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>476</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>915</v>
+      </c>
+      <c r="H36" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36">
+        <v>24.5</v>
+      </c>
+      <c r="J36">
+        <v>47.5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>916</v>
+      </c>
+      <c r="L36" t="s">
+        <v>917</v>
+      </c>
+      <c r="N36" t="s">
+        <v>738</v>
+      </c>
+      <c r="O36" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>919</v>
+      </c>
+      <c r="T36" t="s">
+        <v>286</v>
+      </c>
+      <c r="V36" t="s">
+        <v>920</v>
+      </c>
+      <c r="W36" t="s">
+        <v>781</v>
+      </c>
+      <c r="X36" t="s">
+        <v>921</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>922</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>784</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>923</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>924</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>925</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>649</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>516</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>789</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>926</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>927</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>928</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>929</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>930</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>931</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>932</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>933</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AY36" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="AZ36" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="BA36" s="3" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="37" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B37" s="6">
+        <v>44810</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>938</v>
+      </c>
+      <c r="H37" t="s">
+        <v>163</v>
+      </c>
+      <c r="I37">
+        <v>25.1</v>
+      </c>
+      <c r="J37">
+        <v>47.55</v>
+      </c>
+      <c r="K37" t="s">
+        <v>916</v>
+      </c>
+      <c r="L37" t="s">
+        <v>917</v>
+      </c>
+      <c r="N37" t="s">
+        <v>738</v>
+      </c>
+      <c r="O37" t="s">
+        <v>167</v>
+      </c>
+      <c r="P37">
+        <v>999</v>
+      </c>
+      <c r="Q37">
+        <v>999</v>
+      </c>
+      <c r="R37">
+        <v>999</v>
+      </c>
+      <c r="S37">
+        <v>999</v>
+      </c>
+      <c r="T37">
+        <v>999</v>
+      </c>
+      <c r="V37" t="s">
+        <v>722</v>
+      </c>
+      <c r="W37" t="s">
+        <v>939</v>
+      </c>
+      <c r="X37" t="s">
+        <v>940</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>941</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>942</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>943</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>944</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>945</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>858</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>946</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>947</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>948</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>859</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>949</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>600</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>416</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>950</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>951</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>952</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>501</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>953</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY37" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AZ37" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="BA37" s="3" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="38" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B38" s="6">
+        <v>44810</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>476</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>956</v>
+      </c>
+      <c r="H38" t="s">
+        <v>163</v>
+      </c>
+      <c r="I38">
+        <v>24.5</v>
+      </c>
+      <c r="J38">
+        <v>47.5</v>
+      </c>
+      <c r="K38" t="s">
+        <v>957</v>
+      </c>
+      <c r="L38" t="s">
+        <v>738</v>
+      </c>
+      <c r="N38" t="s">
+        <v>738</v>
+      </c>
+      <c r="O38" t="s">
+        <v>93</v>
+      </c>
+      <c r="P38" t="s">
+        <v>958</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>959</v>
+      </c>
+      <c r="T38" t="s">
+        <v>169</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="X38" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z38" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA38" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB38" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC38" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="AD38" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE38" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="AF38" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG38" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="AH38" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="AI38" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ38" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK38" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="AL38" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="AM38" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN38" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="AO38" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="AP38" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="AQ38" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="AR38" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="AS38" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="AT38" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU38" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="AV38" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="AW38" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="AX38" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY38" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="AZ38" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="BA38" s="3" t="s">
+        <v>973</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D615CE1-0E5C-4F23-A58C-A2F39A81574E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A53A6A-D44E-4AFE-BFB0-F822B013B87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1035">
   <si>
     <t>ID</t>
   </si>
@@ -2961,6 +2961,189 @@
   </si>
   <si>
     <t>Suhnsfrâi (w)</t>
+  </si>
+  <si>
+    <t>III_14_0028</t>
+  </si>
+  <si>
+    <t>q-b</t>
+  </si>
+  <si>
+    <t>Bergholz</t>
+  </si>
+  <si>
+    <t>Emil Eberhardt</t>
+  </si>
+  <si>
+    <t>Sonnenberg</t>
+  </si>
+  <si>
+    <t>Josef Ra[?}er</t>
+  </si>
+  <si>
+    <t>Antagåger (m)</t>
+  </si>
+  <si>
+    <t>Gogummra (w)</t>
+  </si>
+  <si>
+    <t>Håhna, Guggel (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Hewåmme (w)</t>
+  </si>
+  <si>
+    <t>Schaarmüs (w)</t>
+  </si>
+  <si>
+    <t>Gahlriawa (w)</t>
+  </si>
+  <si>
+    <t>zammaracha</t>
+  </si>
+  <si>
+    <t>schelten, briala, gaifra</t>
+  </si>
+  <si>
+    <t>Schpåtz (m)</t>
+  </si>
+  <si>
+    <t>Guhfa (w)</t>
+  </si>
+  <si>
+    <t>strickanohdel (w)</t>
+  </si>
+  <si>
+    <t>Tassla (s)</t>
+  </si>
+  <si>
+    <t>Håhfa</t>
+  </si>
+  <si>
+    <t>zwihga</t>
+  </si>
+  <si>
+    <t>Holdra, Hollra (w)</t>
+  </si>
+  <si>
+    <t>III_14_0029</t>
+  </si>
+  <si>
+    <t>q-c</t>
+  </si>
+  <si>
+    <t>Isenheim</t>
+  </si>
+  <si>
+    <t>Ober Elsass</t>
+  </si>
+  <si>
+    <t>G. [Bumhardt]</t>
+  </si>
+  <si>
+    <t>Spittelsberg</t>
+  </si>
+  <si>
+    <t>[?] Stockach</t>
+  </si>
+  <si>
+    <t>Aagerscht</t>
+  </si>
+  <si>
+    <t>Mucka, Mugga</t>
+  </si>
+  <si>
+    <t>Gugummer ([?])</t>
+  </si>
+  <si>
+    <t>Hů̄ana, Gückel, Huän</t>
+  </si>
+  <si>
+    <t>Hebůamm</t>
+  </si>
+  <si>
+    <t>Scharmusler</t>
+  </si>
+  <si>
+    <t>Roßgalrüab</t>
+  </si>
+  <si>
+    <t>Schpåtz</t>
+  </si>
+  <si>
+    <t>Krüselbeera</t>
+  </si>
+  <si>
+    <t>Tasla, s´Te&lt;a&gt;llerla</t>
+  </si>
+  <si>
+    <t>Hůafa</t>
+  </si>
+  <si>
+    <t>Sohnsfrai</t>
+  </si>
+  <si>
+    <t>III_14_0030</t>
+  </si>
+  <si>
+    <t>q-d</t>
+  </si>
+  <si>
+    <t>Rädersheim</t>
+  </si>
+  <si>
+    <t>O. Elsass</t>
+  </si>
+  <si>
+    <t>Jllig</t>
+  </si>
+  <si>
+    <t>Karlsruhe i/B</t>
+  </si>
+  <si>
+    <t>des 8. Schuljahres</t>
+  </si>
+  <si>
+    <t>Omeisen</t>
+  </si>
+  <si>
+    <t>Agerst</t>
+  </si>
+  <si>
+    <t>Gugummere</t>
+  </si>
+  <si>
+    <t>Gückel, Hühn</t>
+  </si>
+  <si>
+    <t>Scharmieler</t>
+  </si>
+  <si>
+    <t>Galrüeble</t>
+  </si>
+  <si>
+    <t>Riĕme</t>
+  </si>
+  <si>
+    <t>Grüsălă</t>
+  </si>
+  <si>
+    <t>Guv</t>
+  </si>
+  <si>
+    <t>Schüssala, Tāsslĕ</t>
+  </si>
+  <si>
+    <t>Hāfe</t>
+  </si>
+  <si>
+    <t>zwiega, pfropfa</t>
+  </si>
+  <si>
+    <t>Holdre</t>
+  </si>
+  <si>
+    <t>Sunsfroi</t>
   </si>
 </sst>
 </file>
@@ -3377,10 +3560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB38"/>
+  <dimension ref="A1:BB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ7" workbookViewId="0">
-      <selection activeCell="BA38" sqref="BA38"/>
+    <sheetView tabSelected="1" topLeftCell="AQ13" workbookViewId="0">
+      <selection activeCell="BA41" sqref="BA41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8680,7 +8863,7 @@
       <c r="AY36" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="AZ36" s="7" t="s">
+      <c r="AZ36" t="s">
         <v>936</v>
       </c>
       <c r="BA36" s="3" t="s">
@@ -8832,7 +9015,7 @@
       <c r="AY37" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AZ37" s="7" t="s">
+      <c r="AZ37" t="s">
         <v>954</v>
       </c>
       <c r="BA37" s="3" t="s">
@@ -8891,101 +9074,551 @@
       <c r="U38" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="V38" s="7" t="s">
+      <c r="V38" t="s">
         <v>722</v>
       </c>
-      <c r="W38" s="7" t="s">
+      <c r="W38" t="s">
         <v>312</v>
       </c>
-      <c r="X38" s="7" t="s">
+      <c r="X38" t="s">
         <v>313</v>
       </c>
-      <c r="Y38" s="7" t="s">
+      <c r="Y38" t="s">
         <v>236</v>
       </c>
-      <c r="Z38" s="7" t="s">
+      <c r="Z38" t="s">
         <v>237</v>
       </c>
-      <c r="AA38" s="7" t="s">
+      <c r="AA38" t="s">
         <v>487</v>
       </c>
-      <c r="AB38" s="7" t="s">
+      <c r="AB38" t="s">
         <v>109</v>
       </c>
-      <c r="AC38" s="7" t="s">
+      <c r="AC38" t="s">
         <v>408</v>
       </c>
-      <c r="AD38" s="7" t="s">
+      <c r="AD38" t="s">
         <v>436</v>
       </c>
-      <c r="AE38" s="7" t="s">
+      <c r="AE38" t="s">
         <v>961</v>
       </c>
-      <c r="AF38" s="7" t="s">
+      <c r="AF38" t="s">
         <v>241</v>
       </c>
-      <c r="AG38" s="7" t="s">
+      <c r="AG38" t="s">
         <v>962</v>
       </c>
-      <c r="AH38" s="7" t="s">
+      <c r="AH38" t="s">
         <v>963</v>
       </c>
-      <c r="AI38" s="7" t="s">
+      <c r="AI38" t="s">
         <v>244</v>
       </c>
-      <c r="AJ38" s="7" t="s">
+      <c r="AJ38" t="s">
         <v>115</v>
       </c>
-      <c r="AK38" s="7" t="s">
+      <c r="AK38" t="s">
         <v>964</v>
       </c>
-      <c r="AL38" s="7" t="s">
+      <c r="AL38" t="s">
         <v>965</v>
       </c>
-      <c r="AM38" s="7" t="s">
+      <c r="AM38" t="s">
         <v>247</v>
       </c>
-      <c r="AN38" s="7" t="s">
+      <c r="AN38" t="s">
         <v>966</v>
       </c>
-      <c r="AO38" s="7" t="s">
+      <c r="AO38" t="s">
         <v>600</v>
       </c>
-      <c r="AP38" s="7" t="s">
+      <c r="AP38" t="s">
         <v>416</v>
       </c>
-      <c r="AQ38" s="7" t="s">
+      <c r="AQ38" t="s">
         <v>967</v>
       </c>
-      <c r="AR38" s="7" t="s">
+      <c r="AR38" t="s">
         <v>968</v>
       </c>
-      <c r="AS38" s="7" t="s">
+      <c r="AS38" t="s">
         <v>969</v>
       </c>
-      <c r="AT38" s="7" t="s">
+      <c r="AT38" t="s">
         <v>324</v>
       </c>
-      <c r="AU38" s="7" t="s">
+      <c r="AU38" t="s">
         <v>970</v>
       </c>
-      <c r="AV38" s="7" t="s">
+      <c r="AV38" t="s">
         <v>971</v>
       </c>
-      <c r="AW38" s="7" t="s">
+      <c r="AW38" t="s">
         <v>972</v>
       </c>
-      <c r="AX38" s="7" t="s">
+      <c r="AX38" t="s">
         <v>194</v>
       </c>
       <c r="AY38" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="AZ38" s="7" t="s">
+      <c r="AZ38" t="s">
         <v>865</v>
       </c>
       <c r="BA38" s="3" t="s">
         <v>973</v>
+      </c>
+    </row>
+    <row r="39" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B39" s="6">
+        <v>44811</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>476</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>974</v>
+      </c>
+      <c r="H39" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39">
+        <v>24.5</v>
+      </c>
+      <c r="J39">
+        <v>47.5</v>
+      </c>
+      <c r="K39" t="s">
+        <v>975</v>
+      </c>
+      <c r="L39" t="s">
+        <v>976</v>
+      </c>
+      <c r="N39" t="s">
+        <v>738</v>
+      </c>
+      <c r="O39" t="s">
+        <v>93</v>
+      </c>
+      <c r="P39" t="s">
+        <v>977</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>978</v>
+      </c>
+      <c r="T39" t="s">
+        <v>286</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="V39" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="W39" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="X39" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y39" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z39" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="AB39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC39" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="AD39" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE39" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="AF39" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG39" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="AH39" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="AI39" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ39" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK39" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="AL39" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="AM39" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="AN39" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="AO39" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP39" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ39" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="AR39" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="AS39" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="AT39" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU39" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="AV39" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="AW39" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="AX39" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="AY39" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="AZ39" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="BA39" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="40" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B40" s="6">
+        <v>44811</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>476</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>995</v>
+      </c>
+      <c r="H40" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40">
+        <v>24.5</v>
+      </c>
+      <c r="J40">
+        <v>47.5</v>
+      </c>
+      <c r="K40" t="s">
+        <v>996</v>
+      </c>
+      <c r="L40" t="s">
+        <v>997</v>
+      </c>
+      <c r="N40" t="s">
+        <v>738</v>
+      </c>
+      <c r="O40" t="s">
+        <v>998</v>
+      </c>
+      <c r="P40" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R40" t="s">
+        <v>1001</v>
+      </c>
+      <c r="T40" t="s">
+        <v>96</v>
+      </c>
+      <c r="V40" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="W40" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="X40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y40" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z40" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AA40" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC40" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AD40" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE40" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AF40" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="AG40" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AH40" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AI40" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ40" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK40" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AL40" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AM40" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN40" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="AO40" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP40" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="AQ40" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="AR40" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AS40" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AT40" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="AU40" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="AV40" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AW40" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AX40" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AY40" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ40" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="BA40" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="41" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B41" s="6">
+        <v>44811</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>476</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41">
+        <v>24.5</v>
+      </c>
+      <c r="J41">
+        <v>47.5</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M41" t="s">
+        <v>853</v>
+      </c>
+      <c r="N41" t="s">
+        <v>738</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1017</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>1019</v>
+      </c>
+      <c r="T41" t="s">
+        <v>96</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="V41" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="W41" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="X41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y41" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z41" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AA41" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB41" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="AC41" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD41" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE41" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AF41" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG41" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AH41" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI41" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ41" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK41" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AL41" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AM41" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN41" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="AO41" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AP41" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ41" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="AR41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS41" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AT41" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AU41" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="AV41" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AW41" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AX41" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="AY41" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ41" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="BA41" s="3" t="s">
+        <v>1034</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A53A6A-D44E-4AFE-BFB0-F822B013B87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751B1DCB-653D-449D-A1DB-C130C1D758DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="1124">
   <si>
     <t>ID</t>
   </si>
@@ -3145,12 +3145,310 @@
   <si>
     <t>Sunsfroi</t>
   </si>
+  <si>
+    <t>III_14_0031</t>
+  </si>
+  <si>
+    <t>q-e</t>
+  </si>
+  <si>
+    <t>Ungersheim</t>
+  </si>
+  <si>
+    <t>Luise Ringel</t>
+  </si>
+  <si>
+    <t>Frankfurt a M.</t>
+  </si>
+  <si>
+    <t>die Schüler und Schülerinnen</t>
+  </si>
+  <si>
+    <t>Ohmeis (w)</t>
+  </si>
+  <si>
+    <t>Agerscht (w)</t>
+  </si>
+  <si>
+    <t>Antaratscher (m)</t>
+  </si>
+  <si>
+    <t>Gückel (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Katze-Rolli (m)</t>
+  </si>
+  <si>
+    <t>Scharmüs (w), Scharmialer (m)</t>
+  </si>
+  <si>
+    <t>Gaalriawla (w)</t>
+  </si>
+  <si>
+    <t>Pflüüm (w)</t>
+  </si>
+  <si>
+    <t>Spātz (m)</t>
+  </si>
+  <si>
+    <t>Stricknodla (w)</t>
+  </si>
+  <si>
+    <t>Dassla (s), Dallerla (s)</t>
+  </si>
+  <si>
+    <t>Hāfa (m)</t>
+  </si>
+  <si>
+    <t>aigla, zwiega</t>
+  </si>
+  <si>
+    <t>Schwegerdochter (w)</t>
+  </si>
+  <si>
+    <t>III_14_0032</t>
+  </si>
+  <si>
+    <t>q-f</t>
+  </si>
+  <si>
+    <t>Merxheim</t>
+  </si>
+  <si>
+    <t>Fr. Haag</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>durch die Schüler</t>
+  </si>
+  <si>
+    <t>L[?]cht (w)</t>
+  </si>
+  <si>
+    <r>
+      <t>Agė</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rscht (m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Muck[e] (w)</t>
+  </si>
+  <si>
+    <t>Gugummre (w)</t>
+  </si>
+  <si>
+    <t>Giggel (m), Huen (w)</t>
+  </si>
+  <si>
+    <t>Hardöpfel (m)</t>
+  </si>
+  <si>
+    <t>Scharmieler (m)</t>
+  </si>
+  <si>
+    <t>Kohlrabi (w)</t>
+  </si>
+  <si>
+    <t>Riemen (w)</t>
+  </si>
+  <si>
+    <t>schelte</t>
+  </si>
+  <si>
+    <t>Gruselbeer (w)</t>
+  </si>
+  <si>
+    <t>Tässle (s)</t>
+  </si>
+  <si>
+    <t>Suhnsfrau (w)</t>
+  </si>
+  <si>
+    <t>III_14_0033</t>
+  </si>
+  <si>
+    <t>q-a</t>
+  </si>
+  <si>
+    <t>Pulversheim</t>
+  </si>
+  <si>
+    <t>bei Ensisheim</t>
+  </si>
+  <si>
+    <t>Frau Hoffmann</t>
+  </si>
+  <si>
+    <t>Hartmannsw[?]ller</t>
+  </si>
+  <si>
+    <t>Lehrer und Schüler</t>
+  </si>
+  <si>
+    <t>Omeis (m)</t>
+  </si>
+  <si>
+    <t>Brummbeer (w)</t>
+  </si>
+  <si>
+    <t>Gugum̄ra (w)</t>
+  </si>
+  <si>
+    <t>Gügel (m), Hüan (w)</t>
+  </si>
+  <si>
+    <t>Hewåmm (w)</t>
+  </si>
+  <si>
+    <t>Schāmüs (w)</t>
+  </si>
+  <si>
+    <t>Gālriewlā (s)</t>
+  </si>
+  <si>
+    <t>åbrielā</t>
+  </si>
+  <si>
+    <t>Schbaz (m)</t>
+  </si>
+  <si>
+    <t>Stregnodel (w)</t>
+  </si>
+  <si>
+    <t>Dāsselā, Dällerlā (s)</t>
+  </si>
+  <si>
+    <t>Håfa (m)</t>
+  </si>
+  <si>
+    <t>Suhnsfroi (w)</t>
+  </si>
+  <si>
+    <t>III_14_0034</t>
+  </si>
+  <si>
+    <t>q-g</t>
+  </si>
+  <si>
+    <t>Ensisheim-Grube</t>
+  </si>
+  <si>
+    <t>Kurt Walter</t>
+  </si>
+  <si>
+    <t>Freiburg i. B.</t>
+  </si>
+  <si>
+    <t>u. Mitarbeiterin M. S[?]ffert</t>
+  </si>
+  <si>
+    <t>Omais (w)</t>
+  </si>
+  <si>
+    <t>Līcht (w)</t>
+  </si>
+  <si>
+    <r>
+      <t>Brumb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>eere (w)</t>
+    </r>
+  </si>
+  <si>
+    <t>Hatzle (w)</t>
+  </si>
+  <si>
+    <t>Rātscher (m)</t>
+  </si>
+  <si>
+    <t>Flä&lt;e&gt;dermüs (w)</t>
+  </si>
+  <si>
+    <t>Mugg (w)</t>
+  </si>
+  <si>
+    <t>Gugummr (w)</t>
+  </si>
+  <si>
+    <t>Buttä (w)</t>
+  </si>
+  <si>
+    <t>Håhnă (m), Huen (w)</t>
+  </si>
+  <si>
+    <t>Hārtepfl (m)</t>
+  </si>
+  <si>
+    <t>Schār[?]ialr (m)</t>
+  </si>
+  <si>
+    <t>Gālruelvă (w)</t>
+  </si>
+  <si>
+    <t>Riāmă (m)</t>
+  </si>
+  <si>
+    <t>Pflümă (w)</t>
+  </si>
+  <si>
+    <t>schāltă</t>
+  </si>
+  <si>
+    <t>Schpårt (m)</t>
+  </si>
+  <si>
+    <t>Grüslbeeră (w)</t>
+  </si>
+  <si>
+    <t>Stricknodl (w)</t>
+  </si>
+  <si>
+    <t>Daslă (s), Suggub (w)</t>
+  </si>
+  <si>
+    <t>Håfă (m)</t>
+  </si>
+  <si>
+    <t>zwiigă</t>
+  </si>
+  <si>
+    <t>Holdră (w)</t>
+  </si>
+  <si>
+    <t>Gschwei (w)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3193,6 +3491,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3560,10 +3864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB41"/>
+  <dimension ref="A1:BB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ13" workbookViewId="0">
-      <selection activeCell="BA41" sqref="BA41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9223,97 +9527,97 @@
       <c r="U39" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="V39" s="7" t="s">
+      <c r="V39" t="s">
         <v>722</v>
       </c>
-      <c r="W39" s="7" t="s">
+      <c r="W39" t="s">
         <v>312</v>
       </c>
-      <c r="X39" s="7" t="s">
+      <c r="X39" t="s">
         <v>313</v>
       </c>
-      <c r="Y39" s="7" t="s">
+      <c r="Y39" t="s">
         <v>236</v>
       </c>
-      <c r="Z39" s="7" t="s">
+      <c r="Z39" t="s">
         <v>237</v>
       </c>
-      <c r="AA39" s="7" t="s">
+      <c r="AA39" t="s">
         <v>980</v>
       </c>
-      <c r="AB39" s="7" t="s">
+      <c r="AB39" t="s">
         <v>109</v>
       </c>
-      <c r="AC39" s="7" t="s">
+      <c r="AC39" t="s">
         <v>408</v>
       </c>
-      <c r="AD39" s="7" t="s">
+      <c r="AD39" t="s">
         <v>436</v>
       </c>
-      <c r="AE39" s="7" t="s">
+      <c r="AE39" t="s">
         <v>981</v>
       </c>
-      <c r="AF39" s="7" t="s">
+      <c r="AF39" t="s">
         <v>410</v>
       </c>
-      <c r="AG39" s="7" t="s">
+      <c r="AG39" t="s">
         <v>982</v>
       </c>
-      <c r="AH39" s="7" t="s">
+      <c r="AH39" t="s">
         <v>983</v>
       </c>
-      <c r="AI39" s="7" t="s">
+      <c r="AI39" t="s">
         <v>244</v>
       </c>
-      <c r="AJ39" s="7" t="s">
+      <c r="AJ39" t="s">
         <v>115</v>
       </c>
-      <c r="AK39" s="7" t="s">
+      <c r="AK39" t="s">
         <v>984</v>
       </c>
-      <c r="AL39" s="7" t="s">
+      <c r="AL39" t="s">
         <v>985</v>
       </c>
-      <c r="AM39" s="7" t="s">
+      <c r="AM39" t="s">
         <v>986</v>
       </c>
-      <c r="AN39" s="7" t="s">
+      <c r="AN39" t="s">
         <v>600</v>
       </c>
-      <c r="AO39" s="7" t="s">
+      <c r="AO39" t="s">
         <v>249</v>
       </c>
-      <c r="AP39" s="7" t="s">
+      <c r="AP39" t="s">
         <v>250</v>
       </c>
-      <c r="AQ39" s="7" t="s">
+      <c r="AQ39" t="s">
         <v>987</v>
       </c>
-      <c r="AR39" s="7" t="s">
+      <c r="AR39" t="s">
         <v>988</v>
       </c>
-      <c r="AS39" s="7" t="s">
+      <c r="AS39" t="s">
         <v>731</v>
       </c>
-      <c r="AT39" s="7" t="s">
+      <c r="AT39" t="s">
         <v>989</v>
       </c>
-      <c r="AU39" s="7" t="s">
+      <c r="AU39" t="s">
         <v>990</v>
       </c>
-      <c r="AV39" s="7" t="s">
+      <c r="AV39" t="s">
         <v>991</v>
       </c>
-      <c r="AW39" s="7" t="s">
+      <c r="AW39" t="s">
         <v>992</v>
       </c>
-      <c r="AX39" s="7" t="s">
+      <c r="AX39" t="s">
         <v>993</v>
       </c>
       <c r="AY39" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="AZ39" s="7" t="s">
+      <c r="AZ39" t="s">
         <v>994</v>
       </c>
       <c r="BA39" s="3" t="s">
@@ -9372,97 +9676,97 @@
       <c r="T40" t="s">
         <v>96</v>
       </c>
-      <c r="V40" s="7" t="s">
+      <c r="V40" t="s">
         <v>665</v>
       </c>
-      <c r="W40" s="7" t="s">
+      <c r="W40" t="s">
         <v>781</v>
       </c>
-      <c r="X40" s="7" t="s">
+      <c r="X40" t="s">
         <v>62</v>
       </c>
-      <c r="Y40" s="7" t="s">
+      <c r="Y40" t="s">
         <v>175</v>
       </c>
-      <c r="Z40" s="7" t="s">
+      <c r="Z40" t="s">
         <v>1002</v>
       </c>
-      <c r="AA40" s="7" t="s">
+      <c r="AA40" t="s">
         <v>785</v>
       </c>
-      <c r="AB40" s="7" t="s">
+      <c r="AB40" t="s">
         <v>65</v>
       </c>
-      <c r="AC40" s="7" t="s">
+      <c r="AC40" t="s">
         <v>1003</v>
       </c>
-      <c r="AD40" s="7" t="s">
+      <c r="AD40" t="s">
         <v>670</v>
       </c>
-      <c r="AE40" s="7" t="s">
+      <c r="AE40" t="s">
         <v>1004</v>
       </c>
-      <c r="AF40" s="7" t="s">
+      <c r="AF40" t="s">
         <v>535</v>
       </c>
-      <c r="AG40" s="7" t="s">
+      <c r="AG40" t="s">
         <v>1005</v>
       </c>
-      <c r="AH40" s="7" t="s">
+      <c r="AH40" t="s">
         <v>1006</v>
       </c>
-      <c r="AI40" s="7" t="s">
+      <c r="AI40" t="s">
         <v>341</v>
       </c>
-      <c r="AJ40" s="7" t="s">
+      <c r="AJ40" t="s">
         <v>184</v>
       </c>
-      <c r="AK40" s="7" t="s">
+      <c r="AK40" t="s">
         <v>1007</v>
       </c>
-      <c r="AL40" s="7" t="s">
+      <c r="AL40" t="s">
         <v>1008</v>
       </c>
-      <c r="AM40" s="7" t="s">
+      <c r="AM40" t="s">
         <v>216</v>
       </c>
-      <c r="AN40" s="7" t="s">
+      <c r="AN40" t="s">
         <v>495</v>
       </c>
-      <c r="AO40" s="7" t="s">
+      <c r="AO40" t="s">
         <v>77</v>
       </c>
-      <c r="AP40" s="7" t="s">
+      <c r="AP40" t="s">
         <v>497</v>
       </c>
-      <c r="AQ40" s="7" t="s">
+      <c r="AQ40" t="s">
         <v>417</v>
       </c>
-      <c r="AR40" s="7" t="s">
+      <c r="AR40" t="s">
         <v>1009</v>
       </c>
-      <c r="AS40" s="7" t="s">
+      <c r="AS40" t="s">
         <v>1010</v>
       </c>
-      <c r="AT40" s="7" t="s">
+      <c r="AT40" t="s">
         <v>542</v>
       </c>
-      <c r="AU40" s="7" t="s">
+      <c r="AU40" t="s">
         <v>501</v>
       </c>
-      <c r="AV40" s="7" t="s">
+      <c r="AV40" t="s">
         <v>1011</v>
       </c>
-      <c r="AW40" s="7" t="s">
+      <c r="AW40" t="s">
         <v>1012</v>
       </c>
-      <c r="AX40" s="7" t="s">
+      <c r="AX40" t="s">
         <v>1032</v>
       </c>
       <c r="AY40" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="AZ40" s="7" t="s">
+      <c r="AZ40" t="s">
         <v>524</v>
       </c>
       <c r="BA40" s="3" t="s">
@@ -9524,101 +9828,700 @@
       <c r="U41" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="V41" s="7" t="s">
+      <c r="V41" t="s">
         <v>1021</v>
       </c>
-      <c r="W41" s="7" t="s">
+      <c r="W41" t="s">
         <v>203</v>
       </c>
-      <c r="X41" s="7" t="s">
+      <c r="X41" t="s">
         <v>288</v>
       </c>
-      <c r="Y41" s="7" t="s">
+      <c r="Y41" t="s">
         <v>175</v>
       </c>
-      <c r="Z41" s="7" t="s">
+      <c r="Z41" t="s">
         <v>1022</v>
       </c>
-      <c r="AA41" s="7" t="s">
+      <c r="AA41" t="s">
         <v>383</v>
       </c>
-      <c r="AB41" s="7" t="s">
+      <c r="AB41" t="s">
         <v>669</v>
       </c>
-      <c r="AC41" s="7" t="s">
+      <c r="AC41" t="s">
         <v>461</v>
       </c>
-      <c r="AD41" s="7" t="s">
+      <c r="AD41" t="s">
         <v>670</v>
       </c>
-      <c r="AE41" s="7" t="s">
+      <c r="AE41" t="s">
         <v>1023</v>
       </c>
-      <c r="AF41" s="7" t="s">
+      <c r="AF41" t="s">
         <v>338</v>
       </c>
-      <c r="AG41" s="7" t="s">
+      <c r="AG41" t="s">
         <v>1024</v>
       </c>
-      <c r="AH41" s="7" t="s">
+      <c r="AH41" t="s">
         <v>114</v>
       </c>
-      <c r="AI41" s="7" t="s">
+      <c r="AI41" t="s">
         <v>341</v>
       </c>
-      <c r="AJ41" s="7" t="s">
+      <c r="AJ41" t="s">
         <v>184</v>
       </c>
-      <c r="AK41" s="7" t="s">
+      <c r="AK41" t="s">
         <v>1025</v>
       </c>
-      <c r="AL41" s="7" t="s">
+      <c r="AL41" t="s">
         <v>1026</v>
       </c>
-      <c r="AM41" s="7" t="s">
+      <c r="AM41" t="s">
         <v>298</v>
       </c>
-      <c r="AN41" s="7" t="s">
+      <c r="AN41" t="s">
         <v>495</v>
       </c>
-      <c r="AO41" s="7" t="s">
+      <c r="AO41" t="s">
         <v>1027</v>
       </c>
-      <c r="AP41" s="7" t="s">
+      <c r="AP41" t="s">
         <v>362</v>
       </c>
-      <c r="AQ41" s="7" t="s">
+      <c r="AQ41" t="s">
         <v>363</v>
       </c>
-      <c r="AR41" s="7" t="s">
+      <c r="AR41" t="s">
         <v>80</v>
       </c>
-      <c r="AS41" s="7" t="s">
+      <c r="AS41" t="s">
         <v>1028</v>
       </c>
-      <c r="AT41" s="7" t="s">
+      <c r="AT41" t="s">
         <v>1029</v>
       </c>
-      <c r="AU41" s="7" t="s">
+      <c r="AU41" t="s">
         <v>501</v>
       </c>
-      <c r="AV41" s="7" t="s">
+      <c r="AV41" t="s">
         <v>1030</v>
       </c>
-      <c r="AW41" s="7" t="s">
+      <c r="AW41" t="s">
         <v>1031</v>
       </c>
-      <c r="AX41" s="7" t="s">
+      <c r="AX41" t="s">
         <v>367</v>
       </c>
       <c r="AY41" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="AZ41" s="7" t="s">
+      <c r="AZ41" t="s">
         <v>1033</v>
       </c>
       <c r="BA41" s="3" t="s">
         <v>1034</v>
+      </c>
+    </row>
+    <row r="42" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B42" s="6">
+        <v>44812</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>476</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H42" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42">
+        <v>24.5</v>
+      </c>
+      <c r="J42">
+        <v>47.5</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N42" t="s">
+        <v>738</v>
+      </c>
+      <c r="O42" t="s">
+        <v>377</v>
+      </c>
+      <c r="P42" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>1039</v>
+      </c>
+      <c r="T42" t="s">
+        <v>96</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="V42" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="W42" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y42" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z42" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AA42" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AB42" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC42" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD42" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE42" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AF42" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG42" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AH42" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AI42" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ42" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AK42" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AL42" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AM42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN42" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="AO42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP42" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AQ42" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR42" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AS42" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="AT42" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AU42" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AV42" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AW42" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AX42" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AY42" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AZ42" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="BA42" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="43" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B43" s="6">
+        <v>44812</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>476</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H43" t="s">
+        <v>163</v>
+      </c>
+      <c r="I43">
+        <v>24.5</v>
+      </c>
+      <c r="J43">
+        <v>47.5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N43" t="s">
+        <v>738</v>
+      </c>
+      <c r="O43" t="s">
+        <v>93</v>
+      </c>
+      <c r="P43" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>1059</v>
+      </c>
+      <c r="T43" t="s">
+        <v>96</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="W43" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y43" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z43" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB43" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="AC43" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AD43" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE43" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AF43" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG43" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AH43" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="AI43" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AJ43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK43" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AL43" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AM43" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN43" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="AO43" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AP43" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="AQ43" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AR43" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS43" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AT43" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AU43" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="AV43" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AW43" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX43" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY43" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AZ43" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="BA43" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="44" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B44" s="6">
+        <v>44812</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>476</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44">
+        <v>24.5</v>
+      </c>
+      <c r="J44">
+        <v>47.5</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1076</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1077</v>
+      </c>
+      <c r="N44" t="s">
+        <v>738</v>
+      </c>
+      <c r="O44" t="s">
+        <v>377</v>
+      </c>
+      <c r="P44" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>1079</v>
+      </c>
+      <c r="T44" t="s">
+        <v>169</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="V44" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="W44" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="X44" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="Y44" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z44" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA44" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB44" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC44" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD44" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE44" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AF44" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG44" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AH44" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AI44" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ44" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK44" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AL44" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AM44" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN44" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="AO44" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP44" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="AQ44" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AR44" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AS44" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="AT44" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AU44" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AV44" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AW44" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AX44" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY44" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ44" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="BA44" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="45" spans="2:53" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="6">
+        <v>44812</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>476</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H45" t="s">
+        <v>163</v>
+      </c>
+      <c r="I45">
+        <v>25</v>
+      </c>
+      <c r="J45">
+        <v>47.5</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1096</v>
+      </c>
+      <c r="N45" t="s">
+        <v>738</v>
+      </c>
+      <c r="O45" t="s">
+        <v>167</v>
+      </c>
+      <c r="P45" t="s">
+        <v>1097</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>1098</v>
+      </c>
+      <c r="T45" t="s">
+        <v>286</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="W45" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Y45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z45" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AB45" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AC45" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AD45" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE45" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AF45" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AG45" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AH45" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AI45" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AJ45" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK45" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AL45" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AM45" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO45" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AP45" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AQ45" s="7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AR45" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AS45" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AT45" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AU45" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AV45" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AW45" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AX45" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AY45" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ45" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="BA45" s="3" t="s">
+        <v>1123</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751B1DCB-653D-449D-A1DB-C130C1D758DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A971DAC-3190-4784-B51D-7268635CBFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="1158">
   <si>
     <t>ID</t>
   </si>
@@ -3443,12 +3443,114 @@
   <si>
     <t>Gschwei (w)</t>
   </si>
+  <si>
+    <t>III_14_0035</t>
+  </si>
+  <si>
+    <t>Ensisheim</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>[?]ittenweier [???] Lahr Baden</t>
+  </si>
+  <si>
+    <t>Licht, [??]gesschahes, i</t>
+  </si>
+  <si>
+    <t>Bromera &lt;n = helles a&gt;</t>
+  </si>
+  <si>
+    <t>Hatzel</t>
+  </si>
+  <si>
+    <t>Ratscher &lt;helles a&gt;</t>
+  </si>
+  <si>
+    <t>Ahmd gespr. Ahmd &lt;helles a&gt;</t>
+  </si>
+  <si>
+    <t>Gückel</t>
+  </si>
+  <si>
+    <t>Hardapfel</t>
+  </si>
+  <si>
+    <t>Scharwiehler &lt;?&gt;</t>
+  </si>
+  <si>
+    <t>Riemm [?] gespr.</t>
+  </si>
+  <si>
+    <t>Spetz</t>
+  </si>
+  <si>
+    <t>III_14_0037</t>
+  </si>
+  <si>
+    <t>q-i</t>
+  </si>
+  <si>
+    <t>Hirzfelden</t>
+  </si>
+  <si>
+    <t>Stöffler</t>
+  </si>
+  <si>
+    <t>Diedelsheim</t>
+  </si>
+  <si>
+    <t>Kr. Karlsruhe</t>
+  </si>
+  <si>
+    <t>Ågscht (w)</t>
+  </si>
+  <si>
+    <t>Fladermūs (w)</t>
+  </si>
+  <si>
+    <t>Mucke (w)</t>
+  </si>
+  <si>
+    <t>Gukummer (w)</t>
+  </si>
+  <si>
+    <t>Gückl (m), Huen (w)</t>
+  </si>
+  <si>
+    <t>Schar[?]la</t>
+  </si>
+  <si>
+    <t>Mȯr (w)</t>
+  </si>
+  <si>
+    <t>schalde</t>
+  </si>
+  <si>
+    <t>Spåtz (m)</t>
+  </si>
+  <si>
+    <t>Grüsele (s)</t>
+  </si>
+  <si>
+    <t>Guw (s)</t>
+  </si>
+  <si>
+    <t>Dasle (s), Dallerle (s)</t>
+  </si>
+  <si>
+    <t>Erdhåfe (m)</t>
+  </si>
+  <si>
+    <t>Sohnsfroi (w)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3491,12 +3593,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3864,10 +3960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB45"/>
+  <dimension ref="A1:BB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9977,97 +10073,97 @@
       <c r="U42" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="V42" s="7" t="s">
+      <c r="V42" t="s">
         <v>1041</v>
       </c>
-      <c r="W42" s="7" t="s">
+      <c r="W42" t="s">
         <v>312</v>
       </c>
-      <c r="X42" s="7" t="s">
+      <c r="X42" t="s">
         <v>313</v>
       </c>
-      <c r="Y42" s="7" t="s">
+      <c r="Y42" t="s">
         <v>236</v>
       </c>
-      <c r="Z42" s="7" t="s">
+      <c r="Z42" t="s">
         <v>1042</v>
       </c>
-      <c r="AA42" s="7" t="s">
+      <c r="AA42" t="s">
         <v>1043</v>
       </c>
-      <c r="AB42" s="7" t="s">
+      <c r="AB42" t="s">
         <v>109</v>
       </c>
-      <c r="AC42" s="7" t="s">
+      <c r="AC42" t="s">
         <v>435</v>
       </c>
-      <c r="AD42" s="7" t="s">
+      <c r="AD42" t="s">
         <v>490</v>
       </c>
-      <c r="AE42" s="7" t="s">
+      <c r="AE42" t="s">
         <v>437</v>
       </c>
-      <c r="AF42" s="7" t="s">
+      <c r="AF42" t="s">
         <v>410</v>
       </c>
-      <c r="AG42" s="7" t="s">
+      <c r="AG42" t="s">
         <v>1044</v>
       </c>
-      <c r="AH42" s="7" t="s">
+      <c r="AH42" t="s">
         <v>440</v>
       </c>
-      <c r="AI42" s="7" t="s">
+      <c r="AI42" t="s">
         <v>596</v>
       </c>
-      <c r="AJ42" s="7" t="s">
+      <c r="AJ42" t="s">
         <v>1045</v>
       </c>
-      <c r="AK42" s="7" t="s">
+      <c r="AK42" t="s">
         <v>1046</v>
       </c>
-      <c r="AL42" s="7" t="s">
+      <c r="AL42" t="s">
         <v>1047</v>
       </c>
-      <c r="AM42" s="7" t="s">
+      <c r="AM42" t="s">
         <v>247</v>
       </c>
-      <c r="AN42" s="7" t="s">
+      <c r="AN42" t="s">
         <v>600</v>
       </c>
-      <c r="AO42" s="7" t="s">
+      <c r="AO42" t="s">
         <v>249</v>
       </c>
-      <c r="AP42" s="7" t="s">
+      <c r="AP42" t="s">
         <v>1048</v>
       </c>
-      <c r="AQ42" s="7" t="s">
+      <c r="AQ42" t="s">
         <v>79</v>
       </c>
-      <c r="AR42" s="7" t="s">
+      <c r="AR42" t="s">
         <v>1049</v>
       </c>
-      <c r="AS42" s="7" t="s">
+      <c r="AS42" t="s">
         <v>731</v>
       </c>
-      <c r="AT42" s="7" t="s">
+      <c r="AT42" t="s">
         <v>753</v>
       </c>
-      <c r="AU42" s="7" t="s">
+      <c r="AU42" t="s">
         <v>1050</v>
       </c>
-      <c r="AV42" s="7" t="s">
+      <c r="AV42" t="s">
         <v>1051</v>
       </c>
-      <c r="AW42" s="7" t="s">
+      <c r="AW42" t="s">
         <v>1052</v>
       </c>
-      <c r="AX42" s="7" t="s">
+      <c r="AX42" t="s">
         <v>1053</v>
       </c>
       <c r="AY42" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AZ42" s="7" t="s">
+      <c r="AZ42" t="s">
         <v>865</v>
       </c>
       <c r="BA42" s="3" t="s">
@@ -10126,97 +10222,97 @@
       <c r="U43" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="V43" s="7" t="s">
+      <c r="V43" t="s">
         <v>588</v>
       </c>
-      <c r="W43" s="7" t="s">
+      <c r="W43" t="s">
         <v>1061</v>
       </c>
-      <c r="X43" s="7" t="s">
+      <c r="X43" t="s">
         <v>431</v>
       </c>
-      <c r="Y43" s="7" t="s">
+      <c r="Y43" t="s">
         <v>236</v>
       </c>
-      <c r="Z43" s="7" t="s">
+      <c r="Z43" t="s">
         <v>1062</v>
       </c>
-      <c r="AA43" s="7" t="s">
+      <c r="AA43" t="s">
         <v>487</v>
       </c>
-      <c r="AB43" s="7" t="s">
+      <c r="AB43" t="s">
         <v>745</v>
       </c>
-      <c r="AC43" s="7" t="s">
+      <c r="AC43" t="s">
         <v>1063</v>
       </c>
-      <c r="AD43" s="7" t="s">
+      <c r="AD43" t="s">
         <v>490</v>
       </c>
-      <c r="AE43" s="7" t="s">
+      <c r="AE43" t="s">
         <v>1064</v>
       </c>
-      <c r="AF43" s="7" t="s">
+      <c r="AF43" t="s">
         <v>695</v>
       </c>
-      <c r="AG43" s="7" t="s">
+      <c r="AG43" t="s">
         <v>1065</v>
       </c>
-      <c r="AH43" s="7" t="s">
+      <c r="AH43" t="s">
         <v>595</v>
       </c>
-      <c r="AI43" s="7" t="s">
+      <c r="AI43" t="s">
         <v>1066</v>
       </c>
-      <c r="AJ43" s="7" t="s">
+      <c r="AJ43" t="s">
         <v>115</v>
       </c>
-      <c r="AK43" s="7" t="s">
+      <c r="AK43" t="s">
         <v>1067</v>
       </c>
-      <c r="AL43" s="7" t="s">
+      <c r="AL43" t="s">
         <v>1068</v>
       </c>
-      <c r="AM43" s="7" t="s">
+      <c r="AM43" t="s">
         <v>247</v>
       </c>
-      <c r="AN43" s="7" t="s">
+      <c r="AN43" t="s">
         <v>600</v>
       </c>
-      <c r="AO43" s="7" t="s">
+      <c r="AO43" t="s">
         <v>1069</v>
       </c>
-      <c r="AP43" s="7" t="s">
+      <c r="AP43" t="s">
         <v>445</v>
       </c>
-      <c r="AQ43" s="7" t="s">
+      <c r="AQ43" t="s">
         <v>1070</v>
       </c>
-      <c r="AR43" s="7" t="s">
+      <c r="AR43" t="s">
         <v>123</v>
       </c>
-      <c r="AS43" s="7" t="s">
+      <c r="AS43" t="s">
         <v>1071</v>
       </c>
-      <c r="AT43" s="7" t="s">
+      <c r="AT43" t="s">
         <v>753</v>
       </c>
-      <c r="AU43" s="7" t="s">
+      <c r="AU43" t="s">
         <v>631</v>
       </c>
-      <c r="AV43" s="7" t="s">
+      <c r="AV43" t="s">
         <v>1072</v>
       </c>
-      <c r="AW43" s="7" t="s">
+      <c r="AW43" t="s">
         <v>128</v>
       </c>
-      <c r="AX43" s="7" t="s">
+      <c r="AX43" t="s">
         <v>129</v>
       </c>
       <c r="AY43" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AZ43" s="7" t="s">
+      <c r="AZ43" t="s">
         <v>452</v>
       </c>
       <c r="BA43" s="3" t="s">
@@ -10278,97 +10374,97 @@
       <c r="U44" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="V44" s="7" t="s">
+      <c r="V44" t="s">
         <v>1081</v>
       </c>
-      <c r="W44" s="7" t="s">
+      <c r="W44" t="s">
         <v>430</v>
       </c>
-      <c r="X44" s="7" t="s">
+      <c r="X44" t="s">
         <v>1082</v>
       </c>
-      <c r="Y44" s="7" t="s">
+      <c r="Y44" t="s">
         <v>236</v>
       </c>
-      <c r="Z44" s="7" t="s">
+      <c r="Z44" t="s">
         <v>486</v>
       </c>
-      <c r="AA44" s="7" t="s">
+      <c r="AA44" t="s">
         <v>487</v>
       </c>
-      <c r="AB44" s="7" t="s">
+      <c r="AB44" t="s">
         <v>109</v>
       </c>
-      <c r="AC44" s="7" t="s">
+      <c r="AC44" t="s">
         <v>435</v>
       </c>
-      <c r="AD44" s="7" t="s">
+      <c r="AD44" t="s">
         <v>436</v>
       </c>
-      <c r="AE44" s="7" t="s">
+      <c r="AE44" t="s">
         <v>1083</v>
       </c>
-      <c r="AF44" s="7" t="s">
+      <c r="AF44" t="s">
         <v>241</v>
       </c>
-      <c r="AG44" s="7" t="s">
+      <c r="AG44" t="s">
         <v>1084</v>
       </c>
-      <c r="AH44" s="7" t="s">
+      <c r="AH44" t="s">
         <v>1085</v>
       </c>
-      <c r="AI44" s="7" t="s">
+      <c r="AI44" t="s">
         <v>244</v>
       </c>
-      <c r="AJ44" s="7" t="s">
+      <c r="AJ44" t="s">
         <v>115</v>
       </c>
-      <c r="AK44" s="7" t="s">
+      <c r="AK44" t="s">
         <v>1086</v>
       </c>
-      <c r="AL44" s="7" t="s">
+      <c r="AL44" t="s">
         <v>1087</v>
       </c>
-      <c r="AM44" s="7" t="s">
+      <c r="AM44" t="s">
         <v>247</v>
       </c>
-      <c r="AN44" s="7" t="s">
+      <c r="AN44" t="s">
         <v>600</v>
       </c>
-      <c r="AO44" s="7" t="s">
+      <c r="AO44" t="s">
         <v>249</v>
       </c>
-      <c r="AP44" s="7" t="s">
+      <c r="AP44" t="s">
         <v>445</v>
       </c>
-      <c r="AQ44" s="7" t="s">
+      <c r="AQ44" t="s">
         <v>1088</v>
       </c>
-      <c r="AR44" s="7" t="s">
+      <c r="AR44" t="s">
         <v>1089</v>
       </c>
-      <c r="AS44" s="7" t="s">
+      <c r="AS44" t="s">
         <v>827</v>
       </c>
-      <c r="AT44" s="7" t="s">
+      <c r="AT44" t="s">
         <v>753</v>
       </c>
-      <c r="AU44" s="7" t="s">
+      <c r="AU44" t="s">
         <v>1090</v>
       </c>
-      <c r="AV44" s="7" t="s">
+      <c r="AV44" t="s">
         <v>1091</v>
       </c>
-      <c r="AW44" s="7" t="s">
+      <c r="AW44" t="s">
         <v>1092</v>
       </c>
-      <c r="AX44" s="7" t="s">
+      <c r="AX44" t="s">
         <v>99</v>
       </c>
       <c r="AY44" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="AZ44" s="7" t="s">
+      <c r="AZ44" t="s">
         <v>865</v>
       </c>
       <c r="BA44" s="3" t="s">
@@ -10427,101 +10523,396 @@
       <c r="U45" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="V45" s="7" t="s">
+      <c r="V45" t="s">
         <v>1100</v>
       </c>
-      <c r="W45" s="7" t="s">
+      <c r="W45" t="s">
         <v>1101</v>
       </c>
-      <c r="X45" s="7" t="s">
+      <c r="X45" t="s">
         <v>1102</v>
       </c>
-      <c r="Y45" s="7" t="s">
+      <c r="Y45" t="s">
         <v>106</v>
       </c>
-      <c r="Z45" s="7" t="s">
+      <c r="Z45" t="s">
         <v>1103</v>
       </c>
-      <c r="AA45" s="7" t="s">
+      <c r="AA45" t="s">
         <v>1104</v>
       </c>
-      <c r="AB45" s="7" t="s">
+      <c r="AB45" t="s">
         <v>1105</v>
       </c>
-      <c r="AC45" s="7" t="s">
+      <c r="AC45" t="s">
         <v>1106</v>
       </c>
-      <c r="AD45" s="7" t="s">
+      <c r="AD45" t="s">
         <v>490</v>
       </c>
-      <c r="AE45" s="7" t="s">
+      <c r="AE45" t="s">
         <v>1107</v>
       </c>
-      <c r="AF45" s="7" t="s">
+      <c r="AF45" t="s">
         <v>1108</v>
       </c>
-      <c r="AG45" s="7" t="s">
+      <c r="AG45" t="s">
         <v>1109</v>
       </c>
-      <c r="AH45" s="7" t="s">
+      <c r="AH45" t="s">
         <v>440</v>
       </c>
-      <c r="AI45" s="7" t="s">
+      <c r="AI45" t="s">
         <v>1110</v>
       </c>
-      <c r="AJ45" s="7" t="s">
+      <c r="AJ45" t="s">
         <v>115</v>
       </c>
-      <c r="AK45" s="7" t="s">
+      <c r="AK45" t="s">
         <v>1111</v>
       </c>
-      <c r="AL45" s="7" t="s">
+      <c r="AL45" t="s">
         <v>1112</v>
       </c>
-      <c r="AM45" s="7" t="s">
+      <c r="AM45" t="s">
         <v>216</v>
       </c>
-      <c r="AN45" s="7" t="s">
+      <c r="AN45" t="s">
         <v>119</v>
       </c>
-      <c r="AO45" s="7" t="s">
+      <c r="AO45" t="s">
         <v>1113</v>
       </c>
-      <c r="AP45" s="7" t="s">
+      <c r="AP45" t="s">
         <v>1114</v>
       </c>
-      <c r="AQ45" s="7" t="s">
+      <c r="AQ45" t="s">
         <v>1115</v>
       </c>
-      <c r="AR45" s="7" t="s">
+      <c r="AR45" t="s">
         <v>1116</v>
       </c>
-      <c r="AS45" s="7" t="s">
+      <c r="AS45" t="s">
         <v>1117</v>
       </c>
-      <c r="AT45" s="7" t="s">
+      <c r="AT45" t="s">
         <v>753</v>
       </c>
-      <c r="AU45" s="7" t="s">
+      <c r="AU45" t="s">
         <v>1118</v>
       </c>
-      <c r="AV45" s="7" t="s">
+      <c r="AV45" t="s">
         <v>1119</v>
       </c>
-      <c r="AW45" s="7" t="s">
+      <c r="AW45" t="s">
         <v>1120</v>
       </c>
-      <c r="AX45" s="7" t="s">
+      <c r="AX45" t="s">
         <v>1121</v>
       </c>
       <c r="AY45" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="AZ45" s="7" t="s">
+      <c r="AZ45" t="s">
         <v>1122</v>
       </c>
       <c r="BA45" s="3" t="s">
         <v>1123</v>
+      </c>
+    </row>
+    <row r="46" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B46" s="6">
+        <v>44852</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>476</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H46" t="s">
+        <v>163</v>
+      </c>
+      <c r="I46">
+        <v>25</v>
+      </c>
+      <c r="J46">
+        <v>47.5</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N46" t="s">
+        <v>738</v>
+      </c>
+      <c r="O46" t="s">
+        <v>93</v>
+      </c>
+      <c r="P46" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>1127</v>
+      </c>
+      <c r="T46">
+        <v>999</v>
+      </c>
+      <c r="V46">
+        <v>999</v>
+      </c>
+      <c r="W46" t="s">
+        <v>1128</v>
+      </c>
+      <c r="X46" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AB46">
+        <v>999</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>462</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AH46">
+        <v>999</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>748</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AL46">
+        <v>999</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AP46">
+        <v>999</v>
+      </c>
+      <c r="AQ46">
+        <v>999</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>771</v>
+      </c>
+      <c r="AT46">
+        <v>999</v>
+      </c>
+      <c r="AU46">
+        <v>999</v>
+      </c>
+      <c r="AV46">
+        <v>999</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX46">
+        <v>999</v>
+      </c>
+      <c r="AY46" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>936</v>
+      </c>
+      <c r="BA46" s="3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B47" s="6">
+        <v>44852</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
+        <v>476</v>
+      </c>
+      <c r="E47">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H47" t="s">
+        <v>163</v>
+      </c>
+      <c r="I47">
+        <v>25</v>
+      </c>
+      <c r="J47">
+        <v>47.5</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1139</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N47" t="s">
+        <v>738</v>
+      </c>
+      <c r="O47" t="s">
+        <v>167</v>
+      </c>
+      <c r="P47" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>1142</v>
+      </c>
+      <c r="R47" t="s">
+        <v>1143</v>
+      </c>
+      <c r="T47" t="s">
+        <v>96</v>
+      </c>
+      <c r="V47" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="W47" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="X47" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y47" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z47" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AA47" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB47" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AC47" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AD47" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE47" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AF47" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG47" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AH47" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AI47" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ47" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK47" s="7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AL47">
+        <v>999</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY47" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ47" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="BA47" s="3" t="s">
+        <v>1157</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A971DAC-3190-4784-B51D-7268635CBFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE2712A-BE00-4150-ACEE-0C099B89B7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="1257">
   <si>
     <t>ID</t>
   </si>
@@ -3544,6 +3544,303 @@
   </si>
   <si>
     <t>Sohnsfroi (w)</t>
+  </si>
+  <si>
+    <t>III_14_0038</t>
+  </si>
+  <si>
+    <t>q-K</t>
+  </si>
+  <si>
+    <t>Münchhausen</t>
+  </si>
+  <si>
+    <t>Friedrich Mahler</t>
+  </si>
+  <si>
+    <t>Sulzburg b. Müllheim Baden</t>
+  </si>
+  <si>
+    <t>Ägerschde (w)</t>
+  </si>
+  <si>
+    <t>Rätscher (m)</t>
+  </si>
+  <si>
+    <t>Ämmt (s)</t>
+  </si>
+  <si>
+    <t>Gügel (m), Hüen</t>
+  </si>
+  <si>
+    <t>Hėwamm (w)</t>
+  </si>
+  <si>
+    <t>Hardepfel &lt;ä&gt;(m)</t>
+  </si>
+  <si>
+    <t>Scharwieler (m)</t>
+  </si>
+  <si>
+    <t>Gǟlriewle (s)</t>
+  </si>
+  <si>
+    <t>Krüsali (s)</t>
+  </si>
+  <si>
+    <t>Schtricknodel (w)</t>
+  </si>
+  <si>
+    <t>Dassle, Dallerle</t>
+  </si>
+  <si>
+    <t>Ardhåfe (m)</t>
+  </si>
+  <si>
+    <t>zwīga</t>
+  </si>
+  <si>
+    <t>III_14_0039</t>
+  </si>
+  <si>
+    <t>q-Ka</t>
+  </si>
+  <si>
+    <t>Roggenhausen</t>
+  </si>
+  <si>
+    <t>Lud. Dallinger</t>
+  </si>
+  <si>
+    <t>Grohssachsen a. d. B.</t>
+  </si>
+  <si>
+    <t>Liecht</t>
+  </si>
+  <si>
+    <t>Bromre</t>
+  </si>
+  <si>
+    <t>Aagest</t>
+  </si>
+  <si>
+    <t>Antaratscha</t>
+  </si>
+  <si>
+    <t>Mugge</t>
+  </si>
+  <si>
+    <t>Gugumma</t>
+  </si>
+  <si>
+    <t>Güggl, Hüehn</t>
+  </si>
+  <si>
+    <t>Schārwieler</t>
+  </si>
+  <si>
+    <t>Gehlriewle</t>
+  </si>
+  <si>
+    <t>Gedde</t>
+  </si>
+  <si>
+    <t>Pflühme</t>
+  </si>
+  <si>
+    <t>schalte, g´scholte</t>
+  </si>
+  <si>
+    <t>Grüssele</t>
+  </si>
+  <si>
+    <t>Guuf</t>
+  </si>
+  <si>
+    <t>Schtricknoodl</t>
+  </si>
+  <si>
+    <t>Schissele</t>
+  </si>
+  <si>
+    <t>arde Gschirr</t>
+  </si>
+  <si>
+    <t>III_14_0040</t>
+  </si>
+  <si>
+    <t>q-l</t>
+  </si>
+  <si>
+    <t>Rumersheim</t>
+  </si>
+  <si>
+    <t>Sophia Gross</t>
+  </si>
+  <si>
+    <t>An a. Rh.</t>
+  </si>
+  <si>
+    <t>Kreis Rastatt</t>
+  </si>
+  <si>
+    <t>Brumbēĭre</t>
+  </si>
+  <si>
+    <t>Liicht (s)</t>
+  </si>
+  <si>
+    <t>Radscher (m)</t>
+  </si>
+  <si>
+    <t>Zweitschnitt (m), Ahmd (n)</t>
+  </si>
+  <si>
+    <t>Guckel (m), Hüĕhn (f)</t>
+  </si>
+  <si>
+    <t>Gugummre (f)</t>
+  </si>
+  <si>
+    <t>Flaadermüüs (f)</t>
+  </si>
+  <si>
+    <t>Aagerschdă (f)</t>
+  </si>
+  <si>
+    <t>Hebamm (f)</t>
+  </si>
+  <si>
+    <t>katzerolli (m)</t>
+  </si>
+  <si>
+    <t>Schaarmirler (m)</t>
+  </si>
+  <si>
+    <t>Gaalrīĕwli (n)</t>
+  </si>
+  <si>
+    <t>Mōur (f)</t>
+  </si>
+  <si>
+    <t>Rīĕme (m)</t>
+  </si>
+  <si>
+    <t>Pflüüme (f)</t>
+  </si>
+  <si>
+    <t>briele, schalde</t>
+  </si>
+  <si>
+    <t>Krüüselbēĭri (f)</t>
+  </si>
+  <si>
+    <t>Guufe (f)</t>
+  </si>
+  <si>
+    <t>Stricknoodle (f)</t>
+  </si>
+  <si>
+    <t>Koffeeschissle (f), Dallerli (m)</t>
+  </si>
+  <si>
+    <t>´s Depfi (n)</t>
+  </si>
+  <si>
+    <t>Geiss (f)</t>
+  </si>
+  <si>
+    <t>III_14_0041</t>
+  </si>
+  <si>
+    <t>q-n</t>
+  </si>
+  <si>
+    <t>Fessenheim</t>
+  </si>
+  <si>
+    <t>Amalus Ehrel</t>
+  </si>
+  <si>
+    <t>[Balschwiller]</t>
+  </si>
+  <si>
+    <t>Omeise (eni)</t>
+  </si>
+  <si>
+    <t>Licht (eni)</t>
+  </si>
+  <si>
+    <t>Brumbeere (eni)</t>
+  </si>
+  <si>
+    <t>Dissel (ein)</t>
+  </si>
+  <si>
+    <t>Gaste (eine)</t>
+  </si>
+  <si>
+    <t>Ratsch (en)</t>
+  </si>
+  <si>
+    <t>Fledamüs</t>
+  </si>
+  <si>
+    <t>Muck (eine)</t>
+  </si>
+  <si>
+    <t>Gugumer</t>
+  </si>
+  <si>
+    <t>Hagebutte</t>
+  </si>
+  <si>
+    <t>Gülla, Huhn</t>
+  </si>
+  <si>
+    <t>Kadoffel (die)</t>
+  </si>
+  <si>
+    <t>Rolli (ein)</t>
+  </si>
+  <si>
+    <t>Schamaus (ein)</t>
+  </si>
+  <si>
+    <t>More (eni)</t>
+  </si>
+  <si>
+    <t>Pfetter (eni)</t>
+  </si>
+  <si>
+    <t>Riemen (eni)</t>
+  </si>
+  <si>
+    <t>Pflaume (eni)</t>
+  </si>
+  <si>
+    <t>schelten</t>
+  </si>
+  <si>
+    <t>Spatz (eni)</t>
+  </si>
+  <si>
+    <t>Grüsselbeere (die)</t>
+  </si>
+  <si>
+    <t>Nadel (die)</t>
+  </si>
+  <si>
+    <t>Stricknadel (eni)</t>
+  </si>
+  <si>
+    <t>Dasse (eine)</t>
+  </si>
+  <si>
+    <t>Kachel (eni)</t>
+  </si>
+  <si>
+    <t>Geiss (eni)</t>
   </si>
 </sst>
 </file>
@@ -3960,10 +4257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB47"/>
+  <dimension ref="A1:BB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10818,52 +11115,52 @@
       <c r="T47" t="s">
         <v>96</v>
       </c>
-      <c r="V47" s="7" t="s">
+      <c r="V47" t="s">
         <v>588</v>
       </c>
-      <c r="W47" s="7" t="s">
+      <c r="W47" t="s">
         <v>820</v>
       </c>
-      <c r="X47" s="7" t="s">
+      <c r="X47" t="s">
         <v>743</v>
       </c>
-      <c r="Y47" s="7" t="s">
+      <c r="Y47" t="s">
         <v>236</v>
       </c>
-      <c r="Z47" s="7" t="s">
+      <c r="Z47" t="s">
         <v>1144</v>
       </c>
-      <c r="AA47" s="7" t="s">
+      <c r="AA47" t="s">
         <v>487</v>
       </c>
-      <c r="AB47" s="7" t="s">
+      <c r="AB47" t="s">
         <v>1145</v>
       </c>
-      <c r="AC47" s="7" t="s">
+      <c r="AC47" t="s">
         <v>1146</v>
       </c>
-      <c r="AD47" s="7" t="s">
+      <c r="AD47" t="s">
         <v>490</v>
       </c>
-      <c r="AE47" s="7" t="s">
+      <c r="AE47" t="s">
         <v>1147</v>
       </c>
-      <c r="AF47" s="7" t="s">
+      <c r="AF47" t="s">
         <v>695</v>
       </c>
-      <c r="AG47" s="7" t="s">
+      <c r="AG47" t="s">
         <v>1148</v>
       </c>
-      <c r="AH47" s="7" t="s">
+      <c r="AH47" t="s">
         <v>440</v>
       </c>
-      <c r="AI47" s="7" t="s">
+      <c r="AI47" t="s">
         <v>244</v>
       </c>
-      <c r="AJ47" s="7" t="s">
+      <c r="AJ47" t="s">
         <v>115</v>
       </c>
-      <c r="AK47" s="7" t="s">
+      <c r="AK47" t="s">
         <v>1149</v>
       </c>
       <c r="AL47">
@@ -10908,11 +11205,673 @@
       <c r="AY47" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="AZ47" s="7" t="s">
+      <c r="AZ47" t="s">
         <v>936</v>
       </c>
       <c r="BA47" s="3" t="s">
         <v>1157</v>
+      </c>
+    </row>
+    <row r="48" spans="2:53" x14ac:dyDescent="0.2">
+      <c r="B48" s="6">
+        <v>44855</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>476</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H48" t="s">
+        <v>163</v>
+      </c>
+      <c r="I48">
+        <v>25</v>
+      </c>
+      <c r="J48">
+        <v>47.5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1160</v>
+      </c>
+      <c r="N48" t="s">
+        <v>738</v>
+      </c>
+      <c r="O48" t="s">
+        <v>377</v>
+      </c>
+      <c r="P48" t="s">
+        <v>1161</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>1162</v>
+      </c>
+      <c r="T48" t="s">
+        <v>169</v>
+      </c>
+      <c r="V48" t="s">
+        <v>588</v>
+      </c>
+      <c r="W48" t="s">
+        <v>430</v>
+      </c>
+      <c r="X48" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>856</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>753</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AY48" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="49" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B49" s="6">
+        <v>44855</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>476</v>
+      </c>
+      <c r="E49">
+        <v>11</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H49" t="s">
+        <v>163</v>
+      </c>
+      <c r="I49">
+        <v>25</v>
+      </c>
+      <c r="J49">
+        <v>47.5</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1177</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N49" t="s">
+        <v>738</v>
+      </c>
+      <c r="O49" t="s">
+        <v>167</v>
+      </c>
+      <c r="P49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>1180</v>
+      </c>
+      <c r="T49" t="s">
+        <v>96</v>
+      </c>
+      <c r="V49" t="s">
+        <v>761</v>
+      </c>
+      <c r="W49" t="s">
+        <v>1181</v>
+      </c>
+      <c r="X49" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>463</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>748</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>651</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>392</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY49" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="50" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B50" s="6">
+        <v>44855</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>476</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50">
+        <v>25.1</v>
+      </c>
+      <c r="J50">
+        <v>47.5</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1200</v>
+      </c>
+      <c r="N50" t="s">
+        <v>738</v>
+      </c>
+      <c r="O50" t="s">
+        <v>261</v>
+      </c>
+      <c r="P50" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>1202</v>
+      </c>
+      <c r="R50" t="s">
+        <v>1203</v>
+      </c>
+      <c r="T50" t="s">
+        <v>96</v>
+      </c>
+      <c r="V50" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="W50" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="X50" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="Y50" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z50" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AA50" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AB50" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AC50" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AD50" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AE50" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AF50" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="AG50" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AH50" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AI50" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ50" s="7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AK50" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AL50" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AM50" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AN50" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO50" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AP50" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AQ50" s="7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AR50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS50" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AT50" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AU50" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AV50" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AW50" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AX50" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="AY50" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="51" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B51" s="6">
+        <v>44855</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>476</v>
+      </c>
+      <c r="E51">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H51" t="s">
+        <v>163</v>
+      </c>
+      <c r="I51">
+        <v>25.1</v>
+      </c>
+      <c r="J51">
+        <v>47.5</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1228</v>
+      </c>
+      <c r="N51" t="s">
+        <v>738</v>
+      </c>
+      <c r="O51" t="s">
+        <v>377</v>
+      </c>
+      <c r="P51" t="s">
+        <v>1229</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>1230</v>
+      </c>
+      <c r="T51" t="s">
+        <v>286</v>
+      </c>
+      <c r="V51" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="W51" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="X51" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Y51" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="Z51" s="7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AA51" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AB51" s="7" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AC51" s="7" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AD51" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE51" s="7" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AF51" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AG51" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AH51" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI51" s="7" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AJ51" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AK51" s="7" t="s">
+        <v>1244</v>
+      </c>
+      <c r="AL51">
+        <v>999</v>
+      </c>
+      <c r="AM51" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AN51" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AO51" s="7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AP51" s="7" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AQ51" s="7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AR51" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AS51" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AT51" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AU51" s="7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="AV51" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AW51" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AX51" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY51" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="52" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B52" s="6">
+        <v>44855</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B53" s="6">
+        <v>44855</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B54" s="6">
+        <v>44855</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B55" s="6">
+        <v>44855</v>
+      </c>
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B56" s="6">
+        <v>44855</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="57" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B57" s="6">
+        <v>44855</v>
+      </c>
+      <c r="C57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B58" s="6">
+        <v>44855</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B59" s="6">
+        <v>44855</v>
+      </c>
+      <c r="C59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="60" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B60" s="6">
+        <v>44855</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DWA_KB.xlsx
+++ b/Data/DWA_KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE2712A-BE00-4150-ACEE-0C099B89B7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67FE420-8B83-4810-A0B9-5DE0832F921D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11445" yWindow="330" windowWidth="17115" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="1307">
   <si>
     <t>ID</t>
   </si>
@@ -3841,6 +3841,156 @@
   </si>
   <si>
     <t>Geiss (eni)</t>
+  </si>
+  <si>
+    <t>III_14_0042</t>
+  </si>
+  <si>
+    <t>q-o</t>
+  </si>
+  <si>
+    <t>Zienken</t>
+  </si>
+  <si>
+    <t>Müllheim</t>
+  </si>
+  <si>
+    <t>Ph. Weidenhauer</t>
+  </si>
+  <si>
+    <t>Lörrach</t>
+  </si>
+  <si>
+    <t>Ph. Weidenhauser</t>
+  </si>
+  <si>
+    <t>Liich</t>
+  </si>
+  <si>
+    <t>Brummbeeri</t>
+  </si>
+  <si>
+    <t>Diaxle</t>
+  </si>
+  <si>
+    <t>Egerschte</t>
+  </si>
+  <si>
+    <t>Ente-Rätsch</t>
+  </si>
+  <si>
+    <t>Fledermus</t>
+  </si>
+  <si>
+    <t>Fliage</t>
+  </si>
+  <si>
+    <t>Öhmd</t>
+  </si>
+  <si>
+    <t>Gugum̅ere</t>
+  </si>
+  <si>
+    <t>Guler, Huahn</t>
+  </si>
+  <si>
+    <t>Schär (d´)</t>
+  </si>
+  <si>
+    <t>Gelrube</t>
+  </si>
+  <si>
+    <t>Götti</t>
+  </si>
+  <si>
+    <t>Geißle</t>
+  </si>
+  <si>
+    <t>schimpfe</t>
+  </si>
+  <si>
+    <t>Stachelbeeri</t>
+  </si>
+  <si>
+    <t>Topf</t>
+  </si>
+  <si>
+    <t>III_14_0043</t>
+  </si>
+  <si>
+    <t>q-p</t>
+  </si>
+  <si>
+    <t>Grissheim</t>
+  </si>
+  <si>
+    <t>Rud. Pielsch</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>S, A</t>
+  </si>
+  <si>
+    <t>Schüler und Eltern</t>
+  </si>
+  <si>
+    <t>Ömeise (w)</t>
+  </si>
+  <si>
+    <t>Liicht</t>
+  </si>
+  <si>
+    <t>Brumbrg</t>
+  </si>
+  <si>
+    <t>Dissl</t>
+  </si>
+  <si>
+    <t>Ärgestr</t>
+  </si>
+  <si>
+    <t>Flädermu̅s</t>
+  </si>
+  <si>
+    <t>Flie̅ge</t>
+  </si>
+  <si>
+    <t>Gühler, Hüehn</t>
+  </si>
+  <si>
+    <t>Hardepfl</t>
+  </si>
+  <si>
+    <t>Chatzerolli</t>
+  </si>
+  <si>
+    <t>Schärmüs</t>
+  </si>
+  <si>
+    <t>Bodekolrabe</t>
+  </si>
+  <si>
+    <t>Geisle</t>
+  </si>
+  <si>
+    <t>brüele</t>
+  </si>
+  <si>
+    <t>Chru̅seli</t>
+  </si>
+  <si>
+    <t>Gü[?]li</t>
+  </si>
+  <si>
+    <t>Stricknodle, Spiess</t>
+  </si>
+  <si>
+    <t>Schüssle</t>
+  </si>
+  <si>
+    <t>Geisse</t>
   </si>
 </sst>
 </file>
@@ -4259,8 +4409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11785,6 +11935,138 @@
       <c r="D52" t="s">
         <v>476</v>
       </c>
+      <c r="E52">
+        <v>12</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I52">
+        <v>25.1</v>
+      </c>
+      <c r="J52">
+        <v>47.5</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1259</v>
+      </c>
+      <c r="N52" t="s">
+        <v>1260</v>
+      </c>
+      <c r="O52" t="s">
+        <v>529</v>
+      </c>
+      <c r="P52" t="s">
+        <v>1261</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>1262</v>
+      </c>
+      <c r="T52" t="s">
+        <v>286</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="V52" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="W52" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="X52" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="Y52" s="7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="Z52" s="7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AA52" s="7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AB52" s="7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AC52" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AD52" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AE52" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AF52" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AG52" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AH52" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI52" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="AJ52" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK52" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AL52" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AM52" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN52" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AO52" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AP52" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ52" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AR52" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS52" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AT52" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU52" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="AV52" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW52" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AX52" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY52" s="3" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="53" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B53" s="6">
@@ -11795,6 +12077,138 @@
       </c>
       <c r="D53" t="s">
         <v>476</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H53" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53">
+        <v>25.1</v>
+      </c>
+      <c r="J53">
+        <v>47.5</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1282</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1283</v>
+      </c>
+      <c r="N53" t="s">
+        <v>1260</v>
+      </c>
+      <c r="O53" t="s">
+        <v>529</v>
+      </c>
+      <c r="P53" t="s">
+        <v>1284</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>1285</v>
+      </c>
+      <c r="T53" t="s">
+        <v>1286</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="V53" s="7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="W53" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="X53" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="Y53" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="Z53" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AA53" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB53" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="AC53" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AD53" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AE53" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AF53" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AG53" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AH53" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI53" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AJ53" s="7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AK53" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AL53" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AM53" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN53" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AO53" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AP53" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ53" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AR53" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS53" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AT53" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AU53" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AV53" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AW53" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX53" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY53" s="3" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="54" spans="2:51" x14ac:dyDescent="0.2">
